--- a/doc/sfs/sye/기본설계서_패키지명_REDBULL_송영은.xlsx
+++ b/doc/sfs/sye/기본설계서_패키지명_REDBULL_송영은.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12120" tabRatio="875" activeTab="3"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12120" tabRatio="875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Navigation" sheetId="19" r:id="rId1"/>
@@ -12,114 +12,115 @@
     <sheet name="프로그램사양서_product_detail.jsp" sheetId="89" r:id="rId3"/>
     <sheet name="프로그램사양서_cart.jsp" sheetId="90" r:id="rId4"/>
     <sheet name="프로그램사양서_pay.jsp" sheetId="91" r:id="rId5"/>
-    <sheet name="프로그램사양서_cart_complete.jsp" sheetId="92" r:id="rId6"/>
+    <sheet name="프로그램사양서_pay_complete.jsp" sheetId="92" r:id="rId6"/>
     <sheet name="프로그램사양서_전체" sheetId="41" r:id="rId7"/>
     <sheet name="프로그램사양서_LoginFX.fxml" sheetId="81" r:id="rId8"/>
     <sheet name="프로그램사양서_DataChartFX.fxml" sheetId="88" r:id="rId9"/>
     <sheet name="프로그램사양서_sifs2711a.pc" sheetId="42" r:id="rId10"/>
     <sheet name="데이터유효값정의" sheetId="80" r:id="rId11"/>
+    <sheet name="cart" sheetId="93" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="AccessDatabase" hidden="1">"C:\파생DESK\평가\월말평가\2001년11월\국내요약200111.mdb"</definedName>
     <definedName name="AP코드번호" localSheetId="3">#REF!</definedName>
+    <definedName name="AP코드번호" localSheetId="4">#REF!</definedName>
     <definedName name="AP코드번호" localSheetId="5">#REF!</definedName>
-    <definedName name="AP코드번호" localSheetId="4">#REF!</definedName>
     <definedName name="AP코드번호">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Navigation!$A$1:$O$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'프로그램 목록'!$A$1:$AO$77</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">프로그램사양서_cart.jsp!$A$1:$N$101</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">프로그램사양서_cart_complete.jsp!$A$1:$N$110</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">프로그램사양서_DataChartFX.fxml!$A$1:$N$111</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">프로그램사양서_LoginFX.fxml!$A$1:$N$111</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">프로그램사양서_pay.jsp!$A$1:$N$165</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">프로그램사양서_pay_complete.jsp!$A$1:$N$110</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">프로그램사양서_product_detail.jsp!$A$1:$N$111</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">프로그램사양서_sifs2711a.pc!$A$1:$M$531</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">프로그램사양서_전체!$A$1:$N$169</definedName>
     <definedName name="결함유형" localSheetId="3">#REF!</definedName>
+    <definedName name="결함유형" localSheetId="4">#REF!</definedName>
     <definedName name="결함유형" localSheetId="5">#REF!</definedName>
-    <definedName name="결함유형" localSheetId="4">#REF!</definedName>
     <definedName name="결함유형">#REF!</definedName>
     <definedName name="그룹모듈" localSheetId="3">#REF!</definedName>
+    <definedName name="그룹모듈" localSheetId="4">#REF!</definedName>
     <definedName name="그룹모듈" localSheetId="5">#REF!</definedName>
-    <definedName name="그룹모듈" localSheetId="4">#REF!</definedName>
     <definedName name="그룹모듈">#REF!</definedName>
     <definedName name="기술등급" localSheetId="3">#REF!</definedName>
+    <definedName name="기술등급" localSheetId="4">#REF!</definedName>
     <definedName name="기술등급" localSheetId="5">#REF!</definedName>
-    <definedName name="기술등급" localSheetId="4">#REF!</definedName>
     <definedName name="기술등급">#REF!</definedName>
     <definedName name="데이터Type" localSheetId="3">#REF!</definedName>
+    <definedName name="데이터Type" localSheetId="4">#REF!</definedName>
     <definedName name="데이터Type" localSheetId="5">#REF!</definedName>
-    <definedName name="데이터Type" localSheetId="4">#REF!</definedName>
     <definedName name="데이터Type">#REF!</definedName>
     <definedName name="데이터형태" localSheetId="3">#REF!</definedName>
+    <definedName name="데이터형태" localSheetId="4">#REF!</definedName>
     <definedName name="데이터형태" localSheetId="5">#REF!</definedName>
-    <definedName name="데이터형태" localSheetId="4">#REF!</definedName>
     <definedName name="데이터형태">#REF!</definedName>
     <definedName name="메인모듈" localSheetId="3">#REF!</definedName>
+    <definedName name="메인모듈" localSheetId="4">#REF!</definedName>
     <definedName name="메인모듈" localSheetId="5">#REF!</definedName>
-    <definedName name="메인모듈" localSheetId="4">#REF!</definedName>
     <definedName name="메인모듈">#REF!</definedName>
     <definedName name="모듈코드" localSheetId="2">#REF!</definedName>
     <definedName name="모듈코드">'프로그램 목록'!$D$70:$D$74</definedName>
     <definedName name="모듈코드번호" localSheetId="3">#REF!</definedName>
+    <definedName name="모듈코드번호" localSheetId="4">#REF!</definedName>
     <definedName name="모듈코드번호" localSheetId="5">#REF!</definedName>
-    <definedName name="모듈코드번호" localSheetId="4">#REF!</definedName>
     <definedName name="모듈코드번호">#REF!</definedName>
     <definedName name="변환구분" localSheetId="3">#REF!</definedName>
+    <definedName name="변환구분" localSheetId="4">#REF!</definedName>
     <definedName name="변환구분" localSheetId="5">#REF!</definedName>
-    <definedName name="변환구분" localSheetId="4">#REF!</definedName>
     <definedName name="변환구분">#REF!</definedName>
     <definedName name="변환방법" localSheetId="3">#REF!</definedName>
+    <definedName name="변환방법" localSheetId="4">#REF!</definedName>
     <definedName name="변환방법" localSheetId="5">#REF!</definedName>
-    <definedName name="변환방법" localSheetId="4">#REF!</definedName>
     <definedName name="변환방법">#REF!</definedName>
     <definedName name="서브모듈" localSheetId="3">#REF!</definedName>
+    <definedName name="서브모듈" localSheetId="4">#REF!</definedName>
     <definedName name="서브모듈" localSheetId="5">#REF!</definedName>
-    <definedName name="서브모듈" localSheetId="4">#REF!</definedName>
     <definedName name="서브모듈">#REF!</definedName>
     <definedName name="송수신구분" localSheetId="3">#REF!</definedName>
+    <definedName name="송수신구분" localSheetId="4">#REF!</definedName>
     <definedName name="송수신구분" localSheetId="5">#REF!</definedName>
-    <definedName name="송수신구분" localSheetId="4">#REF!</definedName>
     <definedName name="송수신구분">#REF!</definedName>
     <definedName name="시스템" localSheetId="3">#REF!</definedName>
+    <definedName name="시스템" localSheetId="4">#REF!</definedName>
     <definedName name="시스템" localSheetId="5">#REF!</definedName>
-    <definedName name="시스템" localSheetId="4">#REF!</definedName>
     <definedName name="시스템">#REF!</definedName>
     <definedName name="시스템코드" localSheetId="3">#REF!</definedName>
+    <definedName name="시스템코드" localSheetId="4">#REF!</definedName>
     <definedName name="시스템코드" localSheetId="5">#REF!</definedName>
-    <definedName name="시스템코드" localSheetId="4">#REF!</definedName>
     <definedName name="시스템코드">#REF!</definedName>
     <definedName name="어플리케이션코드" localSheetId="3">#REF!</definedName>
+    <definedName name="어플리케이션코드" localSheetId="4">#REF!</definedName>
     <definedName name="어플리케이션코드" localSheetId="5">#REF!</definedName>
-    <definedName name="어플리케이션코드" localSheetId="4">#REF!</definedName>
     <definedName name="어플리케이션코드">#REF!</definedName>
     <definedName name="업무구분" localSheetId="3">#REF!</definedName>
+    <definedName name="업무구분" localSheetId="4">#REF!</definedName>
     <definedName name="업무구분" localSheetId="5">#REF!</definedName>
-    <definedName name="업무구분" localSheetId="4">#REF!</definedName>
     <definedName name="업무구분">#REF!</definedName>
     <definedName name="여부">데이터유효값정의!$N$7:$N$8</definedName>
     <definedName name="요구사항구분" localSheetId="3">#REF!</definedName>
+    <definedName name="요구사항구분" localSheetId="4">#REF!</definedName>
     <definedName name="요구사항구분" localSheetId="5">#REF!</definedName>
-    <definedName name="요구사항구분" localSheetId="4">#REF!</definedName>
     <definedName name="요구사항구분">#REF!</definedName>
     <definedName name="요구사항반영구분" localSheetId="3">#REF!</definedName>
+    <definedName name="요구사항반영구분" localSheetId="4">#REF!</definedName>
     <definedName name="요구사항반영구분" localSheetId="5">#REF!</definedName>
-    <definedName name="요구사항반영구분" localSheetId="4">#REF!</definedName>
     <definedName name="요구사항반영구분">#REF!</definedName>
     <definedName name="이슈등급" localSheetId="3">#REF!</definedName>
+    <definedName name="이슈등급" localSheetId="4">#REF!</definedName>
     <definedName name="이슈등급" localSheetId="5">#REF!</definedName>
-    <definedName name="이슈등급" localSheetId="4">#REF!</definedName>
     <definedName name="이슈등급">#REF!</definedName>
     <definedName name="인터페이스방법" localSheetId="3">#REF!</definedName>
+    <definedName name="인터페이스방법" localSheetId="4">#REF!</definedName>
     <definedName name="인터페이스방법" localSheetId="5">#REF!</definedName>
-    <definedName name="인터페이스방법" localSheetId="4">#REF!</definedName>
     <definedName name="인터페이스방법">#REF!</definedName>
     <definedName name="작업주기" localSheetId="3">#REF!</definedName>
+    <definedName name="작업주기" localSheetId="4">#REF!</definedName>
     <definedName name="작업주기" localSheetId="5">#REF!</definedName>
-    <definedName name="작업주기" localSheetId="4">#REF!</definedName>
     <definedName name="작업주기">#REF!</definedName>
     <definedName name="프로그램구분" localSheetId="2">#REF!</definedName>
     <definedName name="프로그램구분">'프로그램 목록'!$M$70:$M$73</definedName>
@@ -131,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="889">
   <si>
     <t xml:space="preserve">  SELECT</t>
   </si>
@@ -3414,6 +3415,186 @@
   </si>
   <si>
     <t>마이페이지로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 담기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 상품 없으면 do_save</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>있으면 updateCart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int count = cartService.countCart( )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>count == 0 ? cartService.do_save : cartService.updateCart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_delete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 상품금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송비(상품마다 상이)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delevery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인 금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산 query</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰= a+b-c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록 보여주기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_cartlist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller말고 Test에서 분기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 삭제 / 전체 삭제(체크)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i.saveFileNm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.pname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.dprice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.afterPrice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.cartCnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a+b-c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>201-10-11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3435,7 +3616,7 @@
     <numFmt numFmtId="184" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="185" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="53">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -3783,8 +3964,15 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3878,6 +4066,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4568,7 +4762,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="408">
+  <cellXfs count="414">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5555,14 +5749,20 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="52" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="43" xfId="36" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="justify" textRotation="90"/>
     </xf>
@@ -5575,20 +5775,11 @@
     <xf numFmtId="0" fontId="42" fillId="14" borderId="43" xfId="36" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="justify" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5598,6 +5789,20 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5609,19 +5814,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5629,39 +5822,52 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -8210,7 +8416,7 @@
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
+            <a:srgbClr val="92D050"/>
           </a:solidFill>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -9067,6 +9273,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
         <a:ln>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
@@ -20953,6 +21162,212 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12401550" y="533400"/>
+          <a:ext cx="5010150" cy="3190875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10620375" y="4324350"/>
+          <a:ext cx="3971925" cy="3838575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="762000"/>
+          <a:ext cx="3848100" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>DaoCartTest.java</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>   -&gt;   CartDaoImpl.java   -&gt;   cart.xml</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CartWebTest</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>   -&gt;   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CartController.java   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>-&gt;   CartService.jave   -&gt;   CartServiceImpl.java   -&gt;   CartDaoImpl.java   -&gt;   cart.xml</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -21589,7 +22004,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="372"/>
+      <c r="A1" s="376"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -21605,7 +22020,7 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="373"/>
+      <c r="A2" s="377"/>
       <c r="B2" s="3" t="s">
         <v>48</v>
       </c>
@@ -21623,21 +22038,21 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="373"/>
+      <c r="A3" s="377"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="373"/>
+      <c r="A4" s="377"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="374"/>
+      <c r="A5" s="378"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -21929,7 +22344,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="372" t="s">
+      <c r="A1" s="376" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
@@ -21942,7 +22357,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="373"/>
+      <c r="A2" s="377"/>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
@@ -21955,21 +22370,21 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="373"/>
+      <c r="A3" s="377"/>
       <c r="B3" s="5"/>
       <c r="C3" s="254"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="373"/>
+      <c r="A4" s="377"/>
       <c r="B4" s="7"/>
       <c r="C4" s="255"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="374"/>
+      <c r="A5" s="378"/>
       <c r="B5" s="8"/>
       <c r="C5" s="256"/>
       <c r="D5" s="8"/>
@@ -28291,7 +28706,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="372" t="s">
+      <c r="A1" s="376" t="s">
         <v>102</v>
       </c>
       <c r="B1" s="1"/>
@@ -28307,7 +28722,7 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="373"/>
+      <c r="A2" s="377"/>
       <c r="B2" s="3" t="s">
         <v>367</v>
       </c>
@@ -28323,14 +28738,14 @@
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="373"/>
+      <c r="A3" s="377"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="373"/>
+      <c r="A4" s="377"/>
       <c r="B4" s="7" t="s">
         <v>368</v>
       </c>
@@ -28339,7 +28754,7 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:24" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="374"/>
+      <c r="A5" s="378"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -28892,6 +29307,204 @@
     <hyperlink ref="A1:A5" location="Navigation!A1" display="Navigation"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="E2:X33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="10" max="10" width="9.77734375" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="6:24" ht="18" customHeight="1" thickBot="1"/>
+    <row r="3" spans="6:24" ht="18" customHeight="1" thickBot="1">
+      <c r="F3" s="372" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4" spans="6:24" ht="18" customHeight="1">
+      <c r="I4" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="5" spans="6:24" ht="18" customHeight="1">
+      <c r="G5" s="375" t="s">
+        <v>847</v>
+      </c>
+      <c r="I5" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="6" spans="6:24" ht="18" customHeight="1">
+      <c r="I6" t="s">
+        <v>850</v>
+      </c>
+      <c r="X6" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="7" spans="6:24" ht="18" customHeight="1">
+      <c r="M7" s="374">
+        <v>43739</v>
+      </c>
+      <c r="N7" t="s">
+        <v>873</v>
+      </c>
+      <c r="X7" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="8" spans="6:24" ht="18" customHeight="1">
+      <c r="I8" t="s">
+        <v>851</v>
+      </c>
+      <c r="X8" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="9" spans="6:24" ht="18" customHeight="1">
+      <c r="I9" t="s">
+        <v>852</v>
+      </c>
+      <c r="X9" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="10" spans="6:24" ht="18" customHeight="1">
+      <c r="X10" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="12" spans="6:24" ht="18" customHeight="1">
+      <c r="G12" s="373" t="s">
+        <v>853</v>
+      </c>
+      <c r="I12" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="14" spans="6:24" ht="18" customHeight="1">
+      <c r="G14" s="373" t="s">
+        <v>855</v>
+      </c>
+      <c r="I14" t="s">
+        <v>856</v>
+      </c>
+      <c r="J14" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="16" spans="6:24" ht="18" customHeight="1">
+      <c r="G16" s="373" t="s">
+        <v>871</v>
+      </c>
+      <c r="I16" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="19" spans="5:22" ht="18" customHeight="1">
+      <c r="E19" t="s">
+        <v>863</v>
+      </c>
+      <c r="G19" s="373" t="s">
+        <v>857</v>
+      </c>
+      <c r="I19" t="s">
+        <v>858</v>
+      </c>
+      <c r="J19" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="21" spans="5:22" ht="18" customHeight="1">
+      <c r="G21" s="373" t="s">
+        <v>859</v>
+      </c>
+      <c r="I21" t="s">
+        <v>860</v>
+      </c>
+      <c r="J21" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="22" spans="5:22" ht="18" customHeight="1">
+      <c r="U22" t="s">
+        <v>880</v>
+      </c>
+      <c r="V22" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="23" spans="5:22" ht="18" customHeight="1">
+      <c r="G23" s="373" t="s">
+        <v>861</v>
+      </c>
+      <c r="I23" t="s">
+        <v>862</v>
+      </c>
+      <c r="J23" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="24" spans="5:22" ht="18" customHeight="1">
+      <c r="U24" t="s">
+        <v>881</v>
+      </c>
+      <c r="V24" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="25" spans="5:22" ht="18" customHeight="1">
+      <c r="G25" t="s">
+        <v>864</v>
+      </c>
+      <c r="I25" t="s">
+        <v>868</v>
+      </c>
+      <c r="J25" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="26" spans="5:22" ht="18" customHeight="1">
+      <c r="U26" t="s">
+        <v>882</v>
+      </c>
+      <c r="V26" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="28" spans="5:22" ht="18" customHeight="1">
+      <c r="V28" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="29" spans="5:22" ht="18" customHeight="1">
+      <c r="F29" t="s">
+        <v>869</v>
+      </c>
+      <c r="G29" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="33" spans="21:21" ht="18" customHeight="1">
+      <c r="U33" t="s">
+        <v>887</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -28900,8 +29513,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AS76"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C25" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P51" sqref="P51"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="L1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -28935,7 +29548,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="375" t="s">
+      <c r="A1" s="379" t="s">
         <v>469</v>
       </c>
       <c r="B1" s="1"/>
@@ -28948,7 +29561,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:45" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="373"/>
+      <c r="A2" s="377"/>
       <c r="B2" s="3" t="s">
         <v>470</v>
       </c>
@@ -28961,14 +29574,14 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:45" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="373"/>
+      <c r="A3" s="377"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:45" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="373"/>
+      <c r="A4" s="377"/>
       <c r="B4" s="7" t="s">
         <v>471</v>
       </c>
@@ -28977,7 +29590,7 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:45" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="374"/>
+      <c r="A5" s="378"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -29432,13 +30045,13 @@
       <c r="O11" s="349" t="s">
         <v>674</v>
       </c>
-      <c r="P11" s="349" t="s">
+      <c r="P11" s="413" t="s">
         <v>675</v>
       </c>
-      <c r="Q11" s="345" t="s">
+      <c r="Q11" s="412" t="s">
         <v>676</v>
       </c>
-      <c r="R11" s="345" t="s">
+      <c r="R11" s="412" t="s">
         <v>677</v>
       </c>
       <c r="S11" s="354" t="str">
@@ -29465,20 +30078,48 @@
       <c r="AA11" s="359">
         <v>43767</v>
       </c>
-      <c r="AB11" s="359"/>
-      <c r="AC11" s="359"/>
-      <c r="AD11" s="359"/>
-      <c r="AE11" s="359"/>
-      <c r="AF11" s="360"/>
-      <c r="AG11" s="361"/>
-      <c r="AH11" s="360"/>
-      <c r="AI11" s="360"/>
-      <c r="AJ11" s="360"/>
-      <c r="AK11" s="360"/>
-      <c r="AL11" s="360"/>
-      <c r="AM11" s="362"/>
-      <c r="AN11" s="359"/>
-      <c r="AO11" s="363"/>
+      <c r="AB11" s="359">
+        <v>43728</v>
+      </c>
+      <c r="AC11" s="359">
+        <v>43746</v>
+      </c>
+      <c r="AD11" s="359">
+        <v>43748</v>
+      </c>
+      <c r="AE11" s="359">
+        <v>43749</v>
+      </c>
+      <c r="AF11" s="360">
+        <v>43749</v>
+      </c>
+      <c r="AG11" s="361">
+        <v>43763</v>
+      </c>
+      <c r="AH11" s="359">
+        <v>43707</v>
+      </c>
+      <c r="AI11" s="359">
+        <v>43767</v>
+      </c>
+      <c r="AJ11" s="359">
+        <v>43728</v>
+      </c>
+      <c r="AK11" s="360">
+        <v>43748</v>
+      </c>
+      <c r="AL11" s="359">
+        <v>43748</v>
+      </c>
+      <c r="AM11" s="359" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN11" s="360">
+        <v>43749</v>
+      </c>
+      <c r="AO11" s="361">
+        <v>43763</v>
+      </c>
       <c r="AP11" s="364"/>
       <c r="AQ11" s="364"/>
       <c r="AR11" s="364"/>
@@ -29507,10 +30148,10 @@
         <v>674</v>
       </c>
       <c r="P12" s="349"/>
-      <c r="Q12" s="345" t="s">
+      <c r="Q12" s="412" t="s">
         <v>678</v>
       </c>
-      <c r="R12" s="345" t="s">
+      <c r="R12" s="412" t="s">
         <v>679</v>
       </c>
       <c r="S12" s="354" t="str">
@@ -29537,20 +30178,48 @@
       <c r="AA12" s="359">
         <v>43767</v>
       </c>
-      <c r="AB12" s="359"/>
-      <c r="AC12" s="359"/>
-      <c r="AD12" s="359"/>
-      <c r="AE12" s="359"/>
-      <c r="AF12" s="360"/>
-      <c r="AG12" s="361"/>
-      <c r="AH12" s="360"/>
-      <c r="AI12" s="360"/>
-      <c r="AJ12" s="360"/>
-      <c r="AK12" s="360"/>
-      <c r="AL12" s="360"/>
-      <c r="AM12" s="362"/>
-      <c r="AN12" s="359"/>
-      <c r="AO12" s="363"/>
+      <c r="AB12" s="359">
+        <v>43728</v>
+      </c>
+      <c r="AC12" s="359">
+        <v>43746</v>
+      </c>
+      <c r="AD12" s="359">
+        <v>43748</v>
+      </c>
+      <c r="AE12" s="359">
+        <v>43749</v>
+      </c>
+      <c r="AF12" s="360">
+        <v>43749</v>
+      </c>
+      <c r="AG12" s="361">
+        <v>43763</v>
+      </c>
+      <c r="AH12" s="359">
+        <v>43707</v>
+      </c>
+      <c r="AI12" s="359">
+        <v>43767</v>
+      </c>
+      <c r="AJ12" s="359">
+        <v>43728</v>
+      </c>
+      <c r="AK12" s="360">
+        <v>43748</v>
+      </c>
+      <c r="AL12" s="359">
+        <v>43748</v>
+      </c>
+      <c r="AM12" s="359" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN12" s="360">
+        <v>43749</v>
+      </c>
+      <c r="AO12" s="361">
+        <v>43763</v>
+      </c>
       <c r="AP12" s="364"/>
       <c r="AQ12" s="364"/>
       <c r="AR12" s="364"/>
@@ -29579,7 +30248,7 @@
         <v>674</v>
       </c>
       <c r="P13" s="349"/>
-      <c r="Q13" s="345" t="s">
+      <c r="Q13" s="412" t="s">
         <v>680</v>
       </c>
       <c r="R13" s="345"/>
@@ -29607,20 +30276,48 @@
       <c r="AA13" s="359">
         <v>43767</v>
       </c>
-      <c r="AB13" s="359"/>
-      <c r="AC13" s="359"/>
-      <c r="AD13" s="359"/>
-      <c r="AE13" s="359"/>
-      <c r="AF13" s="360"/>
-      <c r="AG13" s="361"/>
-      <c r="AH13" s="360"/>
-      <c r="AI13" s="360"/>
-      <c r="AJ13" s="360"/>
-      <c r="AK13" s="360"/>
-      <c r="AL13" s="360"/>
-      <c r="AM13" s="362"/>
-      <c r="AN13" s="359"/>
-      <c r="AO13" s="363"/>
+      <c r="AB13" s="359">
+        <v>43728</v>
+      </c>
+      <c r="AC13" s="359">
+        <v>43746</v>
+      </c>
+      <c r="AD13" s="359">
+        <v>43748</v>
+      </c>
+      <c r="AE13" s="359">
+        <v>43749</v>
+      </c>
+      <c r="AF13" s="360">
+        <v>43749</v>
+      </c>
+      <c r="AG13" s="361">
+        <v>43763</v>
+      </c>
+      <c r="AH13" s="359">
+        <v>43707</v>
+      </c>
+      <c r="AI13" s="359">
+        <v>43767</v>
+      </c>
+      <c r="AJ13" s="359">
+        <v>43728</v>
+      </c>
+      <c r="AK13" s="360">
+        <v>43748</v>
+      </c>
+      <c r="AL13" s="359">
+        <v>43748</v>
+      </c>
+      <c r="AM13" s="359" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN13" s="360">
+        <v>43749</v>
+      </c>
+      <c r="AO13" s="361">
+        <v>43763</v>
+      </c>
       <c r="AP13" s="364"/>
       <c r="AQ13" s="364"/>
       <c r="AR13" s="364"/>
@@ -29681,15 +30378,33 @@
       <c r="AA14" s="359">
         <v>43767</v>
       </c>
-      <c r="AB14" s="359"/>
-      <c r="AC14" s="359"/>
-      <c r="AD14" s="359"/>
-      <c r="AE14" s="359"/>
-      <c r="AF14" s="360"/>
-      <c r="AG14" s="361"/>
-      <c r="AH14" s="360"/>
-      <c r="AI14" s="360"/>
-      <c r="AJ14" s="360"/>
+      <c r="AB14" s="359">
+        <v>43752</v>
+      </c>
+      <c r="AC14" s="359">
+        <v>43755</v>
+      </c>
+      <c r="AD14" s="359">
+        <v>43756</v>
+      </c>
+      <c r="AE14" s="359">
+        <v>43760</v>
+      </c>
+      <c r="AF14" s="359">
+        <v>43760</v>
+      </c>
+      <c r="AG14" s="361">
+        <v>43766</v>
+      </c>
+      <c r="AH14" s="359">
+        <v>43707</v>
+      </c>
+      <c r="AI14" s="359">
+        <v>43767</v>
+      </c>
+      <c r="AJ14" s="359">
+        <v>43752</v>
+      </c>
       <c r="AK14" s="360"/>
       <c r="AL14" s="360"/>
       <c r="AM14" s="362"/>
@@ -29753,15 +30468,33 @@
       <c r="AA15" s="359">
         <v>43767</v>
       </c>
-      <c r="AB15" s="359"/>
-      <c r="AC15" s="359"/>
-      <c r="AD15" s="359"/>
-      <c r="AE15" s="359"/>
-      <c r="AF15" s="360"/>
-      <c r="AG15" s="361"/>
-      <c r="AH15" s="360"/>
-      <c r="AI15" s="360"/>
-      <c r="AJ15" s="360"/>
+      <c r="AB15" s="359">
+        <v>43752</v>
+      </c>
+      <c r="AC15" s="359">
+        <v>43755</v>
+      </c>
+      <c r="AD15" s="359">
+        <v>43756</v>
+      </c>
+      <c r="AE15" s="359">
+        <v>43760</v>
+      </c>
+      <c r="AF15" s="359">
+        <v>43760</v>
+      </c>
+      <c r="AG15" s="361">
+        <v>43766</v>
+      </c>
+      <c r="AH15" s="359">
+        <v>43707</v>
+      </c>
+      <c r="AI15" s="359">
+        <v>43767</v>
+      </c>
+      <c r="AJ15" s="359">
+        <v>43752</v>
+      </c>
       <c r="AK15" s="360"/>
       <c r="AL15" s="360"/>
       <c r="AM15" s="362"/>
@@ -29823,15 +30556,33 @@
       <c r="AA16" s="359">
         <v>43767</v>
       </c>
-      <c r="AB16" s="359"/>
-      <c r="AC16" s="359"/>
-      <c r="AD16" s="359"/>
-      <c r="AE16" s="359"/>
-      <c r="AF16" s="360"/>
-      <c r="AG16" s="361"/>
-      <c r="AH16" s="360"/>
-      <c r="AI16" s="360"/>
-      <c r="AJ16" s="360"/>
+      <c r="AB16" s="359">
+        <v>43752</v>
+      </c>
+      <c r="AC16" s="359">
+        <v>43755</v>
+      </c>
+      <c r="AD16" s="359">
+        <v>43756</v>
+      </c>
+      <c r="AE16" s="359">
+        <v>43760</v>
+      </c>
+      <c r="AF16" s="359">
+        <v>43760</v>
+      </c>
+      <c r="AG16" s="361">
+        <v>43766</v>
+      </c>
+      <c r="AH16" s="359">
+        <v>43707</v>
+      </c>
+      <c r="AI16" s="359">
+        <v>43767</v>
+      </c>
+      <c r="AJ16" s="359">
+        <v>43752</v>
+      </c>
       <c r="AK16" s="360"/>
       <c r="AL16" s="360"/>
       <c r="AM16" s="362"/>
@@ -31703,15 +32454,33 @@
       <c r="AA43" s="359">
         <v>43767</v>
       </c>
-      <c r="AB43" s="359"/>
-      <c r="AC43" s="359"/>
-      <c r="AD43" s="359"/>
-      <c r="AE43" s="359"/>
-      <c r="AF43" s="360"/>
-      <c r="AG43" s="361"/>
-      <c r="AH43" s="359"/>
-      <c r="AI43" s="359"/>
-      <c r="AJ43" s="360"/>
+      <c r="AB43" s="359">
+        <v>43745</v>
+      </c>
+      <c r="AC43" s="359">
+        <v>43749</v>
+      </c>
+      <c r="AD43" s="359">
+        <v>43752</v>
+      </c>
+      <c r="AE43" s="359">
+        <v>43756</v>
+      </c>
+      <c r="AF43" s="360">
+        <v>43756</v>
+      </c>
+      <c r="AG43" s="361">
+        <v>43763</v>
+      </c>
+      <c r="AH43" s="359">
+        <v>43707</v>
+      </c>
+      <c r="AI43" s="359">
+        <v>43767</v>
+      </c>
+      <c r="AJ43" s="360">
+        <v>43748</v>
+      </c>
       <c r="AK43" s="362"/>
       <c r="AL43" s="360"/>
       <c r="AM43" s="361"/>
@@ -31773,14 +32542,30 @@
       <c r="AA44" s="359">
         <v>43767</v>
       </c>
-      <c r="AB44" s="359"/>
-      <c r="AC44" s="359"/>
-      <c r="AD44" s="359"/>
-      <c r="AE44" s="359"/>
-      <c r="AF44" s="360"/>
-      <c r="AG44" s="361"/>
-      <c r="AH44" s="359"/>
-      <c r="AI44" s="359"/>
+      <c r="AB44" s="359">
+        <v>43759</v>
+      </c>
+      <c r="AC44" s="359">
+        <v>43762</v>
+      </c>
+      <c r="AD44" s="359">
+        <v>43762</v>
+      </c>
+      <c r="AE44" s="359">
+        <v>43766</v>
+      </c>
+      <c r="AF44" s="360">
+        <v>43766</v>
+      </c>
+      <c r="AG44" s="360">
+        <v>43766</v>
+      </c>
+      <c r="AH44" s="359">
+        <v>43707</v>
+      </c>
+      <c r="AI44" s="359">
+        <v>43767</v>
+      </c>
       <c r="AJ44" s="360"/>
       <c r="AK44" s="361"/>
       <c r="AL44" s="360"/>
@@ -31843,14 +32628,30 @@
       <c r="AA45" s="359">
         <v>43767</v>
       </c>
-      <c r="AB45" s="359"/>
-      <c r="AC45" s="359"/>
-      <c r="AD45" s="359"/>
-      <c r="AE45" s="359"/>
-      <c r="AF45" s="360"/>
-      <c r="AG45" s="361"/>
-      <c r="AH45" s="359"/>
-      <c r="AI45" s="359"/>
+      <c r="AB45" s="359">
+        <v>43759</v>
+      </c>
+      <c r="AC45" s="359">
+        <v>43759</v>
+      </c>
+      <c r="AD45" s="359">
+        <v>43763</v>
+      </c>
+      <c r="AE45" s="359">
+        <v>43766</v>
+      </c>
+      <c r="AF45" s="360">
+        <v>43766</v>
+      </c>
+      <c r="AG45" s="360">
+        <v>43766</v>
+      </c>
+      <c r="AH45" s="359">
+        <v>43707</v>
+      </c>
+      <c r="AI45" s="359">
+        <v>43767</v>
+      </c>
       <c r="AJ45" s="360"/>
       <c r="AK45" s="361"/>
       <c r="AL45" s="360"/>
@@ -33593,7 +34394,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A1" s="372" t="s">
+      <c r="A1" s="376" t="s">
         <v>594</v>
       </c>
       <c r="B1" s="1"/>
@@ -33604,7 +34405,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="373"/>
+      <c r="A2" s="377"/>
       <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
@@ -33615,18 +34416,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="373"/>
+      <c r="A3" s="377"/>
       <c r="G3" s="113"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="373"/>
+      <c r="A4" s="377"/>
       <c r="B4" s="7" t="s">
         <v>595</v>
       </c>
       <c r="G4" s="113"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A5" s="374"/>
+      <c r="A5" s="378"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -33641,10 +34442,10 @@
       <c r="B6" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="395" t="s">
+      <c r="C6" s="380" t="s">
         <v>662</v>
       </c>
-      <c r="D6" s="396"/>
+      <c r="D6" s="381"/>
       <c r="E6" s="180" t="str">
         <f>IF(ISNA(VLOOKUP(C6,'[1]프로그램 목록'!$P$7:$V$30,6,FALSE)),"",VLOOKUP(C6,'[1]프로그램 목록'!$P$7:$V$30,6,FALSE))</f>
         <v/>
@@ -33904,8 +34705,8 @@
       <c r="E19" s="307"/>
       <c r="F19" s="308"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="397"/>
-      <c r="I19" s="397"/>
+      <c r="H19" s="385"/>
+      <c r="I19" s="385"/>
       <c r="J19" s="16"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
@@ -34143,17 +34944,17 @@
       <c r="B35" s="310" t="s">
         <v>597</v>
       </c>
-      <c r="C35" s="398"/>
-      <c r="D35" s="399"/>
-      <c r="E35" s="399"/>
-      <c r="F35" s="399"/>
-      <c r="G35" s="399"/>
-      <c r="H35" s="399"/>
-      <c r="I35" s="399"/>
-      <c r="J35" s="399"/>
-      <c r="K35" s="399"/>
-      <c r="L35" s="399"/>
-      <c r="M35" s="399"/>
+      <c r="C35" s="386"/>
+      <c r="D35" s="387"/>
+      <c r="E35" s="387"/>
+      <c r="F35" s="387"/>
+      <c r="G35" s="387"/>
+      <c r="H35" s="387"/>
+      <c r="I35" s="387"/>
+      <c r="J35" s="387"/>
+      <c r="K35" s="387"/>
+      <c r="L35" s="387"/>
+      <c r="M35" s="387"/>
     </row>
     <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="13"/>
@@ -34292,13 +35093,13 @@
       <c r="B45" s="76" t="s">
         <v>596</v>
       </c>
-      <c r="C45" s="384" t="s">
+      <c r="C45" s="391" t="s">
         <v>647</v>
       </c>
-      <c r="D45" s="385"/>
-      <c r="E45" s="385"/>
-      <c r="F45" s="385"/>
-      <c r="G45" s="386"/>
+      <c r="D45" s="392"/>
+      <c r="E45" s="392"/>
+      <c r="F45" s="392"/>
+      <c r="G45" s="393"/>
       <c r="H45" s="12" t="s">
         <v>601</v>
       </c>
@@ -34308,16 +35109,16 @@
       <c r="J45" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K45" s="381"/>
-      <c r="L45" s="382"/>
-      <c r="M45" s="383"/>
+      <c r="K45" s="382"/>
+      <c r="L45" s="383"/>
+      <c r="M45" s="384"/>
     </row>
     <row r="46" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="13"/>
       <c r="B46" s="292" t="s">
         <v>648</v>
       </c>
-      <c r="C46" s="387"/>
+      <c r="C46" s="388"/>
       <c r="D46" s="389"/>
       <c r="E46" s="389"/>
       <c r="F46" s="389"/>
@@ -34331,22 +35132,22 @@
       <c r="J46" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K46" s="381">
+      <c r="K46" s="382">
         <v>1</v>
       </c>
-      <c r="L46" s="382"/>
-      <c r="M46" s="383"/>
+      <c r="L46" s="383"/>
+      <c r="M46" s="384"/>
     </row>
     <row r="47" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="13"/>
       <c r="B47" s="292" t="s">
         <v>649</v>
       </c>
-      <c r="C47" s="384"/>
-      <c r="D47" s="385"/>
-      <c r="E47" s="385"/>
-      <c r="F47" s="385"/>
-      <c r="G47" s="386"/>
+      <c r="C47" s="391"/>
+      <c r="D47" s="392"/>
+      <c r="E47" s="392"/>
+      <c r="F47" s="392"/>
+      <c r="G47" s="393"/>
       <c r="H47" s="12" t="s">
         <v>601</v>
       </c>
@@ -34356,20 +35157,20 @@
       <c r="J47" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K47" s="381">
+      <c r="K47" s="382">
         <v>1</v>
       </c>
-      <c r="L47" s="382"/>
-      <c r="M47" s="383"/>
+      <c r="L47" s="383"/>
+      <c r="M47" s="384"/>
     </row>
     <row r="48" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="13"/>
       <c r="B48" s="292"/>
-      <c r="C48" s="384"/>
-      <c r="D48" s="385"/>
-      <c r="E48" s="385"/>
-      <c r="F48" s="385"/>
-      <c r="G48" s="386"/>
+      <c r="C48" s="391"/>
+      <c r="D48" s="392"/>
+      <c r="E48" s="392"/>
+      <c r="F48" s="392"/>
+      <c r="G48" s="393"/>
       <c r="H48" s="12" t="s">
         <v>601</v>
       </c>
@@ -34377,18 +35178,18 @@
       <c r="J48" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K48" s="381"/>
-      <c r="L48" s="382"/>
-      <c r="M48" s="383"/>
+      <c r="K48" s="382"/>
+      <c r="L48" s="383"/>
+      <c r="M48" s="384"/>
     </row>
     <row r="49" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="13"/>
       <c r="B49" s="292"/>
-      <c r="C49" s="384"/>
-      <c r="D49" s="385"/>
-      <c r="E49" s="385"/>
-      <c r="F49" s="385"/>
-      <c r="G49" s="386"/>
+      <c r="C49" s="391"/>
+      <c r="D49" s="392"/>
+      <c r="E49" s="392"/>
+      <c r="F49" s="392"/>
+      <c r="G49" s="393"/>
       <c r="H49" s="12" t="s">
         <v>601</v>
       </c>
@@ -34396,18 +35197,18 @@
       <c r="J49" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K49" s="381"/>
-      <c r="L49" s="382"/>
-      <c r="M49" s="383"/>
+      <c r="K49" s="382"/>
+      <c r="L49" s="383"/>
+      <c r="M49" s="384"/>
     </row>
     <row r="50" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="13"/>
       <c r="B50" s="292"/>
-      <c r="C50" s="384"/>
-      <c r="D50" s="385"/>
-      <c r="E50" s="385"/>
-      <c r="F50" s="385"/>
-      <c r="G50" s="386"/>
+      <c r="C50" s="391"/>
+      <c r="D50" s="392"/>
+      <c r="E50" s="392"/>
+      <c r="F50" s="392"/>
+      <c r="G50" s="393"/>
       <c r="H50" s="12" t="s">
         <v>601</v>
       </c>
@@ -34415,18 +35216,18 @@
       <c r="J50" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K50" s="381"/>
-      <c r="L50" s="382"/>
-      <c r="M50" s="383"/>
+      <c r="K50" s="382"/>
+      <c r="L50" s="383"/>
+      <c r="M50" s="384"/>
     </row>
     <row r="51" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="13"/>
       <c r="B51" s="292"/>
-      <c r="C51" s="384"/>
-      <c r="D51" s="385"/>
-      <c r="E51" s="385"/>
-      <c r="F51" s="385"/>
-      <c r="G51" s="386"/>
+      <c r="C51" s="391"/>
+      <c r="D51" s="392"/>
+      <c r="E51" s="392"/>
+      <c r="F51" s="392"/>
+      <c r="G51" s="393"/>
       <c r="H51" s="12" t="s">
         <v>601</v>
       </c>
@@ -34434,18 +35235,18 @@
       <c r="J51" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K51" s="381"/>
-      <c r="L51" s="382"/>
-      <c r="M51" s="383"/>
+      <c r="K51" s="382"/>
+      <c r="L51" s="383"/>
+      <c r="M51" s="384"/>
     </row>
     <row r="52" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="112"/>
-      <c r="C52" s="384"/>
-      <c r="D52" s="385"/>
-      <c r="E52" s="385"/>
-      <c r="F52" s="385"/>
-      <c r="G52" s="386"/>
+      <c r="C52" s="391"/>
+      <c r="D52" s="392"/>
+      <c r="E52" s="392"/>
+      <c r="F52" s="392"/>
+      <c r="G52" s="393"/>
       <c r="H52" s="12" t="s">
         <v>601</v>
       </c>
@@ -34453,14 +35254,14 @@
       <c r="J52" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K52" s="381"/>
-      <c r="L52" s="382"/>
-      <c r="M52" s="383"/>
+      <c r="K52" s="382"/>
+      <c r="L52" s="383"/>
+      <c r="M52" s="384"/>
     </row>
     <row r="53" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="13"/>
       <c r="B53" s="112"/>
-      <c r="C53" s="387"/>
+      <c r="C53" s="388"/>
       <c r="D53" s="389"/>
       <c r="E53" s="389"/>
       <c r="F53" s="389"/>
@@ -34472,18 +35273,18 @@
       <c r="J53" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K53" s="381"/>
-      <c r="L53" s="382"/>
-      <c r="M53" s="383"/>
+      <c r="K53" s="382"/>
+      <c r="L53" s="383"/>
+      <c r="M53" s="384"/>
     </row>
     <row r="54" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="13"/>
       <c r="B54" s="323"/>
-      <c r="C54" s="384"/>
-      <c r="D54" s="385"/>
-      <c r="E54" s="385"/>
-      <c r="F54" s="385"/>
-      <c r="G54" s="386"/>
+      <c r="C54" s="391"/>
+      <c r="D54" s="392"/>
+      <c r="E54" s="392"/>
+      <c r="F54" s="392"/>
+      <c r="G54" s="393"/>
       <c r="H54" s="12" t="s">
         <v>601</v>
       </c>
@@ -34491,18 +35292,18 @@
       <c r="J54" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K54" s="381"/>
-      <c r="L54" s="382"/>
-      <c r="M54" s="383"/>
+      <c r="K54" s="382"/>
+      <c r="L54" s="383"/>
+      <c r="M54" s="384"/>
     </row>
     <row r="55" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="13"/>
       <c r="B55" s="323"/>
-      <c r="C55" s="384"/>
-      <c r="D55" s="385"/>
-      <c r="E55" s="385"/>
-      <c r="F55" s="385"/>
-      <c r="G55" s="386"/>
+      <c r="C55" s="391"/>
+      <c r="D55" s="392"/>
+      <c r="E55" s="392"/>
+      <c r="F55" s="392"/>
+      <c r="G55" s="393"/>
       <c r="H55" s="12" t="s">
         <v>601</v>
       </c>
@@ -34510,18 +35311,18 @@
       <c r="J55" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K55" s="381"/>
-      <c r="L55" s="382"/>
-      <c r="M55" s="383"/>
+      <c r="K55" s="382"/>
+      <c r="L55" s="383"/>
+      <c r="M55" s="384"/>
     </row>
     <row r="56" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A56" s="13"/>
       <c r="B56" s="323"/>
-      <c r="C56" s="384"/>
-      <c r="D56" s="385"/>
-      <c r="E56" s="385"/>
-      <c r="F56" s="385"/>
-      <c r="G56" s="386"/>
+      <c r="C56" s="391"/>
+      <c r="D56" s="392"/>
+      <c r="E56" s="392"/>
+      <c r="F56" s="392"/>
+      <c r="G56" s="393"/>
       <c r="H56" s="12" t="s">
         <v>601</v>
       </c>
@@ -34529,9 +35330,9 @@
       <c r="J56" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K56" s="381"/>
-      <c r="L56" s="382"/>
-      <c r="M56" s="383"/>
+      <c r="K56" s="382"/>
+      <c r="L56" s="383"/>
+      <c r="M56" s="384"/>
     </row>
     <row r="57" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="13"/>
@@ -34579,18 +35380,18 @@
         <v>1</v>
       </c>
       <c r="C60" s="291"/>
-      <c r="D60" s="379" t="s">
+      <c r="D60" s="394" t="s">
         <v>652</v>
       </c>
-      <c r="E60" s="392"/>
-      <c r="F60" s="392"/>
-      <c r="G60" s="392"/>
-      <c r="H60" s="392"/>
-      <c r="I60" s="393"/>
-      <c r="J60" s="376"/>
-      <c r="K60" s="378"/>
-      <c r="L60" s="379"/>
-      <c r="M60" s="378"/>
+      <c r="E60" s="395"/>
+      <c r="F60" s="395"/>
+      <c r="G60" s="395"/>
+      <c r="H60" s="395"/>
+      <c r="I60" s="396"/>
+      <c r="J60" s="398"/>
+      <c r="K60" s="397"/>
+      <c r="L60" s="394"/>
+      <c r="M60" s="397"/>
     </row>
     <row r="61" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="13"/>
@@ -34598,22 +35399,22 @@
         <v>2</v>
       </c>
       <c r="C61" s="291"/>
-      <c r="D61" s="379" t="s">
+      <c r="D61" s="394" t="s">
         <v>653</v>
       </c>
-      <c r="E61" s="388"/>
-      <c r="F61" s="388"/>
-      <c r="G61" s="388"/>
-      <c r="H61" s="388"/>
-      <c r="I61" s="380"/>
-      <c r="J61" s="376" t="s">
+      <c r="E61" s="401"/>
+      <c r="F61" s="401"/>
+      <c r="G61" s="401"/>
+      <c r="H61" s="401"/>
+      <c r="I61" s="402"/>
+      <c r="J61" s="398" t="s">
         <v>611</v>
       </c>
-      <c r="K61" s="378"/>
-      <c r="L61" s="379" t="s">
+      <c r="K61" s="397"/>
+      <c r="L61" s="394" t="s">
         <v>612</v>
       </c>
-      <c r="M61" s="394"/>
+      <c r="M61" s="403"/>
     </row>
     <row r="62" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="13"/>
@@ -34621,7 +35422,7 @@
         <v>3</v>
       </c>
       <c r="C62" s="291"/>
-      <c r="D62" s="387" t="s">
+      <c r="D62" s="388" t="s">
         <v>654</v>
       </c>
       <c r="E62" s="389"/>
@@ -34629,10 +35430,10 @@
       <c r="G62" s="389"/>
       <c r="H62" s="389"/>
       <c r="I62" s="390"/>
-      <c r="J62" s="376"/>
-      <c r="K62" s="378"/>
-      <c r="L62" s="379"/>
-      <c r="M62" s="394"/>
+      <c r="J62" s="398"/>
+      <c r="K62" s="397"/>
+      <c r="L62" s="394"/>
+      <c r="M62" s="403"/>
     </row>
     <row r="63" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="13"/>
@@ -34640,18 +35441,18 @@
         <v>4</v>
       </c>
       <c r="C63" s="291"/>
-      <c r="D63" s="379" t="s">
+      <c r="D63" s="394" t="s">
         <v>655</v>
       </c>
-      <c r="E63" s="392"/>
-      <c r="F63" s="392"/>
-      <c r="G63" s="392"/>
-      <c r="H63" s="392"/>
-      <c r="I63" s="393"/>
-      <c r="J63" s="376"/>
-      <c r="K63" s="378"/>
-      <c r="L63" s="379"/>
-      <c r="M63" s="394"/>
+      <c r="E63" s="395"/>
+      <c r="F63" s="395"/>
+      <c r="G63" s="395"/>
+      <c r="H63" s="395"/>
+      <c r="I63" s="396"/>
+      <c r="J63" s="398"/>
+      <c r="K63" s="397"/>
+      <c r="L63" s="394"/>
+      <c r="M63" s="403"/>
     </row>
     <row r="64" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="13"/>
@@ -34659,14 +35460,14 @@
         <v>5</v>
       </c>
       <c r="C64" s="291"/>
-      <c r="D64" s="379" t="s">
+      <c r="D64" s="394" t="s">
         <v>656</v>
       </c>
-      <c r="E64" s="391"/>
-      <c r="F64" s="391"/>
-      <c r="G64" s="391"/>
-      <c r="H64" s="391"/>
-      <c r="I64" s="377"/>
+      <c r="E64" s="399"/>
+      <c r="F64" s="399"/>
+      <c r="G64" s="399"/>
+      <c r="H64" s="399"/>
+      <c r="I64" s="400"/>
       <c r="J64" s="105"/>
       <c r="K64" s="238"/>
       <c r="L64" s="203"/>
@@ -34678,17 +35479,17 @@
         <v>6</v>
       </c>
       <c r="C65" s="291"/>
-      <c r="D65" s="379" t="s">
+      <c r="D65" s="394" t="s">
         <v>657</v>
       </c>
-      <c r="E65" s="388"/>
-      <c r="F65" s="388"/>
-      <c r="G65" s="388"/>
-      <c r="H65" s="388"/>
-      <c r="I65" s="380"/>
+      <c r="E65" s="401"/>
+      <c r="F65" s="401"/>
+      <c r="G65" s="401"/>
+      <c r="H65" s="401"/>
+      <c r="I65" s="402"/>
       <c r="J65" s="105"/>
       <c r="K65" s="238"/>
-      <c r="L65" s="387"/>
+      <c r="L65" s="388"/>
       <c r="M65" s="390"/>
     </row>
     <row r="66" spans="1:15" ht="17.100000000000001" customHeight="1">
@@ -34697,22 +35498,22 @@
         <v>7</v>
       </c>
       <c r="C66" s="291"/>
-      <c r="D66" s="379" t="s">
+      <c r="D66" s="394" t="s">
         <v>659</v>
       </c>
-      <c r="E66" s="392"/>
-      <c r="F66" s="392"/>
-      <c r="G66" s="392"/>
-      <c r="H66" s="392"/>
-      <c r="I66" s="393"/>
-      <c r="J66" s="376" t="s">
+      <c r="E66" s="395"/>
+      <c r="F66" s="395"/>
+      <c r="G66" s="395"/>
+      <c r="H66" s="395"/>
+      <c r="I66" s="396"/>
+      <c r="J66" s="398" t="s">
         <v>613</v>
       </c>
-      <c r="K66" s="393"/>
-      <c r="L66" s="379" t="s">
+      <c r="K66" s="396"/>
+      <c r="L66" s="394" t="s">
         <v>614</v>
       </c>
-      <c r="M66" s="393"/>
+      <c r="M66" s="396"/>
     </row>
     <row r="67" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A67" s="13"/>
@@ -34720,18 +35521,18 @@
         <v>8</v>
       </c>
       <c r="C67" s="291"/>
-      <c r="D67" s="379" t="s">
+      <c r="D67" s="394" t="s">
         <v>650</v>
       </c>
-      <c r="E67" s="388"/>
-      <c r="F67" s="388"/>
-      <c r="G67" s="388"/>
-      <c r="H67" s="388"/>
-      <c r="I67" s="380"/>
-      <c r="J67" s="376"/>
-      <c r="K67" s="377"/>
-      <c r="L67" s="379"/>
-      <c r="M67" s="394"/>
+      <c r="E67" s="401"/>
+      <c r="F67" s="401"/>
+      <c r="G67" s="401"/>
+      <c r="H67" s="401"/>
+      <c r="I67" s="402"/>
+      <c r="J67" s="398"/>
+      <c r="K67" s="400"/>
+      <c r="L67" s="394"/>
+      <c r="M67" s="403"/>
     </row>
     <row r="68" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A68" s="13"/>
@@ -34739,24 +35540,24 @@
         <v>9</v>
       </c>
       <c r="C68" s="291"/>
-      <c r="D68" s="379" t="s">
+      <c r="D68" s="394" t="s">
         <v>661</v>
       </c>
-      <c r="E68" s="388"/>
-      <c r="F68" s="388"/>
-      <c r="G68" s="388"/>
-      <c r="H68" s="388"/>
-      <c r="I68" s="380"/>
-      <c r="J68" s="376"/>
-      <c r="K68" s="377"/>
-      <c r="L68" s="376"/>
-      <c r="M68" s="377"/>
+      <c r="E68" s="401"/>
+      <c r="F68" s="401"/>
+      <c r="G68" s="401"/>
+      <c r="H68" s="401"/>
+      <c r="I68" s="402"/>
+      <c r="J68" s="398"/>
+      <c r="K68" s="400"/>
+      <c r="L68" s="398"/>
+      <c r="M68" s="400"/>
     </row>
     <row r="69" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A69" s="13"/>
       <c r="B69" s="112"/>
       <c r="C69" s="291"/>
-      <c r="D69" s="387"/>
+      <c r="D69" s="388"/>
       <c r="E69" s="389"/>
       <c r="F69" s="389"/>
       <c r="G69" s="389"/>
@@ -34771,7 +35572,7 @@
       <c r="A70" s="13"/>
       <c r="B70" s="112"/>
       <c r="C70" s="291"/>
-      <c r="D70" s="387"/>
+      <c r="D70" s="388"/>
       <c r="E70" s="389"/>
       <c r="F70" s="389"/>
       <c r="G70" s="389"/>
@@ -34786,16 +35587,16 @@
       <c r="A71" s="13"/>
       <c r="B71" s="112"/>
       <c r="C71" s="324"/>
-      <c r="D71" s="379"/>
-      <c r="E71" s="391"/>
-      <c r="F71" s="391"/>
-      <c r="G71" s="391"/>
-      <c r="H71" s="391"/>
-      <c r="I71" s="377"/>
-      <c r="J71" s="376"/>
-      <c r="K71" s="378"/>
-      <c r="L71" s="379"/>
-      <c r="M71" s="380"/>
+      <c r="D71" s="394"/>
+      <c r="E71" s="399"/>
+      <c r="F71" s="399"/>
+      <c r="G71" s="399"/>
+      <c r="H71" s="399"/>
+      <c r="I71" s="400"/>
+      <c r="J71" s="398"/>
+      <c r="K71" s="397"/>
+      <c r="L71" s="394"/>
+      <c r="M71" s="402"/>
     </row>
     <row r="72" spans="1:15" s="220" customFormat="1" ht="17.100000000000001" customHeight="1"/>
     <row r="73" spans="1:15" ht="17.100000000000001" customHeight="1">
@@ -34835,13 +35636,13 @@
     <row r="75" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A75" s="13"/>
       <c r="B75" s="78"/>
-      <c r="C75" s="384"/>
-      <c r="D75" s="385"/>
-      <c r="E75" s="385"/>
-      <c r="F75" s="385"/>
-      <c r="G75" s="385"/>
-      <c r="H75" s="385"/>
-      <c r="I75" s="386"/>
+      <c r="C75" s="391"/>
+      <c r="D75" s="392"/>
+      <c r="E75" s="392"/>
+      <c r="F75" s="392"/>
+      <c r="G75" s="392"/>
+      <c r="H75" s="392"/>
+      <c r="I75" s="393"/>
       <c r="J75" s="78"/>
       <c r="K75" s="112"/>
       <c r="L75" s="112"/>
@@ -34854,13 +35655,13 @@
         <v>621</v>
       </c>
       <c r="B76" s="78"/>
-      <c r="C76" s="384"/>
-      <c r="D76" s="385"/>
-      <c r="E76" s="385"/>
-      <c r="F76" s="385"/>
-      <c r="G76" s="385"/>
-      <c r="H76" s="385"/>
-      <c r="I76" s="386"/>
+      <c r="C76" s="391"/>
+      <c r="D76" s="392"/>
+      <c r="E76" s="392"/>
+      <c r="F76" s="392"/>
+      <c r="G76" s="392"/>
+      <c r="H76" s="392"/>
+      <c r="I76" s="393"/>
       <c r="J76" s="78"/>
       <c r="K76" s="112"/>
       <c r="L76" s="112"/>
@@ -34871,13 +35672,13 @@
     <row r="77" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A77" s="13"/>
       <c r="B77" s="78"/>
-      <c r="C77" s="387"/>
-      <c r="D77" s="385"/>
-      <c r="E77" s="385"/>
-      <c r="F77" s="385"/>
-      <c r="G77" s="385"/>
-      <c r="H77" s="385"/>
-      <c r="I77" s="386"/>
+      <c r="C77" s="388"/>
+      <c r="D77" s="392"/>
+      <c r="E77" s="392"/>
+      <c r="F77" s="392"/>
+      <c r="G77" s="392"/>
+      <c r="H77" s="392"/>
+      <c r="I77" s="393"/>
       <c r="J77" s="78"/>
       <c r="K77" s="112"/>
       <c r="L77" s="112"/>
@@ -35041,13 +35842,13 @@
     <row r="87" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A87" s="13"/>
       <c r="B87" s="78"/>
-      <c r="C87" s="384"/>
-      <c r="D87" s="385"/>
-      <c r="E87" s="385"/>
-      <c r="F87" s="385"/>
-      <c r="G87" s="385"/>
-      <c r="H87" s="385"/>
-      <c r="I87" s="386"/>
+      <c r="C87" s="391"/>
+      <c r="D87" s="392"/>
+      <c r="E87" s="392"/>
+      <c r="F87" s="392"/>
+      <c r="G87" s="392"/>
+      <c r="H87" s="392"/>
+      <c r="I87" s="393"/>
       <c r="J87" s="78"/>
       <c r="K87" s="112"/>
       <c r="L87" s="112"/>
@@ -35058,13 +35859,13 @@
     <row r="88" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A88" s="13"/>
       <c r="B88" s="78"/>
-      <c r="C88" s="384"/>
-      <c r="D88" s="385"/>
-      <c r="E88" s="385"/>
-      <c r="F88" s="385"/>
-      <c r="G88" s="385"/>
-      <c r="H88" s="385"/>
-      <c r="I88" s="386"/>
+      <c r="C88" s="391"/>
+      <c r="D88" s="392"/>
+      <c r="E88" s="392"/>
+      <c r="F88" s="392"/>
+      <c r="G88" s="392"/>
+      <c r="H88" s="392"/>
+      <c r="I88" s="393"/>
       <c r="J88" s="78"/>
       <c r="K88" s="112"/>
       <c r="L88" s="112"/>
@@ -35484,36 +36285,22 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K55:M55"/>
     <mergeCell ref="C76:I76"/>
     <mergeCell ref="C77:I77"/>
     <mergeCell ref="C87:I87"/>
@@ -35530,22 +36317,36 @@
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C75:I75"/>
     <mergeCell ref="D67:I67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K45:M45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="5">
@@ -35579,12 +36380,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="95" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="95" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B83" sqref="B83"/>
       <selection pane="topRight" activeCell="B83" sqref="B83"/>
       <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
-      <selection pane="bottomRight" activeCell="A58" sqref="A58:XFD60"/>
+      <selection pane="bottomRight" activeCell="J54" sqref="J54:K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
@@ -35607,7 +36408,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="372" t="s">
+      <c r="A1" s="376" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
@@ -35618,7 +36419,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="373"/>
+      <c r="A2" s="377"/>
       <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
@@ -35629,18 +36430,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="373"/>
+      <c r="A3" s="377"/>
       <c r="G3" s="113"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="373"/>
+      <c r="A4" s="377"/>
       <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="113"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="374"/>
+      <c r="A5" s="378"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -35655,10 +36456,10 @@
       <c r="B6" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="400" t="s">
+      <c r="C6" s="408" t="s">
         <v>812</v>
       </c>
-      <c r="D6" s="401"/>
+      <c r="D6" s="409"/>
       <c r="E6" s="180" t="s">
         <v>811</v>
       </c>
@@ -35711,13 +36512,13 @@
     <row r="9" spans="1:16" ht="16.5" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="115"/>
-      <c r="C9" s="404" t="s">
+      <c r="C9" s="410" t="s">
         <v>813</v>
       </c>
-      <c r="D9" s="404"/>
-      <c r="E9" s="404"/>
-      <c r="F9" s="404"/>
-      <c r="G9" s="404"/>
+      <c r="D9" s="410"/>
+      <c r="E9" s="410"/>
+      <c r="F9" s="410"/>
+      <c r="G9" s="410"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -35804,8 +36605,8 @@
       <c r="B15" s="115"/>
       <c r="C15" s="341"/>
       <c r="D15" s="341"/>
-      <c r="E15" s="402"/>
-      <c r="F15" s="402"/>
+      <c r="E15" s="405"/>
+      <c r="F15" s="405"/>
       <c r="G15" s="341"/>
       <c r="H15" s="367"/>
       <c r="I15" s="367"/>
@@ -35820,8 +36621,8 @@
       <c r="B16" s="115"/>
       <c r="C16" s="192"/>
       <c r="D16" s="341"/>
-      <c r="E16" s="403"/>
-      <c r="F16" s="403"/>
+      <c r="E16" s="404"/>
+      <c r="F16" s="404"/>
       <c r="G16" s="193"/>
       <c r="H16" s="193"/>
       <c r="I16" s="194"/>
@@ -35838,8 +36639,8 @@
       <c r="B17" s="115"/>
       <c r="C17" s="192"/>
       <c r="D17" s="341"/>
-      <c r="E17" s="403"/>
-      <c r="F17" s="403"/>
+      <c r="E17" s="404"/>
+      <c r="F17" s="404"/>
       <c r="G17" s="193"/>
       <c r="H17" s="193"/>
       <c r="I17" s="194"/>
@@ -35855,11 +36656,11 @@
       <c r="A18" s="13"/>
       <c r="B18" s="115"/>
       <c r="C18" s="192"/>
-      <c r="D18" s="368">
+      <c r="D18" s="371">
         <v>3</v>
       </c>
-      <c r="E18" s="403"/>
-      <c r="F18" s="403"/>
+      <c r="E18" s="404"/>
+      <c r="F18" s="404"/>
       <c r="G18" s="193"/>
       <c r="H18" s="193"/>
       <c r="I18" s="194"/>
@@ -35876,8 +36677,8 @@
       <c r="B19" s="115"/>
       <c r="C19" s="193"/>
       <c r="D19" s="193"/>
-      <c r="E19" s="402"/>
-      <c r="F19" s="403"/>
+      <c r="E19" s="405"/>
+      <c r="F19" s="404"/>
       <c r="G19" s="193"/>
       <c r="H19" s="193"/>
       <c r="I19" s="194"/>
@@ -36133,17 +36934,17 @@
       <c r="B35" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="405"/>
-      <c r="D35" s="406"/>
-      <c r="E35" s="406"/>
-      <c r="F35" s="406"/>
-      <c r="G35" s="406"/>
-      <c r="H35" s="406"/>
-      <c r="I35" s="406"/>
-      <c r="J35" s="406"/>
-      <c r="K35" s="406"/>
-      <c r="L35" s="406"/>
-      <c r="M35" s="406"/>
+      <c r="C35" s="406"/>
+      <c r="D35" s="407"/>
+      <c r="E35" s="407"/>
+      <c r="F35" s="407"/>
+      <c r="G35" s="407"/>
+      <c r="H35" s="407"/>
+      <c r="I35" s="407"/>
+      <c r="J35" s="407"/>
+      <c r="K35" s="407"/>
+      <c r="L35" s="407"/>
+      <c r="M35" s="407"/>
     </row>
     <row r="36" spans="1:13" ht="16.5" customHeight="1">
       <c r="A36" s="13"/>
@@ -36439,18 +37240,18 @@
       <c r="C53" s="335" t="s">
         <v>820</v>
       </c>
-      <c r="D53" s="379" t="s">
+      <c r="D53" s="394" t="s">
         <v>821</v>
       </c>
-      <c r="E53" s="392"/>
-      <c r="F53" s="392"/>
-      <c r="G53" s="392"/>
-      <c r="H53" s="392"/>
-      <c r="I53" s="393"/>
-      <c r="J53" s="376"/>
-      <c r="K53" s="378"/>
-      <c r="L53" s="379"/>
-      <c r="M53" s="378"/>
+      <c r="E53" s="395"/>
+      <c r="F53" s="395"/>
+      <c r="G53" s="395"/>
+      <c r="H53" s="395"/>
+      <c r="I53" s="396"/>
+      <c r="J53" s="398"/>
+      <c r="K53" s="397"/>
+      <c r="L53" s="394"/>
+      <c r="M53" s="397"/>
     </row>
     <row r="54" spans="1:15" ht="24.95" customHeight="1">
       <c r="A54" s="13"/>
@@ -36460,16 +37261,16 @@
       <c r="C54" s="335" t="s">
         <v>822</v>
       </c>
-      <c r="D54" s="379" t="s">
+      <c r="D54" s="394" t="s">
         <v>654</v>
       </c>
-      <c r="E54" s="388"/>
-      <c r="F54" s="388"/>
-      <c r="G54" s="388"/>
-      <c r="H54" s="388"/>
-      <c r="I54" s="380"/>
-      <c r="J54" s="381"/>
-      <c r="K54" s="383"/>
+      <c r="E54" s="401"/>
+      <c r="F54" s="401"/>
+      <c r="G54" s="401"/>
+      <c r="H54" s="401"/>
+      <c r="I54" s="402"/>
+      <c r="J54" s="382"/>
+      <c r="K54" s="384"/>
       <c r="L54" s="335"/>
       <c r="M54" s="340"/>
     </row>
@@ -36481,7 +37282,7 @@
       <c r="C55" s="335" t="s">
         <v>823</v>
       </c>
-      <c r="D55" s="387" t="s">
+      <c r="D55" s="388" t="s">
         <v>824</v>
       </c>
       <c r="E55" s="389"/>
@@ -36489,36 +37290,36 @@
       <c r="G55" s="389"/>
       <c r="H55" s="389"/>
       <c r="I55" s="390"/>
-      <c r="J55" s="376"/>
-      <c r="K55" s="378"/>
-      <c r="L55" s="379"/>
-      <c r="M55" s="394"/>
+      <c r="J55" s="398"/>
+      <c r="K55" s="397"/>
+      <c r="L55" s="394"/>
+      <c r="M55" s="403"/>
     </row>
     <row r="56" spans="1:15" ht="77.25" customHeight="1">
       <c r="A56" s="13"/>
       <c r="B56" s="112"/>
       <c r="C56" s="335"/>
-      <c r="D56" s="379"/>
-      <c r="E56" s="392"/>
-      <c r="F56" s="392"/>
-      <c r="G56" s="392"/>
-      <c r="H56" s="392"/>
-      <c r="I56" s="393"/>
-      <c r="J56" s="376"/>
-      <c r="K56" s="378"/>
-      <c r="L56" s="379"/>
-      <c r="M56" s="394"/>
+      <c r="D56" s="394"/>
+      <c r="E56" s="395"/>
+      <c r="F56" s="395"/>
+      <c r="G56" s="395"/>
+      <c r="H56" s="395"/>
+      <c r="I56" s="396"/>
+      <c r="J56" s="398"/>
+      <c r="K56" s="397"/>
+      <c r="L56" s="394"/>
+      <c r="M56" s="403"/>
     </row>
     <row r="57" spans="1:15" ht="27" customHeight="1">
       <c r="A57" s="13"/>
       <c r="B57" s="112"/>
       <c r="C57" s="335"/>
-      <c r="D57" s="379"/>
-      <c r="E57" s="391"/>
-      <c r="F57" s="391"/>
-      <c r="G57" s="391"/>
-      <c r="H57" s="391"/>
-      <c r="I57" s="377"/>
+      <c r="D57" s="394"/>
+      <c r="E57" s="399"/>
+      <c r="F57" s="399"/>
+      <c r="G57" s="399"/>
+      <c r="H57" s="399"/>
+      <c r="I57" s="400"/>
       <c r="J57" s="335"/>
       <c r="K57" s="336"/>
       <c r="L57" s="337"/>
@@ -36528,22 +37329,22 @@
       <c r="A58" s="13"/>
       <c r="B58" s="112"/>
       <c r="C58" s="335"/>
-      <c r="D58" s="379"/>
-      <c r="E58" s="388"/>
-      <c r="F58" s="388"/>
-      <c r="G58" s="388"/>
-      <c r="H58" s="388"/>
-      <c r="I58" s="380"/>
-      <c r="J58" s="376"/>
-      <c r="K58" s="377"/>
-      <c r="L58" s="376"/>
-      <c r="M58" s="377"/>
+      <c r="D58" s="394"/>
+      <c r="E58" s="401"/>
+      <c r="F58" s="401"/>
+      <c r="G58" s="401"/>
+      <c r="H58" s="401"/>
+      <c r="I58" s="402"/>
+      <c r="J58" s="398"/>
+      <c r="K58" s="400"/>
+      <c r="L58" s="398"/>
+      <c r="M58" s="400"/>
     </row>
     <row r="59" spans="1:15" ht="27" customHeight="1">
       <c r="A59" s="13"/>
       <c r="B59" s="112"/>
       <c r="C59" s="335"/>
-      <c r="D59" s="387"/>
+      <c r="D59" s="388"/>
       <c r="E59" s="389"/>
       <c r="F59" s="389"/>
       <c r="G59" s="389"/>
@@ -36558,7 +37359,7 @@
       <c r="A60" s="13"/>
       <c r="B60" s="112"/>
       <c r="C60" s="335"/>
-      <c r="D60" s="387"/>
+      <c r="D60" s="388"/>
       <c r="E60" s="389"/>
       <c r="F60" s="389"/>
       <c r="G60" s="389"/>
@@ -36573,16 +37374,16 @@
       <c r="A61" s="13"/>
       <c r="B61" s="112"/>
       <c r="C61" s="337"/>
-      <c r="D61" s="379"/>
-      <c r="E61" s="391"/>
-      <c r="F61" s="391"/>
-      <c r="G61" s="391"/>
-      <c r="H61" s="391"/>
-      <c r="I61" s="377"/>
-      <c r="J61" s="376"/>
-      <c r="K61" s="378"/>
-      <c r="L61" s="379"/>
-      <c r="M61" s="380"/>
+      <c r="D61" s="394"/>
+      <c r="E61" s="399"/>
+      <c r="F61" s="399"/>
+      <c r="G61" s="399"/>
+      <c r="H61" s="399"/>
+      <c r="I61" s="400"/>
+      <c r="J61" s="398"/>
+      <c r="K61" s="397"/>
+      <c r="L61" s="394"/>
+      <c r="M61" s="402"/>
     </row>
     <row r="62" spans="1:15" s="220" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="63" spans="1:15" ht="16.5" customHeight="1">
@@ -36828,13 +37629,13 @@
     <row r="77" spans="1:15" ht="16.5" customHeight="1">
       <c r="A77" s="13"/>
       <c r="B77" s="78"/>
-      <c r="C77" s="384"/>
-      <c r="D77" s="385"/>
-      <c r="E77" s="385"/>
-      <c r="F77" s="385"/>
-      <c r="G77" s="385"/>
-      <c r="H77" s="385"/>
-      <c r="I77" s="386"/>
+      <c r="C77" s="391"/>
+      <c r="D77" s="392"/>
+      <c r="E77" s="392"/>
+      <c r="F77" s="392"/>
+      <c r="G77" s="392"/>
+      <c r="H77" s="392"/>
+      <c r="I77" s="393"/>
       <c r="J77" s="78"/>
       <c r="K77" s="112"/>
       <c r="L77" s="112"/>
@@ -36845,13 +37646,13 @@
     <row r="78" spans="1:15" ht="16.5" customHeight="1">
       <c r="A78" s="13"/>
       <c r="B78" s="78"/>
-      <c r="C78" s="384"/>
-      <c r="D78" s="385"/>
-      <c r="E78" s="385"/>
-      <c r="F78" s="385"/>
-      <c r="G78" s="385"/>
-      <c r="H78" s="385"/>
-      <c r="I78" s="386"/>
+      <c r="C78" s="391"/>
+      <c r="D78" s="392"/>
+      <c r="E78" s="392"/>
+      <c r="F78" s="392"/>
+      <c r="G78" s="392"/>
+      <c r="H78" s="392"/>
+      <c r="I78" s="393"/>
       <c r="J78" s="78"/>
       <c r="K78" s="112"/>
       <c r="L78" s="112"/>
@@ -37271,12 +38072,23 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="D53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="D54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="D57:I57"/>
     <mergeCell ref="C77:I77"/>
     <mergeCell ref="D58:I58"/>
     <mergeCell ref="J58:K58"/>
@@ -37285,23 +38097,12 @@
     <mergeCell ref="D59:I59"/>
     <mergeCell ref="D60:I60"/>
     <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="D53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
@@ -37331,7 +38132,7 @@
       <selection activeCell="B83" sqref="B83"/>
       <selection pane="topRight" activeCell="B83" sqref="B83"/>
       <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
-      <selection pane="bottomRight" activeCell="C133" sqref="C133"/>
+      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
@@ -37354,7 +38155,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="372" t="s">
+      <c r="A1" s="376" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
@@ -37365,7 +38166,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="373"/>
+      <c r="A2" s="377"/>
       <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
@@ -37376,18 +38177,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="373"/>
+      <c r="A3" s="377"/>
       <c r="G3" s="113"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="373"/>
+      <c r="A4" s="377"/>
       <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="113"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="374"/>
+      <c r="A5" s="378"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -37402,12 +38203,12 @@
       <c r="B6" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="400" t="s">
-        <v>812</v>
-      </c>
-      <c r="D6" s="401"/>
+      <c r="C6" s="408" t="s">
+        <v>846</v>
+      </c>
+      <c r="D6" s="409"/>
       <c r="E6" s="180" t="s">
-        <v>811</v>
+        <v>845</v>
       </c>
       <c r="F6" s="178"/>
       <c r="G6" s="178"/>
@@ -37458,11 +38259,11 @@
     <row r="9" spans="1:16" ht="16.5" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="115"/>
-      <c r="C9" s="404"/>
-      <c r="D9" s="404"/>
-      <c r="E9" s="404"/>
-      <c r="F9" s="404"/>
-      <c r="G9" s="404"/>
+      <c r="C9" s="410"/>
+      <c r="D9" s="410"/>
+      <c r="E9" s="410"/>
+      <c r="F9" s="410"/>
+      <c r="G9" s="410"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -37487,7 +38288,7 @@
     </row>
     <row r="11" spans="1:16" ht="16.5" customHeight="1">
       <c r="A11" s="13"/>
-      <c r="B11" s="369" t="s">
+      <c r="B11" s="368" t="s">
         <v>825</v>
       </c>
       <c r="C11" s="16"/>
@@ -37551,8 +38352,8 @@
       <c r="B15" s="115"/>
       <c r="C15" s="341"/>
       <c r="D15" s="341"/>
-      <c r="E15" s="402"/>
-      <c r="F15" s="402"/>
+      <c r="E15" s="405"/>
+      <c r="F15" s="405"/>
       <c r="G15" s="341"/>
       <c r="H15" s="367"/>
       <c r="I15" s="367"/>
@@ -37567,8 +38368,8 @@
       <c r="B16" s="115"/>
       <c r="C16" s="192"/>
       <c r="D16" s="341"/>
-      <c r="E16" s="403"/>
-      <c r="F16" s="403"/>
+      <c r="E16" s="404"/>
+      <c r="F16" s="404"/>
       <c r="G16" s="193"/>
       <c r="H16" s="193"/>
       <c r="I16" s="194"/>
@@ -37585,8 +38386,8 @@
       <c r="B17" s="115"/>
       <c r="C17" s="192"/>
       <c r="D17" s="341"/>
-      <c r="E17" s="403"/>
-      <c r="F17" s="403"/>
+      <c r="E17" s="404"/>
+      <c r="F17" s="404"/>
       <c r="G17" s="193"/>
       <c r="H17" s="193"/>
       <c r="I17" s="194"/>
@@ -37603,8 +38404,8 @@
       <c r="B18" s="115"/>
       <c r="C18" s="192"/>
       <c r="D18" s="341"/>
-      <c r="E18" s="403"/>
-      <c r="F18" s="403"/>
+      <c r="E18" s="404"/>
+      <c r="F18" s="404"/>
       <c r="G18" s="193"/>
       <c r="H18" s="193"/>
       <c r="I18" s="194"/>
@@ -37621,8 +38422,8 @@
       <c r="B19" s="115"/>
       <c r="C19" s="193"/>
       <c r="D19" s="193"/>
-      <c r="E19" s="402"/>
-      <c r="F19" s="403"/>
+      <c r="E19" s="405"/>
+      <c r="F19" s="404"/>
       <c r="G19" s="193"/>
       <c r="H19" s="193"/>
       <c r="I19" s="194"/>
@@ -37634,15 +38435,15 @@
     </row>
     <row r="20" spans="1:16" ht="16.5" customHeight="1">
       <c r="A20" s="13"/>
-      <c r="B20" s="369" t="s">
+      <c r="B20" s="368" t="s">
         <v>826</v>
       </c>
       <c r="C20" s="188"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="407" t="s">
+      <c r="E20" s="411" t="s">
         <v>827</v>
       </c>
-      <c r="F20" s="407"/>
+      <c r="F20" s="411"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
@@ -37878,15 +38679,15 @@
     </row>
     <row r="36" spans="1:13" ht="16.5" customHeight="1">
       <c r="A36" s="13"/>
-      <c r="B36" s="369" t="s">
+      <c r="B36" s="368" t="s">
         <v>828</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
-      <c r="E36" s="407" t="s">
+      <c r="E36" s="411" t="s">
         <v>829</v>
       </c>
-      <c r="F36" s="407"/>
+      <c r="F36" s="411"/>
       <c r="G36" s="16"/>
       <c r="H36" s="34"/>
       <c r="I36" s="16"/>
@@ -38047,7 +38848,7 @@
     </row>
     <row r="47" spans="1:13" ht="16.5" customHeight="1">
       <c r="A47" s="13"/>
-      <c r="B47" s="369" t="s">
+      <c r="B47" s="368" t="s">
         <v>830</v>
       </c>
       <c r="C47" s="16"/>
@@ -38082,7 +38883,7 @@
       <c r="B49" s="115"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
-      <c r="E49" s="370" t="s">
+      <c r="E49" s="369" t="s">
         <v>831</v>
       </c>
       <c r="F49" s="16"/>
@@ -38114,7 +38915,7 @@
       <c r="B51" s="115"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
-      <c r="E51" s="371" t="s">
+      <c r="E51" s="370" t="s">
         <v>832</v>
       </c>
       <c r="F51" s="16"/>
@@ -38158,7 +38959,7 @@
     </row>
     <row r="54" spans="1:13" ht="16.5" customHeight="1">
       <c r="A54" s="13"/>
-      <c r="B54" s="369" t="s">
+      <c r="B54" s="368" t="s">
         <v>833</v>
       </c>
       <c r="C54" s="16"/>
@@ -38237,7 +39038,7 @@
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="13"/>
-      <c r="B59" s="369" t="s">
+      <c r="B59" s="368" t="s">
         <v>835</v>
       </c>
       <c r="C59" s="16"/>
@@ -38434,7 +39235,7 @@
     </row>
     <row r="72" spans="1:13" ht="16.5" customHeight="1">
       <c r="A72" s="13"/>
-      <c r="B72" s="369" t="s">
+      <c r="B72" s="368" t="s">
         <v>836</v>
       </c>
       <c r="C72" s="16"/>
@@ -38924,17 +39725,17 @@
       <c r="B103" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="C103" s="405"/>
-      <c r="D103" s="406"/>
-      <c r="E103" s="406"/>
-      <c r="F103" s="406"/>
-      <c r="G103" s="406"/>
-      <c r="H103" s="406"/>
-      <c r="I103" s="406"/>
-      <c r="J103" s="406"/>
-      <c r="K103" s="406"/>
-      <c r="L103" s="406"/>
-      <c r="M103" s="406"/>
+      <c r="C103" s="406"/>
+      <c r="D103" s="407"/>
+      <c r="E103" s="407"/>
+      <c r="F103" s="407"/>
+      <c r="G103" s="407"/>
+      <c r="H103" s="407"/>
+      <c r="I103" s="407"/>
+      <c r="J103" s="407"/>
+      <c r="K103" s="407"/>
+      <c r="L103" s="407"/>
+      <c r="M103" s="407"/>
     </row>
     <row r="104" spans="1:15" ht="16.5" customHeight="1">
       <c r="A104" s="13"/>
@@ -39292,31 +40093,31 @@
       <c r="C125" s="343" t="s">
         <v>840</v>
       </c>
-      <c r="D125" s="379" t="s">
+      <c r="D125" s="394" t="s">
         <v>841</v>
       </c>
-      <c r="E125" s="392"/>
-      <c r="F125" s="392"/>
-      <c r="G125" s="392"/>
-      <c r="H125" s="392"/>
-      <c r="I125" s="393"/>
-      <c r="J125" s="376"/>
-      <c r="K125" s="378"/>
-      <c r="L125" s="379"/>
-      <c r="M125" s="378"/>
+      <c r="E125" s="395"/>
+      <c r="F125" s="395"/>
+      <c r="G125" s="395"/>
+      <c r="H125" s="395"/>
+      <c r="I125" s="396"/>
+      <c r="J125" s="398"/>
+      <c r="K125" s="397"/>
+      <c r="L125" s="394"/>
+      <c r="M125" s="397"/>
     </row>
     <row r="126" spans="1:13" ht="24.95" customHeight="1">
       <c r="A126" s="13"/>
       <c r="B126" s="112"/>
       <c r="C126" s="335"/>
-      <c r="D126" s="379"/>
-      <c r="E126" s="388"/>
-      <c r="F126" s="388"/>
-      <c r="G126" s="388"/>
-      <c r="H126" s="388"/>
-      <c r="I126" s="380"/>
-      <c r="J126" s="381"/>
-      <c r="K126" s="383"/>
+      <c r="D126" s="394"/>
+      <c r="E126" s="401"/>
+      <c r="F126" s="401"/>
+      <c r="G126" s="401"/>
+      <c r="H126" s="401"/>
+      <c r="I126" s="402"/>
+      <c r="J126" s="382"/>
+      <c r="K126" s="384"/>
       <c r="L126" s="335"/>
       <c r="M126" s="340"/>
     </row>
@@ -39324,42 +40125,42 @@
       <c r="A127" s="13"/>
       <c r="B127" s="112"/>
       <c r="C127" s="335"/>
-      <c r="D127" s="387"/>
+      <c r="D127" s="388"/>
       <c r="E127" s="389"/>
       <c r="F127" s="389"/>
       <c r="G127" s="389"/>
       <c r="H127" s="389"/>
       <c r="I127" s="390"/>
-      <c r="J127" s="376"/>
-      <c r="K127" s="378"/>
-      <c r="L127" s="379"/>
-      <c r="M127" s="394"/>
+      <c r="J127" s="398"/>
+      <c r="K127" s="397"/>
+      <c r="L127" s="394"/>
+      <c r="M127" s="403"/>
     </row>
     <row r="128" spans="1:13" ht="77.25" customHeight="1">
       <c r="A128" s="13"/>
       <c r="B128" s="112"/>
       <c r="C128" s="335"/>
-      <c r="D128" s="379"/>
-      <c r="E128" s="392"/>
-      <c r="F128" s="392"/>
-      <c r="G128" s="392"/>
-      <c r="H128" s="392"/>
-      <c r="I128" s="393"/>
-      <c r="J128" s="376"/>
-      <c r="K128" s="378"/>
-      <c r="L128" s="379"/>
-      <c r="M128" s="394"/>
+      <c r="D128" s="394"/>
+      <c r="E128" s="395"/>
+      <c r="F128" s="395"/>
+      <c r="G128" s="395"/>
+      <c r="H128" s="395"/>
+      <c r="I128" s="396"/>
+      <c r="J128" s="398"/>
+      <c r="K128" s="397"/>
+      <c r="L128" s="394"/>
+      <c r="M128" s="403"/>
     </row>
     <row r="129" spans="1:15" ht="27" customHeight="1">
       <c r="A129" s="13"/>
       <c r="B129" s="112"/>
       <c r="C129" s="335"/>
-      <c r="D129" s="379"/>
-      <c r="E129" s="391"/>
-      <c r="F129" s="391"/>
-      <c r="G129" s="391"/>
-      <c r="H129" s="391"/>
-      <c r="I129" s="377"/>
+      <c r="D129" s="394"/>
+      <c r="E129" s="399"/>
+      <c r="F129" s="399"/>
+      <c r="G129" s="399"/>
+      <c r="H129" s="399"/>
+      <c r="I129" s="400"/>
       <c r="J129" s="335"/>
       <c r="K129" s="336"/>
       <c r="L129" s="337"/>
@@ -39369,22 +40170,22 @@
       <c r="A130" s="13"/>
       <c r="B130" s="112"/>
       <c r="C130" s="335"/>
-      <c r="D130" s="379"/>
-      <c r="E130" s="388"/>
-      <c r="F130" s="388"/>
-      <c r="G130" s="388"/>
-      <c r="H130" s="388"/>
-      <c r="I130" s="380"/>
+      <c r="D130" s="394"/>
+      <c r="E130" s="401"/>
+      <c r="F130" s="401"/>
+      <c r="G130" s="401"/>
+      <c r="H130" s="401"/>
+      <c r="I130" s="402"/>
       <c r="J130" s="335"/>
       <c r="K130" s="336"/>
-      <c r="L130" s="387"/>
+      <c r="L130" s="388"/>
       <c r="M130" s="390"/>
     </row>
     <row r="131" spans="1:15" ht="27" customHeight="1">
       <c r="A131" s="13"/>
       <c r="B131" s="112"/>
       <c r="C131" s="335"/>
-      <c r="D131" s="387"/>
+      <c r="D131" s="388"/>
       <c r="E131" s="389"/>
       <c r="F131" s="389"/>
       <c r="G131" s="389"/>
@@ -39399,7 +40200,7 @@
       <c r="A132" s="13"/>
       <c r="B132" s="112"/>
       <c r="C132" s="335"/>
-      <c r="D132" s="387"/>
+      <c r="D132" s="388"/>
       <c r="E132" s="389"/>
       <c r="F132" s="389"/>
       <c r="G132" s="389"/>
@@ -39414,16 +40215,16 @@
       <c r="A133" s="13"/>
       <c r="B133" s="112"/>
       <c r="C133" s="337"/>
-      <c r="D133" s="379"/>
-      <c r="E133" s="391"/>
-      <c r="F133" s="391"/>
-      <c r="G133" s="391"/>
-      <c r="H133" s="391"/>
-      <c r="I133" s="377"/>
-      <c r="J133" s="376"/>
-      <c r="K133" s="378"/>
-      <c r="L133" s="379"/>
-      <c r="M133" s="380"/>
+      <c r="D133" s="394"/>
+      <c r="E133" s="399"/>
+      <c r="F133" s="399"/>
+      <c r="G133" s="399"/>
+      <c r="H133" s="399"/>
+      <c r="I133" s="400"/>
+      <c r="J133" s="398"/>
+      <c r="K133" s="397"/>
+      <c r="L133" s="394"/>
+      <c r="M133" s="402"/>
     </row>
     <row r="134" spans="1:15" s="220" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="135" spans="1:15" ht="16.5" customHeight="1">
@@ -39976,6 +40777,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C103:M103"/>
+    <mergeCell ref="D125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="L125:M125"/>
     <mergeCell ref="J133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="E20:F20"/>
@@ -39992,20 +40807,6 @@
     <mergeCell ref="J127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="D128:I128"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="L128:M128"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C103:M103"/>
-    <mergeCell ref="D125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="L125:M125"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -40041,7 +40842,7 @@
       <selection activeCell="B83" sqref="B83"/>
       <selection pane="topRight" activeCell="B83" sqref="B83"/>
       <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
-      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
@@ -40064,7 +40865,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="372" t="s">
+      <c r="A1" s="376" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
@@ -40075,7 +40876,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="373"/>
+      <c r="A2" s="377"/>
       <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
@@ -40086,18 +40887,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="373"/>
+      <c r="A3" s="377"/>
       <c r="G3" s="113"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="373"/>
+      <c r="A4" s="377"/>
       <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="113"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="374"/>
+      <c r="A5" s="378"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -40112,12 +40913,12 @@
       <c r="B6" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="400" t="s">
-        <v>812</v>
-      </c>
-      <c r="D6" s="401"/>
+      <c r="C6" s="408" t="s">
+        <v>750</v>
+      </c>
+      <c r="D6" s="409"/>
       <c r="E6" s="180" t="s">
-        <v>811</v>
+        <v>844</v>
       </c>
       <c r="F6" s="178"/>
       <c r="G6" s="178"/>
@@ -40168,11 +40969,11 @@
     <row r="9" spans="1:16" ht="16.5" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="115"/>
-      <c r="C9" s="404"/>
-      <c r="D9" s="404"/>
-      <c r="E9" s="404"/>
-      <c r="F9" s="404"/>
-      <c r="G9" s="404"/>
+      <c r="C9" s="410"/>
+      <c r="D9" s="410"/>
+      <c r="E9" s="410"/>
+      <c r="F9" s="410"/>
+      <c r="G9" s="410"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -40259,8 +41060,8 @@
       <c r="B15" s="115"/>
       <c r="C15" s="341"/>
       <c r="D15" s="341"/>
-      <c r="E15" s="402"/>
-      <c r="F15" s="402"/>
+      <c r="E15" s="405"/>
+      <c r="F15" s="405"/>
       <c r="G15" s="341"/>
       <c r="H15" s="367"/>
       <c r="I15" s="367"/>
@@ -40275,8 +41076,8 @@
       <c r="B16" s="115"/>
       <c r="C16" s="192"/>
       <c r="D16" s="341"/>
-      <c r="E16" s="403"/>
-      <c r="F16" s="403"/>
+      <c r="E16" s="404"/>
+      <c r="F16" s="404"/>
       <c r="G16" s="193"/>
       <c r="H16" s="193"/>
       <c r="I16" s="194"/>
@@ -40293,8 +41094,8 @@
       <c r="B17" s="115"/>
       <c r="C17" s="192"/>
       <c r="D17" s="341"/>
-      <c r="E17" s="403"/>
-      <c r="F17" s="403"/>
+      <c r="E17" s="404"/>
+      <c r="F17" s="404"/>
       <c r="G17" s="193"/>
       <c r="H17" s="193"/>
       <c r="I17" s="194"/>
@@ -40311,8 +41112,8 @@
       <c r="B18" s="115"/>
       <c r="C18" s="192"/>
       <c r="D18" s="341"/>
-      <c r="E18" s="403"/>
-      <c r="F18" s="403"/>
+      <c r="E18" s="404"/>
+      <c r="F18" s="404"/>
       <c r="G18" s="193"/>
       <c r="H18" s="193"/>
       <c r="I18" s="194"/>
@@ -40329,8 +41130,8 @@
       <c r="B19" s="115"/>
       <c r="C19" s="193"/>
       <c r="D19" s="193"/>
-      <c r="E19" s="402"/>
-      <c r="F19" s="403"/>
+      <c r="E19" s="405"/>
+      <c r="F19" s="404"/>
       <c r="G19" s="193"/>
       <c r="H19" s="193"/>
       <c r="I19" s="194"/>
@@ -40586,17 +41387,17 @@
       <c r="B35" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="405"/>
-      <c r="D35" s="406"/>
-      <c r="E35" s="406"/>
-      <c r="F35" s="406"/>
-      <c r="G35" s="406"/>
-      <c r="H35" s="406"/>
-      <c r="I35" s="406"/>
-      <c r="J35" s="406"/>
-      <c r="K35" s="406"/>
-      <c r="L35" s="406"/>
-      <c r="M35" s="406"/>
+      <c r="C35" s="406"/>
+      <c r="D35" s="407"/>
+      <c r="E35" s="407"/>
+      <c r="F35" s="407"/>
+      <c r="G35" s="407"/>
+      <c r="H35" s="407"/>
+      <c r="I35" s="407"/>
+      <c r="J35" s="407"/>
+      <c r="K35" s="407"/>
+      <c r="L35" s="407"/>
+      <c r="M35" s="407"/>
     </row>
     <row r="36" spans="1:13" ht="16.5" customHeight="1">
       <c r="A36" s="13"/>
@@ -40878,7 +41679,7 @@
     <row r="52" spans="1:13" ht="24.75" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="78"/>
-      <c r="C52" s="387"/>
+      <c r="C52" s="388"/>
       <c r="D52" s="389"/>
       <c r="E52" s="389"/>
       <c r="F52" s="389"/>
@@ -40996,31 +41797,31 @@
       <c r="C59" s="343" t="s">
         <v>842</v>
       </c>
-      <c r="D59" s="379" t="s">
+      <c r="D59" s="394" t="s">
         <v>843</v>
       </c>
-      <c r="E59" s="392"/>
-      <c r="F59" s="392"/>
-      <c r="G59" s="392"/>
-      <c r="H59" s="392"/>
-      <c r="I59" s="393"/>
-      <c r="J59" s="376"/>
-      <c r="K59" s="378"/>
-      <c r="L59" s="379"/>
-      <c r="M59" s="378"/>
+      <c r="E59" s="395"/>
+      <c r="F59" s="395"/>
+      <c r="G59" s="395"/>
+      <c r="H59" s="395"/>
+      <c r="I59" s="396"/>
+      <c r="J59" s="398"/>
+      <c r="K59" s="397"/>
+      <c r="L59" s="394"/>
+      <c r="M59" s="397"/>
     </row>
     <row r="60" spans="1:13" ht="24.95" customHeight="1">
       <c r="A60" s="13"/>
       <c r="B60" s="112"/>
       <c r="C60" s="335"/>
-      <c r="D60" s="379"/>
-      <c r="E60" s="388"/>
-      <c r="F60" s="388"/>
-      <c r="G60" s="388"/>
-      <c r="H60" s="388"/>
-      <c r="I60" s="380"/>
-      <c r="J60" s="381"/>
-      <c r="K60" s="383"/>
+      <c r="D60" s="394"/>
+      <c r="E60" s="401"/>
+      <c r="F60" s="401"/>
+      <c r="G60" s="401"/>
+      <c r="H60" s="401"/>
+      <c r="I60" s="402"/>
+      <c r="J60" s="382"/>
+      <c r="K60" s="384"/>
       <c r="L60" s="335"/>
       <c r="M60" s="340"/>
     </row>
@@ -41028,42 +41829,42 @@
       <c r="A61" s="13"/>
       <c r="B61" s="112"/>
       <c r="C61" s="335"/>
-      <c r="D61" s="387"/>
+      <c r="D61" s="388"/>
       <c r="E61" s="389"/>
       <c r="F61" s="389"/>
       <c r="G61" s="389"/>
       <c r="H61" s="389"/>
       <c r="I61" s="390"/>
-      <c r="J61" s="376"/>
-      <c r="K61" s="378"/>
-      <c r="L61" s="379"/>
-      <c r="M61" s="394"/>
+      <c r="J61" s="398"/>
+      <c r="K61" s="397"/>
+      <c r="L61" s="394"/>
+      <c r="M61" s="403"/>
     </row>
     <row r="62" spans="1:13" ht="77.25" customHeight="1">
       <c r="A62" s="13"/>
       <c r="B62" s="112"/>
       <c r="C62" s="335"/>
-      <c r="D62" s="379"/>
-      <c r="E62" s="392"/>
-      <c r="F62" s="392"/>
-      <c r="G62" s="392"/>
-      <c r="H62" s="392"/>
-      <c r="I62" s="393"/>
-      <c r="J62" s="376"/>
-      <c r="K62" s="378"/>
-      <c r="L62" s="379"/>
-      <c r="M62" s="394"/>
+      <c r="D62" s="394"/>
+      <c r="E62" s="395"/>
+      <c r="F62" s="395"/>
+      <c r="G62" s="395"/>
+      <c r="H62" s="395"/>
+      <c r="I62" s="396"/>
+      <c r="J62" s="398"/>
+      <c r="K62" s="397"/>
+      <c r="L62" s="394"/>
+      <c r="M62" s="403"/>
     </row>
     <row r="63" spans="1:13" ht="27" customHeight="1">
       <c r="A63" s="13"/>
       <c r="B63" s="112"/>
       <c r="C63" s="335"/>
-      <c r="D63" s="379"/>
-      <c r="E63" s="391"/>
-      <c r="F63" s="391"/>
-      <c r="G63" s="391"/>
-      <c r="H63" s="391"/>
-      <c r="I63" s="377"/>
+      <c r="D63" s="394"/>
+      <c r="E63" s="399"/>
+      <c r="F63" s="399"/>
+      <c r="G63" s="399"/>
+      <c r="H63" s="399"/>
+      <c r="I63" s="400"/>
       <c r="J63" s="335"/>
       <c r="K63" s="336"/>
       <c r="L63" s="337"/>
@@ -41073,67 +41874,67 @@
       <c r="A64" s="13"/>
       <c r="B64" s="112"/>
       <c r="C64" s="335"/>
-      <c r="D64" s="379"/>
-      <c r="E64" s="388"/>
-      <c r="F64" s="388"/>
-      <c r="G64" s="388"/>
-      <c r="H64" s="388"/>
-      <c r="I64" s="380"/>
+      <c r="D64" s="394"/>
+      <c r="E64" s="401"/>
+      <c r="F64" s="401"/>
+      <c r="G64" s="401"/>
+      <c r="H64" s="401"/>
+      <c r="I64" s="402"/>
       <c r="J64" s="335"/>
       <c r="K64" s="336"/>
-      <c r="L64" s="387"/>
+      <c r="L64" s="388"/>
       <c r="M64" s="390"/>
     </row>
     <row r="65" spans="1:15" ht="47.25" customHeight="1">
       <c r="A65" s="13"/>
       <c r="B65" s="112"/>
       <c r="C65" s="335"/>
-      <c r="D65" s="379"/>
-      <c r="E65" s="392"/>
-      <c r="F65" s="392"/>
-      <c r="G65" s="392"/>
-      <c r="H65" s="392"/>
-      <c r="I65" s="393"/>
-      <c r="J65" s="376"/>
-      <c r="K65" s="393"/>
-      <c r="L65" s="376"/>
-      <c r="M65" s="393"/>
+      <c r="D65" s="394"/>
+      <c r="E65" s="395"/>
+      <c r="F65" s="395"/>
+      <c r="G65" s="395"/>
+      <c r="H65" s="395"/>
+      <c r="I65" s="396"/>
+      <c r="J65" s="398"/>
+      <c r="K65" s="396"/>
+      <c r="L65" s="398"/>
+      <c r="M65" s="396"/>
     </row>
     <row r="66" spans="1:15" ht="97.5" customHeight="1">
       <c r="A66" s="13"/>
       <c r="B66" s="112"/>
       <c r="C66" s="335"/>
-      <c r="D66" s="379"/>
-      <c r="E66" s="388"/>
-      <c r="F66" s="388"/>
-      <c r="G66" s="388"/>
-      <c r="H66" s="388"/>
-      <c r="I66" s="380"/>
-      <c r="J66" s="376"/>
-      <c r="K66" s="377"/>
-      <c r="L66" s="379"/>
-      <c r="M66" s="394"/>
+      <c r="D66" s="394"/>
+      <c r="E66" s="401"/>
+      <c r="F66" s="401"/>
+      <c r="G66" s="401"/>
+      <c r="H66" s="401"/>
+      <c r="I66" s="402"/>
+      <c r="J66" s="398"/>
+      <c r="K66" s="400"/>
+      <c r="L66" s="394"/>
+      <c r="M66" s="403"/>
     </row>
     <row r="67" spans="1:15" ht="92.25" customHeight="1">
       <c r="A67" s="13"/>
       <c r="B67" s="112"/>
       <c r="C67" s="335"/>
-      <c r="D67" s="379"/>
-      <c r="E67" s="388"/>
-      <c r="F67" s="388"/>
-      <c r="G67" s="388"/>
-      <c r="H67" s="388"/>
-      <c r="I67" s="380"/>
-      <c r="J67" s="376"/>
-      <c r="K67" s="377"/>
-      <c r="L67" s="376"/>
-      <c r="M67" s="377"/>
+      <c r="D67" s="394"/>
+      <c r="E67" s="401"/>
+      <c r="F67" s="401"/>
+      <c r="G67" s="401"/>
+      <c r="H67" s="401"/>
+      <c r="I67" s="402"/>
+      <c r="J67" s="398"/>
+      <c r="K67" s="400"/>
+      <c r="L67" s="398"/>
+      <c r="M67" s="400"/>
     </row>
     <row r="68" spans="1:15" ht="27" customHeight="1">
       <c r="A68" s="13"/>
       <c r="B68" s="112"/>
       <c r="C68" s="335"/>
-      <c r="D68" s="387"/>
+      <c r="D68" s="388"/>
       <c r="E68" s="389"/>
       <c r="F68" s="389"/>
       <c r="G68" s="389"/>
@@ -41148,7 +41949,7 @@
       <c r="A69" s="13"/>
       <c r="B69" s="112"/>
       <c r="C69" s="335"/>
-      <c r="D69" s="387"/>
+      <c r="D69" s="388"/>
       <c r="E69" s="389"/>
       <c r="F69" s="389"/>
       <c r="G69" s="389"/>
@@ -41163,16 +41964,16 @@
       <c r="A70" s="13"/>
       <c r="B70" s="112"/>
       <c r="C70" s="337"/>
-      <c r="D70" s="379"/>
-      <c r="E70" s="391"/>
-      <c r="F70" s="391"/>
-      <c r="G70" s="391"/>
-      <c r="H70" s="391"/>
-      <c r="I70" s="377"/>
-      <c r="J70" s="376"/>
-      <c r="K70" s="378"/>
-      <c r="L70" s="379"/>
-      <c r="M70" s="380"/>
+      <c r="D70" s="394"/>
+      <c r="E70" s="399"/>
+      <c r="F70" s="399"/>
+      <c r="G70" s="399"/>
+      <c r="H70" s="399"/>
+      <c r="I70" s="400"/>
+      <c r="J70" s="398"/>
+      <c r="K70" s="397"/>
+      <c r="L70" s="394"/>
+      <c r="M70" s="402"/>
     </row>
     <row r="71" spans="1:15" s="220" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="72" spans="1:15" ht="16.5" customHeight="1">
@@ -41418,13 +42219,13 @@
     <row r="86" spans="1:15" ht="16.5" customHeight="1">
       <c r="A86" s="13"/>
       <c r="B86" s="78"/>
-      <c r="C86" s="384"/>
-      <c r="D86" s="385"/>
-      <c r="E86" s="385"/>
-      <c r="F86" s="385"/>
-      <c r="G86" s="385"/>
-      <c r="H86" s="385"/>
-      <c r="I86" s="386"/>
+      <c r="C86" s="391"/>
+      <c r="D86" s="392"/>
+      <c r="E86" s="392"/>
+      <c r="F86" s="392"/>
+      <c r="G86" s="392"/>
+      <c r="H86" s="392"/>
+      <c r="I86" s="393"/>
       <c r="J86" s="78"/>
       <c r="K86" s="112"/>
       <c r="L86" s="112"/>
@@ -41435,13 +42236,13 @@
     <row r="87" spans="1:15" ht="16.5" customHeight="1">
       <c r="A87" s="13"/>
       <c r="B87" s="78"/>
-      <c r="C87" s="384"/>
-      <c r="D87" s="385"/>
-      <c r="E87" s="385"/>
-      <c r="F87" s="385"/>
-      <c r="G87" s="385"/>
-      <c r="H87" s="385"/>
-      <c r="I87" s="386"/>
+      <c r="C87" s="391"/>
+      <c r="D87" s="392"/>
+      <c r="E87" s="392"/>
+      <c r="F87" s="392"/>
+      <c r="G87" s="392"/>
+      <c r="H87" s="392"/>
+      <c r="I87" s="393"/>
       <c r="J87" s="78"/>
       <c r="K87" s="112"/>
       <c r="L87" s="112"/>
@@ -41861,25 +42662,12 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C87:I87"/>
-    <mergeCell ref="D68:I68"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="C86:I86"/>
-    <mergeCell ref="D66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="D62:I62"/>
     <mergeCell ref="J62:K62"/>
     <mergeCell ref="L62:M62"/>
@@ -41895,12 +42683,25 @@
     <mergeCell ref="D61:I61"/>
     <mergeCell ref="J61:K61"/>
     <mergeCell ref="L61:M61"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="C86:I86"/>
+    <mergeCell ref="D66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="C87:I87"/>
+    <mergeCell ref="D68:I68"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D70:I70"/>
+    <mergeCell ref="J70:K70"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -41949,7 +42750,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="372" t="s">
+      <c r="A1" s="376" t="s">
         <v>105</v>
       </c>
       <c r="B1" s="1"/>
@@ -41960,7 +42761,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="373"/>
+      <c r="A2" s="377"/>
       <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
@@ -41971,18 +42772,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="373"/>
+      <c r="A3" s="377"/>
       <c r="G3" s="113"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="373"/>
+      <c r="A4" s="377"/>
       <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="113"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="374"/>
+      <c r="A5" s="378"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -41997,10 +42798,10 @@
       <c r="B6" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="400" t="s">
+      <c r="C6" s="408" t="s">
         <v>535</v>
       </c>
-      <c r="D6" s="401"/>
+      <c r="D6" s="409"/>
       <c r="E6" s="180" t="s">
         <v>537</v>
       </c>
@@ -42144,8 +42945,8 @@
       <c r="B15" s="115"/>
       <c r="C15" s="189"/>
       <c r="D15" s="189"/>
-      <c r="E15" s="402"/>
-      <c r="F15" s="402"/>
+      <c r="E15" s="405"/>
+      <c r="F15" s="405"/>
       <c r="G15" s="189"/>
       <c r="H15" s="189"/>
       <c r="I15" s="189"/>
@@ -42160,8 +42961,8 @@
       <c r="B16" s="115"/>
       <c r="C16" s="192"/>
       <c r="D16" s="189"/>
-      <c r="E16" s="403"/>
-      <c r="F16" s="403"/>
+      <c r="E16" s="404"/>
+      <c r="F16" s="404"/>
       <c r="G16" s="193"/>
       <c r="H16" s="193"/>
       <c r="I16" s="194"/>
@@ -42178,8 +42979,8 @@
       <c r="B17" s="115"/>
       <c r="C17" s="192"/>
       <c r="D17" s="189"/>
-      <c r="E17" s="403"/>
-      <c r="F17" s="403"/>
+      <c r="E17" s="404"/>
+      <c r="F17" s="404"/>
       <c r="G17" s="193"/>
       <c r="H17" s="193"/>
       <c r="I17" s="194"/>
@@ -42196,8 +42997,8 @@
       <c r="B18" s="115"/>
       <c r="C18" s="192"/>
       <c r="D18" s="189"/>
-      <c r="E18" s="403"/>
-      <c r="F18" s="403"/>
+      <c r="E18" s="404"/>
+      <c r="F18" s="404"/>
       <c r="G18" s="193"/>
       <c r="H18" s="193"/>
       <c r="I18" s="194"/>
@@ -42214,8 +43015,8 @@
       <c r="B19" s="115"/>
       <c r="C19" s="193"/>
       <c r="D19" s="193"/>
-      <c r="E19" s="402"/>
-      <c r="F19" s="403"/>
+      <c r="E19" s="405"/>
+      <c r="F19" s="404"/>
       <c r="G19" s="193"/>
       <c r="H19" s="193"/>
       <c r="I19" s="194"/>
@@ -43438,17 +44239,17 @@
       <c r="B93" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="405"/>
-      <c r="D93" s="406"/>
-      <c r="E93" s="406"/>
-      <c r="F93" s="406"/>
-      <c r="G93" s="406"/>
-      <c r="H93" s="406"/>
-      <c r="I93" s="406"/>
-      <c r="J93" s="406"/>
-      <c r="K93" s="406"/>
-      <c r="L93" s="406"/>
-      <c r="M93" s="406"/>
+      <c r="C93" s="406"/>
+      <c r="D93" s="407"/>
+      <c r="E93" s="407"/>
+      <c r="F93" s="407"/>
+      <c r="G93" s="407"/>
+      <c r="H93" s="407"/>
+      <c r="I93" s="407"/>
+      <c r="J93" s="407"/>
+      <c r="K93" s="407"/>
+      <c r="L93" s="407"/>
+      <c r="M93" s="407"/>
     </row>
     <row r="94" spans="1:15" ht="16.5" customHeight="1">
       <c r="A94" s="13"/>
@@ -43807,7 +44608,7 @@
       <c r="B111" s="78" t="s">
         <v>548</v>
       </c>
-      <c r="C111" s="387" t="s">
+      <c r="C111" s="388" t="s">
         <v>548</v>
       </c>
       <c r="D111" s="389"/>
@@ -43947,18 +44748,18 @@
       <c r="C118" s="105" t="s">
         <v>549</v>
       </c>
-      <c r="D118" s="379" t="s">
+      <c r="D118" s="394" t="s">
         <v>553</v>
       </c>
-      <c r="E118" s="392"/>
-      <c r="F118" s="392"/>
-      <c r="G118" s="392"/>
-      <c r="H118" s="392"/>
-      <c r="I118" s="393"/>
-      <c r="J118" s="376"/>
-      <c r="K118" s="378"/>
-      <c r="L118" s="379"/>
-      <c r="M118" s="378"/>
+      <c r="E118" s="395"/>
+      <c r="F118" s="395"/>
+      <c r="G118" s="395"/>
+      <c r="H118" s="395"/>
+      <c r="I118" s="396"/>
+      <c r="J118" s="398"/>
+      <c r="K118" s="397"/>
+      <c r="L118" s="394"/>
+      <c r="M118" s="397"/>
     </row>
     <row r="119" spans="1:13" ht="24.95" customHeight="1">
       <c r="A119" s="13"/>
@@ -43968,16 +44769,16 @@
       <c r="C119" s="105" t="s">
         <v>550</v>
       </c>
-      <c r="D119" s="379" t="s">
+      <c r="D119" s="394" t="s">
         <v>554</v>
       </c>
-      <c r="E119" s="388"/>
-      <c r="F119" s="388"/>
-      <c r="G119" s="388"/>
-      <c r="H119" s="388"/>
-      <c r="I119" s="380"/>
-      <c r="J119" s="381"/>
-      <c r="K119" s="383"/>
+      <c r="E119" s="401"/>
+      <c r="F119" s="401"/>
+      <c r="G119" s="401"/>
+      <c r="H119" s="401"/>
+      <c r="I119" s="402"/>
+      <c r="J119" s="382"/>
+      <c r="K119" s="384"/>
       <c r="L119" s="105"/>
       <c r="M119" s="202"/>
     </row>
@@ -43989,18 +44790,18 @@
       <c r="C120" s="105" t="s">
         <v>551</v>
       </c>
-      <c r="D120" s="379" t="s">
+      <c r="D120" s="394" t="s">
         <v>555</v>
       </c>
-      <c r="E120" s="388"/>
-      <c r="F120" s="388"/>
-      <c r="G120" s="388"/>
-      <c r="H120" s="388"/>
-      <c r="I120" s="380"/>
-      <c r="J120" s="376"/>
-      <c r="K120" s="378"/>
-      <c r="L120" s="379"/>
-      <c r="M120" s="394"/>
+      <c r="E120" s="401"/>
+      <c r="F120" s="401"/>
+      <c r="G120" s="401"/>
+      <c r="H120" s="401"/>
+      <c r="I120" s="402"/>
+      <c r="J120" s="398"/>
+      <c r="K120" s="397"/>
+      <c r="L120" s="394"/>
+      <c r="M120" s="403"/>
     </row>
     <row r="121" spans="1:13" ht="77.25" customHeight="1">
       <c r="A121" s="13"/>
@@ -44010,18 +44811,18 @@
       <c r="C121" s="105" t="s">
         <v>552</v>
       </c>
-      <c r="D121" s="379" t="s">
+      <c r="D121" s="394" t="s">
         <v>556</v>
       </c>
-      <c r="E121" s="388"/>
-      <c r="F121" s="388"/>
-      <c r="G121" s="388"/>
-      <c r="H121" s="388"/>
-      <c r="I121" s="380"/>
-      <c r="J121" s="376"/>
-      <c r="K121" s="378"/>
-      <c r="L121" s="379"/>
-      <c r="M121" s="394"/>
+      <c r="E121" s="401"/>
+      <c r="F121" s="401"/>
+      <c r="G121" s="401"/>
+      <c r="H121" s="401"/>
+      <c r="I121" s="402"/>
+      <c r="J121" s="398"/>
+      <c r="K121" s="397"/>
+      <c r="L121" s="394"/>
+      <c r="M121" s="403"/>
     </row>
     <row r="122" spans="1:13" ht="27" customHeight="1">
       <c r="A122" s="13"/>
@@ -44029,12 +44830,12 @@
         <v>5</v>
       </c>
       <c r="C122" s="105"/>
-      <c r="D122" s="379"/>
-      <c r="E122" s="391"/>
-      <c r="F122" s="391"/>
-      <c r="G122" s="391"/>
-      <c r="H122" s="391"/>
-      <c r="I122" s="377"/>
+      <c r="D122" s="394"/>
+      <c r="E122" s="399"/>
+      <c r="F122" s="399"/>
+      <c r="G122" s="399"/>
+      <c r="H122" s="399"/>
+      <c r="I122" s="400"/>
       <c r="J122" s="105"/>
       <c r="K122" s="238"/>
       <c r="L122" s="203"/>
@@ -44046,15 +44847,15 @@
         <v>6</v>
       </c>
       <c r="C123" s="105"/>
-      <c r="D123" s="379"/>
-      <c r="E123" s="388"/>
-      <c r="F123" s="388"/>
-      <c r="G123" s="388"/>
-      <c r="H123" s="388"/>
-      <c r="I123" s="380"/>
+      <c r="D123" s="394"/>
+      <c r="E123" s="401"/>
+      <c r="F123" s="401"/>
+      <c r="G123" s="401"/>
+      <c r="H123" s="401"/>
+      <c r="I123" s="402"/>
       <c r="J123" s="105"/>
       <c r="K123" s="238"/>
-      <c r="L123" s="387"/>
+      <c r="L123" s="388"/>
       <c r="M123" s="390"/>
     </row>
     <row r="124" spans="1:13" ht="47.25" customHeight="1">
@@ -44063,16 +44864,16 @@
         <v>7</v>
       </c>
       <c r="C124" s="105"/>
-      <c r="D124" s="379"/>
-      <c r="E124" s="392"/>
-      <c r="F124" s="392"/>
-      <c r="G124" s="392"/>
-      <c r="H124" s="392"/>
-      <c r="I124" s="393"/>
-      <c r="J124" s="376"/>
-      <c r="K124" s="393"/>
-      <c r="L124" s="376"/>
-      <c r="M124" s="393"/>
+      <c r="D124" s="394"/>
+      <c r="E124" s="395"/>
+      <c r="F124" s="395"/>
+      <c r="G124" s="395"/>
+      <c r="H124" s="395"/>
+      <c r="I124" s="396"/>
+      <c r="J124" s="398"/>
+      <c r="K124" s="396"/>
+      <c r="L124" s="398"/>
+      <c r="M124" s="396"/>
     </row>
     <row r="125" spans="1:13" ht="97.5" customHeight="1">
       <c r="A125" s="13"/>
@@ -44080,16 +44881,16 @@
         <v>8</v>
       </c>
       <c r="C125" s="105"/>
-      <c r="D125" s="379"/>
-      <c r="E125" s="388"/>
-      <c r="F125" s="388"/>
-      <c r="G125" s="388"/>
-      <c r="H125" s="388"/>
-      <c r="I125" s="380"/>
-      <c r="J125" s="376"/>
-      <c r="K125" s="377"/>
-      <c r="L125" s="379"/>
-      <c r="M125" s="394"/>
+      <c r="D125" s="394"/>
+      <c r="E125" s="401"/>
+      <c r="F125" s="401"/>
+      <c r="G125" s="401"/>
+      <c r="H125" s="401"/>
+      <c r="I125" s="402"/>
+      <c r="J125" s="398"/>
+      <c r="K125" s="400"/>
+      <c r="L125" s="394"/>
+      <c r="M125" s="403"/>
     </row>
     <row r="126" spans="1:13" ht="92.25" customHeight="1">
       <c r="A126" s="13"/>
@@ -44097,16 +44898,16 @@
         <v>9</v>
       </c>
       <c r="C126" s="105"/>
-      <c r="D126" s="379"/>
-      <c r="E126" s="388"/>
-      <c r="F126" s="388"/>
-      <c r="G126" s="388"/>
-      <c r="H126" s="388"/>
-      <c r="I126" s="380"/>
-      <c r="J126" s="376"/>
-      <c r="K126" s="377"/>
-      <c r="L126" s="376"/>
-      <c r="M126" s="377"/>
+      <c r="D126" s="394"/>
+      <c r="E126" s="401"/>
+      <c r="F126" s="401"/>
+      <c r="G126" s="401"/>
+      <c r="H126" s="401"/>
+      <c r="I126" s="402"/>
+      <c r="J126" s="398"/>
+      <c r="K126" s="400"/>
+      <c r="L126" s="398"/>
+      <c r="M126" s="400"/>
     </row>
     <row r="127" spans="1:13" ht="27" customHeight="1">
       <c r="A127" s="13"/>
@@ -44114,7 +44915,7 @@
         <v>10</v>
       </c>
       <c r="C127" s="105"/>
-      <c r="D127" s="387"/>
+      <c r="D127" s="388"/>
       <c r="E127" s="389"/>
       <c r="F127" s="389"/>
       <c r="G127" s="389"/>
@@ -44131,7 +44932,7 @@
         <v>11</v>
       </c>
       <c r="C128" s="105"/>
-      <c r="D128" s="387"/>
+      <c r="D128" s="388"/>
       <c r="E128" s="389"/>
       <c r="F128" s="389"/>
       <c r="G128" s="389"/>
@@ -44148,16 +44949,16 @@
         <v>12</v>
       </c>
       <c r="C129" s="203"/>
-      <c r="D129" s="379"/>
-      <c r="E129" s="391"/>
-      <c r="F129" s="391"/>
-      <c r="G129" s="391"/>
-      <c r="H129" s="391"/>
-      <c r="I129" s="377"/>
-      <c r="J129" s="376"/>
-      <c r="K129" s="378"/>
-      <c r="L129" s="379"/>
-      <c r="M129" s="380"/>
+      <c r="D129" s="394"/>
+      <c r="E129" s="399"/>
+      <c r="F129" s="399"/>
+      <c r="G129" s="399"/>
+      <c r="H129" s="399"/>
+      <c r="I129" s="400"/>
+      <c r="J129" s="398"/>
+      <c r="K129" s="397"/>
+      <c r="L129" s="394"/>
+      <c r="M129" s="402"/>
     </row>
     <row r="130" spans="1:15" s="220" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="131" spans="1:15" ht="16.5" customHeight="1">
@@ -44443,13 +45244,13 @@
     <row r="145" spans="1:15" ht="16.5" customHeight="1">
       <c r="A145" s="13"/>
       <c r="B145" s="78"/>
-      <c r="C145" s="384"/>
-      <c r="D145" s="385"/>
-      <c r="E145" s="385"/>
-      <c r="F145" s="385"/>
-      <c r="G145" s="385"/>
-      <c r="H145" s="385"/>
-      <c r="I145" s="386"/>
+      <c r="C145" s="391"/>
+      <c r="D145" s="392"/>
+      <c r="E145" s="392"/>
+      <c r="F145" s="392"/>
+      <c r="G145" s="392"/>
+      <c r="H145" s="392"/>
+      <c r="I145" s="393"/>
       <c r="J145" s="78"/>
       <c r="K145" s="112"/>
       <c r="L145" s="112"/>
@@ -44460,13 +45261,13 @@
     <row r="146" spans="1:15" ht="16.5" customHeight="1">
       <c r="A146" s="13"/>
       <c r="B146" s="78"/>
-      <c r="C146" s="384"/>
-      <c r="D146" s="385"/>
-      <c r="E146" s="385"/>
-      <c r="F146" s="385"/>
-      <c r="G146" s="385"/>
-      <c r="H146" s="385"/>
-      <c r="I146" s="386"/>
+      <c r="C146" s="391"/>
+      <c r="D146" s="392"/>
+      <c r="E146" s="392"/>
+      <c r="F146" s="392"/>
+      <c r="G146" s="392"/>
+      <c r="H146" s="392"/>
+      <c r="I146" s="393"/>
       <c r="J146" s="78"/>
       <c r="K146" s="112"/>
       <c r="L146" s="112"/>
@@ -44886,6 +45687,30 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C93:M93"/>
+    <mergeCell ref="D118:I118"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="D120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="D119:I119"/>
+    <mergeCell ref="D121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="D124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="L124:M124"/>
     <mergeCell ref="C145:I145"/>
     <mergeCell ref="C146:I146"/>
     <mergeCell ref="L129:M129"/>
@@ -44901,30 +45726,6 @@
     <mergeCell ref="D125:I125"/>
     <mergeCell ref="J125:K125"/>
     <mergeCell ref="L125:M125"/>
-    <mergeCell ref="D121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="L121:M121"/>
-    <mergeCell ref="L123:M123"/>
-    <mergeCell ref="D124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="L124:M124"/>
-    <mergeCell ref="L120:M120"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="L118:M118"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C93:M93"/>
-    <mergeCell ref="D118:I118"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="D120:I120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="D119:I119"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -44972,7 +45773,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="372" t="s">
+      <c r="A1" s="376" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
@@ -44983,7 +45784,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="373"/>
+      <c r="A2" s="377"/>
       <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
@@ -44994,18 +45795,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="373"/>
+      <c r="A3" s="377"/>
       <c r="G3" s="113"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="373"/>
+      <c r="A4" s="377"/>
       <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="113"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="374"/>
+      <c r="A5" s="378"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -45020,10 +45821,10 @@
       <c r="B6" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="400" t="s">
+      <c r="C6" s="408" t="s">
         <v>535</v>
       </c>
-      <c r="D6" s="401"/>
+      <c r="D6" s="409"/>
       <c r="E6" s="180" t="s">
         <v>531</v>
       </c>
@@ -45167,8 +45968,8 @@
       <c r="B15" s="115"/>
       <c r="C15" s="189"/>
       <c r="D15" s="189"/>
-      <c r="E15" s="402"/>
-      <c r="F15" s="402"/>
+      <c r="E15" s="405"/>
+      <c r="F15" s="405"/>
       <c r="G15" s="189"/>
       <c r="H15" s="189"/>
       <c r="I15" s="189"/>
@@ -45183,8 +45984,8 @@
       <c r="B16" s="115"/>
       <c r="C16" s="192"/>
       <c r="D16" s="189"/>
-      <c r="E16" s="403"/>
-      <c r="F16" s="403"/>
+      <c r="E16" s="404"/>
+      <c r="F16" s="404"/>
       <c r="G16" s="193"/>
       <c r="H16" s="193"/>
       <c r="I16" s="194"/>
@@ -45201,8 +46002,8 @@
       <c r="B17" s="115"/>
       <c r="C17" s="192"/>
       <c r="D17" s="189"/>
-      <c r="E17" s="403"/>
-      <c r="F17" s="403"/>
+      <c r="E17" s="404"/>
+      <c r="F17" s="404"/>
       <c r="G17" s="193"/>
       <c r="H17" s="193"/>
       <c r="I17" s="194"/>
@@ -45219,8 +46020,8 @@
       <c r="B18" s="115"/>
       <c r="C18" s="192"/>
       <c r="D18" s="189"/>
-      <c r="E18" s="403"/>
-      <c r="F18" s="403"/>
+      <c r="E18" s="404"/>
+      <c r="F18" s="404"/>
       <c r="G18" s="193"/>
       <c r="H18" s="193"/>
       <c r="I18" s="194"/>
@@ -45237,8 +46038,8 @@
       <c r="B19" s="115"/>
       <c r="C19" s="193"/>
       <c r="D19" s="193"/>
-      <c r="E19" s="402"/>
-      <c r="F19" s="403"/>
+      <c r="E19" s="405"/>
+      <c r="F19" s="404"/>
       <c r="G19" s="193"/>
       <c r="H19" s="193"/>
       <c r="I19" s="194"/>
@@ -45494,17 +46295,17 @@
       <c r="B35" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="405"/>
-      <c r="D35" s="406"/>
-      <c r="E35" s="406"/>
-      <c r="F35" s="406"/>
-      <c r="G35" s="406"/>
-      <c r="H35" s="406"/>
-      <c r="I35" s="406"/>
-      <c r="J35" s="406"/>
-      <c r="K35" s="406"/>
-      <c r="L35" s="406"/>
-      <c r="M35" s="406"/>
+      <c r="C35" s="406"/>
+      <c r="D35" s="407"/>
+      <c r="E35" s="407"/>
+      <c r="F35" s="407"/>
+      <c r="G35" s="407"/>
+      <c r="H35" s="407"/>
+      <c r="I35" s="407"/>
+      <c r="J35" s="407"/>
+      <c r="K35" s="407"/>
+      <c r="L35" s="407"/>
+      <c r="M35" s="407"/>
     </row>
     <row r="36" spans="1:13" ht="16.5" customHeight="1">
       <c r="A36" s="13"/>
@@ -45829,7 +46630,7 @@
     <row r="53" spans="1:13" ht="155.25" customHeight="1">
       <c r="A53" s="13"/>
       <c r="B53" s="78"/>
-      <c r="C53" s="387"/>
+      <c r="C53" s="388"/>
       <c r="D53" s="389"/>
       <c r="E53" s="389"/>
       <c r="F53" s="389"/>
@@ -45947,18 +46748,18 @@
       <c r="C60" s="105" t="s">
         <v>567</v>
       </c>
-      <c r="D60" s="379" t="s">
+      <c r="D60" s="394" t="s">
         <v>570</v>
       </c>
-      <c r="E60" s="392"/>
-      <c r="F60" s="392"/>
-      <c r="G60" s="392"/>
-      <c r="H60" s="392"/>
-      <c r="I60" s="393"/>
-      <c r="J60" s="376"/>
-      <c r="K60" s="378"/>
-      <c r="L60" s="379"/>
-      <c r="M60" s="378"/>
+      <c r="E60" s="395"/>
+      <c r="F60" s="395"/>
+      <c r="G60" s="395"/>
+      <c r="H60" s="395"/>
+      <c r="I60" s="396"/>
+      <c r="J60" s="398"/>
+      <c r="K60" s="397"/>
+      <c r="L60" s="394"/>
+      <c r="M60" s="397"/>
     </row>
     <row r="61" spans="1:13" ht="24.95" customHeight="1">
       <c r="A61" s="13"/>
@@ -45968,16 +46769,16 @@
       <c r="C61" s="105" t="s">
         <v>568</v>
       </c>
-      <c r="D61" s="379" t="s">
+      <c r="D61" s="394" t="s">
         <v>571</v>
       </c>
-      <c r="E61" s="388"/>
-      <c r="F61" s="388"/>
-      <c r="G61" s="388"/>
-      <c r="H61" s="388"/>
-      <c r="I61" s="380"/>
-      <c r="J61" s="381"/>
-      <c r="K61" s="383"/>
+      <c r="E61" s="401"/>
+      <c r="F61" s="401"/>
+      <c r="G61" s="401"/>
+      <c r="H61" s="401"/>
+      <c r="I61" s="402"/>
+      <c r="J61" s="382"/>
+      <c r="K61" s="384"/>
       <c r="L61" s="105"/>
       <c r="M61" s="202"/>
     </row>
@@ -45989,7 +46790,7 @@
       <c r="C62" s="105" t="s">
         <v>569</v>
       </c>
-      <c r="D62" s="387" t="s">
+      <c r="D62" s="388" t="s">
         <v>572</v>
       </c>
       <c r="E62" s="389"/>
@@ -45997,36 +46798,36 @@
       <c r="G62" s="389"/>
       <c r="H62" s="389"/>
       <c r="I62" s="390"/>
-      <c r="J62" s="376"/>
-      <c r="K62" s="378"/>
-      <c r="L62" s="379"/>
-      <c r="M62" s="394"/>
+      <c r="J62" s="398"/>
+      <c r="K62" s="397"/>
+      <c r="L62" s="394"/>
+      <c r="M62" s="403"/>
     </row>
     <row r="63" spans="1:13" ht="77.25" customHeight="1">
       <c r="A63" s="13"/>
       <c r="B63" s="112"/>
       <c r="C63" s="105"/>
-      <c r="D63" s="379"/>
-      <c r="E63" s="392"/>
-      <c r="F63" s="392"/>
-      <c r="G63" s="392"/>
-      <c r="H63" s="392"/>
-      <c r="I63" s="393"/>
-      <c r="J63" s="376"/>
-      <c r="K63" s="378"/>
-      <c r="L63" s="379"/>
-      <c r="M63" s="394"/>
+      <c r="D63" s="394"/>
+      <c r="E63" s="395"/>
+      <c r="F63" s="395"/>
+      <c r="G63" s="395"/>
+      <c r="H63" s="395"/>
+      <c r="I63" s="396"/>
+      <c r="J63" s="398"/>
+      <c r="K63" s="397"/>
+      <c r="L63" s="394"/>
+      <c r="M63" s="403"/>
     </row>
     <row r="64" spans="1:13" ht="27" customHeight="1">
       <c r="A64" s="13"/>
       <c r="B64" s="112"/>
       <c r="C64" s="105"/>
-      <c r="D64" s="379"/>
-      <c r="E64" s="391"/>
-      <c r="F64" s="391"/>
-      <c r="G64" s="391"/>
-      <c r="H64" s="391"/>
-      <c r="I64" s="377"/>
+      <c r="D64" s="394"/>
+      <c r="E64" s="399"/>
+      <c r="F64" s="399"/>
+      <c r="G64" s="399"/>
+      <c r="H64" s="399"/>
+      <c r="I64" s="400"/>
       <c r="J64" s="105"/>
       <c r="K64" s="238"/>
       <c r="L64" s="203"/>
@@ -46036,67 +46837,67 @@
       <c r="A65" s="13"/>
       <c r="B65" s="112"/>
       <c r="C65" s="105"/>
-      <c r="D65" s="379"/>
-      <c r="E65" s="388"/>
-      <c r="F65" s="388"/>
-      <c r="G65" s="388"/>
-      <c r="H65" s="388"/>
-      <c r="I65" s="380"/>
+      <c r="D65" s="394"/>
+      <c r="E65" s="401"/>
+      <c r="F65" s="401"/>
+      <c r="G65" s="401"/>
+      <c r="H65" s="401"/>
+      <c r="I65" s="402"/>
       <c r="J65" s="105"/>
       <c r="K65" s="238"/>
-      <c r="L65" s="387"/>
+      <c r="L65" s="388"/>
       <c r="M65" s="390"/>
     </row>
     <row r="66" spans="1:15" ht="47.25" customHeight="1">
       <c r="A66" s="13"/>
       <c r="B66" s="112"/>
       <c r="C66" s="105"/>
-      <c r="D66" s="379"/>
-      <c r="E66" s="392"/>
-      <c r="F66" s="392"/>
-      <c r="G66" s="392"/>
-      <c r="H66" s="392"/>
-      <c r="I66" s="393"/>
-      <c r="J66" s="376"/>
-      <c r="K66" s="393"/>
-      <c r="L66" s="376"/>
-      <c r="M66" s="393"/>
+      <c r="D66" s="394"/>
+      <c r="E66" s="395"/>
+      <c r="F66" s="395"/>
+      <c r="G66" s="395"/>
+      <c r="H66" s="395"/>
+      <c r="I66" s="396"/>
+      <c r="J66" s="398"/>
+      <c r="K66" s="396"/>
+      <c r="L66" s="398"/>
+      <c r="M66" s="396"/>
     </row>
     <row r="67" spans="1:15" ht="97.5" customHeight="1">
       <c r="A67" s="13"/>
       <c r="B67" s="112"/>
       <c r="C67" s="105"/>
-      <c r="D67" s="379"/>
-      <c r="E67" s="388"/>
-      <c r="F67" s="388"/>
-      <c r="G67" s="388"/>
-      <c r="H67" s="388"/>
-      <c r="I67" s="380"/>
-      <c r="J67" s="376"/>
-      <c r="K67" s="377"/>
-      <c r="L67" s="379"/>
-      <c r="M67" s="394"/>
+      <c r="D67" s="394"/>
+      <c r="E67" s="401"/>
+      <c r="F67" s="401"/>
+      <c r="G67" s="401"/>
+      <c r="H67" s="401"/>
+      <c r="I67" s="402"/>
+      <c r="J67" s="398"/>
+      <c r="K67" s="400"/>
+      <c r="L67" s="394"/>
+      <c r="M67" s="403"/>
     </row>
     <row r="68" spans="1:15" ht="92.25" customHeight="1">
       <c r="A68" s="13"/>
       <c r="B68" s="112"/>
       <c r="C68" s="105"/>
-      <c r="D68" s="379"/>
-      <c r="E68" s="388"/>
-      <c r="F68" s="388"/>
-      <c r="G68" s="388"/>
-      <c r="H68" s="388"/>
-      <c r="I68" s="380"/>
-      <c r="J68" s="376"/>
-      <c r="K68" s="377"/>
-      <c r="L68" s="376"/>
-      <c r="M68" s="377"/>
+      <c r="D68" s="394"/>
+      <c r="E68" s="401"/>
+      <c r="F68" s="401"/>
+      <c r="G68" s="401"/>
+      <c r="H68" s="401"/>
+      <c r="I68" s="402"/>
+      <c r="J68" s="398"/>
+      <c r="K68" s="400"/>
+      <c r="L68" s="398"/>
+      <c r="M68" s="400"/>
     </row>
     <row r="69" spans="1:15" ht="27" customHeight="1">
       <c r="A69" s="13"/>
       <c r="B69" s="112"/>
       <c r="C69" s="105"/>
-      <c r="D69" s="387"/>
+      <c r="D69" s="388"/>
       <c r="E69" s="389"/>
       <c r="F69" s="389"/>
       <c r="G69" s="389"/>
@@ -46111,7 +46912,7 @@
       <c r="A70" s="13"/>
       <c r="B70" s="112"/>
       <c r="C70" s="105"/>
-      <c r="D70" s="387"/>
+      <c r="D70" s="388"/>
       <c r="E70" s="389"/>
       <c r="F70" s="389"/>
       <c r="G70" s="389"/>
@@ -46126,16 +46927,16 @@
       <c r="A71" s="13"/>
       <c r="B71" s="112"/>
       <c r="C71" s="203"/>
-      <c r="D71" s="379"/>
-      <c r="E71" s="391"/>
-      <c r="F71" s="391"/>
-      <c r="G71" s="391"/>
-      <c r="H71" s="391"/>
-      <c r="I71" s="377"/>
-      <c r="J71" s="376"/>
-      <c r="K71" s="378"/>
-      <c r="L71" s="379"/>
-      <c r="M71" s="380"/>
+      <c r="D71" s="394"/>
+      <c r="E71" s="399"/>
+      <c r="F71" s="399"/>
+      <c r="G71" s="399"/>
+      <c r="H71" s="399"/>
+      <c r="I71" s="400"/>
+      <c r="J71" s="398"/>
+      <c r="K71" s="397"/>
+      <c r="L71" s="394"/>
+      <c r="M71" s="402"/>
     </row>
     <row r="72" spans="1:15" s="220" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="73" spans="1:15" ht="16.5" customHeight="1">
@@ -46381,13 +47182,13 @@
     <row r="87" spans="1:15" ht="16.5" customHeight="1">
       <c r="A87" s="13"/>
       <c r="B87" s="78"/>
-      <c r="C87" s="384"/>
-      <c r="D87" s="385"/>
-      <c r="E87" s="385"/>
-      <c r="F87" s="385"/>
-      <c r="G87" s="385"/>
-      <c r="H87" s="385"/>
-      <c r="I87" s="386"/>
+      <c r="C87" s="391"/>
+      <c r="D87" s="392"/>
+      <c r="E87" s="392"/>
+      <c r="F87" s="392"/>
+      <c r="G87" s="392"/>
+      <c r="H87" s="392"/>
+      <c r="I87" s="393"/>
       <c r="J87" s="78"/>
       <c r="K87" s="112"/>
       <c r="L87" s="112"/>
@@ -46398,13 +47199,13 @@
     <row r="88" spans="1:15" ht="16.5" customHeight="1">
       <c r="A88" s="13"/>
       <c r="B88" s="78"/>
-      <c r="C88" s="384"/>
-      <c r="D88" s="385"/>
-      <c r="E88" s="385"/>
-      <c r="F88" s="385"/>
-      <c r="G88" s="385"/>
-      <c r="H88" s="385"/>
-      <c r="I88" s="386"/>
+      <c r="C88" s="391"/>
+      <c r="D88" s="392"/>
+      <c r="E88" s="392"/>
+      <c r="F88" s="392"/>
+      <c r="G88" s="392"/>
+      <c r="H88" s="392"/>
+      <c r="I88" s="393"/>
       <c r="J88" s="78"/>
       <c r="K88" s="112"/>
       <c r="L88" s="112"/>
@@ -46824,6 +47625,35 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="D66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:M67"/>
     <mergeCell ref="D68:I68"/>
     <mergeCell ref="J68:K68"/>
     <mergeCell ref="L68:M68"/>
@@ -46834,35 +47664,6 @@
     <mergeCell ref="J71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="C87:I87"/>
-    <mergeCell ref="D66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -46910,7 +47711,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="372" t="s">
+      <c r="A1" s="376" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
@@ -46921,7 +47722,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="373"/>
+      <c r="A2" s="377"/>
       <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
@@ -46932,18 +47733,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="373"/>
+      <c r="A3" s="377"/>
       <c r="G3" s="113"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="373"/>
+      <c r="A4" s="377"/>
       <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="113"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="374"/>
+      <c r="A5" s="378"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -46958,10 +47759,10 @@
       <c r="B6" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="400" t="s">
+      <c r="C6" s="408" t="s">
         <v>574</v>
       </c>
-      <c r="D6" s="401"/>
+      <c r="D6" s="409"/>
       <c r="E6" s="180" t="s">
         <v>575</v>
       </c>
@@ -47105,8 +47906,8 @@
       <c r="B15" s="115"/>
       <c r="C15" s="189"/>
       <c r="D15" s="189"/>
-      <c r="E15" s="402"/>
-      <c r="F15" s="402"/>
+      <c r="E15" s="405"/>
+      <c r="F15" s="405"/>
       <c r="G15" s="189"/>
       <c r="H15" s="189"/>
       <c r="I15" s="189"/>
@@ -47121,8 +47922,8 @@
       <c r="B16" s="115"/>
       <c r="C16" s="192"/>
       <c r="D16" s="189"/>
-      <c r="E16" s="403"/>
-      <c r="F16" s="403"/>
+      <c r="E16" s="404"/>
+      <c r="F16" s="404"/>
       <c r="G16" s="193"/>
       <c r="H16" s="193"/>
       <c r="I16" s="194"/>
@@ -47139,8 +47940,8 @@
       <c r="B17" s="115"/>
       <c r="C17" s="192"/>
       <c r="D17" s="189"/>
-      <c r="E17" s="403"/>
-      <c r="F17" s="403"/>
+      <c r="E17" s="404"/>
+      <c r="F17" s="404"/>
       <c r="G17" s="193"/>
       <c r="H17" s="193"/>
       <c r="I17" s="194"/>
@@ -47157,8 +47958,8 @@
       <c r="B18" s="115"/>
       <c r="C18" s="192"/>
       <c r="D18" s="189"/>
-      <c r="E18" s="403"/>
-      <c r="F18" s="403"/>
+      <c r="E18" s="404"/>
+      <c r="F18" s="404"/>
       <c r="G18" s="193"/>
       <c r="H18" s="193"/>
       <c r="I18" s="194"/>
@@ -47175,8 +47976,8 @@
       <c r="B19" s="115"/>
       <c r="C19" s="193"/>
       <c r="D19" s="193"/>
-      <c r="E19" s="402"/>
-      <c r="F19" s="403"/>
+      <c r="E19" s="405"/>
+      <c r="F19" s="404"/>
       <c r="G19" s="193"/>
       <c r="H19" s="193"/>
       <c r="I19" s="194"/>
@@ -47432,17 +48233,17 @@
       <c r="B35" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="405"/>
-      <c r="D35" s="406"/>
-      <c r="E35" s="406"/>
-      <c r="F35" s="406"/>
-      <c r="G35" s="406"/>
-      <c r="H35" s="406"/>
-      <c r="I35" s="406"/>
-      <c r="J35" s="406"/>
-      <c r="K35" s="406"/>
-      <c r="L35" s="406"/>
-      <c r="M35" s="406"/>
+      <c r="C35" s="406"/>
+      <c r="D35" s="407"/>
+      <c r="E35" s="407"/>
+      <c r="F35" s="407"/>
+      <c r="G35" s="407"/>
+      <c r="H35" s="407"/>
+      <c r="I35" s="407"/>
+      <c r="J35" s="407"/>
+      <c r="K35" s="407"/>
+      <c r="L35" s="407"/>
+      <c r="M35" s="407"/>
     </row>
     <row r="36" spans="1:13" ht="16.5" customHeight="1">
       <c r="A36" s="13"/>
@@ -47618,7 +48419,7 @@
     <row r="46" spans="1:13" ht="33.75" customHeight="1">
       <c r="A46" s="13"/>
       <c r="B46" s="78"/>
-      <c r="C46" s="387"/>
+      <c r="C46" s="388"/>
       <c r="D46" s="389"/>
       <c r="E46" s="389"/>
       <c r="F46" s="389"/>
@@ -47637,11 +48438,11 @@
     <row r="47" spans="1:13" ht="16.5" customHeight="1">
       <c r="A47" s="13"/>
       <c r="B47" s="78"/>
-      <c r="C47" s="384"/>
-      <c r="D47" s="385"/>
-      <c r="E47" s="385"/>
-      <c r="F47" s="385"/>
-      <c r="G47" s="386"/>
+      <c r="C47" s="391"/>
+      <c r="D47" s="392"/>
+      <c r="E47" s="392"/>
+      <c r="F47" s="392"/>
+      <c r="G47" s="393"/>
       <c r="H47" s="12" t="s">
         <v>561</v>
       </c>
@@ -47656,11 +48457,11 @@
     <row r="48" spans="1:13" ht="16.5" customHeight="1">
       <c r="A48" s="13"/>
       <c r="B48" s="78"/>
-      <c r="C48" s="384"/>
-      <c r="D48" s="385"/>
-      <c r="E48" s="385"/>
-      <c r="F48" s="385"/>
-      <c r="G48" s="386"/>
+      <c r="C48" s="391"/>
+      <c r="D48" s="392"/>
+      <c r="E48" s="392"/>
+      <c r="F48" s="392"/>
+      <c r="G48" s="393"/>
       <c r="H48" s="12" t="s">
         <v>57</v>
       </c>
@@ -47675,11 +48476,11 @@
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="13"/>
       <c r="B49" s="78"/>
-      <c r="C49" s="384"/>
-      <c r="D49" s="385"/>
-      <c r="E49" s="385"/>
-      <c r="F49" s="385"/>
-      <c r="G49" s="386"/>
+      <c r="C49" s="391"/>
+      <c r="D49" s="392"/>
+      <c r="E49" s="392"/>
+      <c r="F49" s="392"/>
+      <c r="G49" s="393"/>
       <c r="H49" s="12" t="s">
         <v>57</v>
       </c>
@@ -47694,11 +48495,11 @@
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="13"/>
       <c r="B50" s="78"/>
-      <c r="C50" s="384"/>
-      <c r="D50" s="385"/>
-      <c r="E50" s="385"/>
-      <c r="F50" s="385"/>
-      <c r="G50" s="386"/>
+      <c r="C50" s="391"/>
+      <c r="D50" s="392"/>
+      <c r="E50" s="392"/>
+      <c r="F50" s="392"/>
+      <c r="G50" s="393"/>
       <c r="H50" s="12" t="s">
         <v>57</v>
       </c>
@@ -47713,11 +48514,11 @@
     <row r="51" spans="1:13" ht="16.5" customHeight="1">
       <c r="A51" s="13"/>
       <c r="B51" s="78"/>
-      <c r="C51" s="384"/>
-      <c r="D51" s="385"/>
-      <c r="E51" s="385"/>
-      <c r="F51" s="385"/>
-      <c r="G51" s="386"/>
+      <c r="C51" s="391"/>
+      <c r="D51" s="392"/>
+      <c r="E51" s="392"/>
+      <c r="F51" s="392"/>
+      <c r="G51" s="393"/>
       <c r="H51" s="12" t="s">
         <v>57</v>
       </c>
@@ -47732,11 +48533,11 @@
     <row r="52" spans="1:13" ht="16.5" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="78"/>
-      <c r="C52" s="384"/>
-      <c r="D52" s="385"/>
-      <c r="E52" s="385"/>
-      <c r="F52" s="385"/>
-      <c r="G52" s="386"/>
+      <c r="C52" s="391"/>
+      <c r="D52" s="392"/>
+      <c r="E52" s="392"/>
+      <c r="F52" s="392"/>
+      <c r="G52" s="393"/>
       <c r="H52" s="12" t="s">
         <v>57</v>
       </c>
@@ -47751,7 +48552,7 @@
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="13"/>
       <c r="B53" s="78"/>
-      <c r="C53" s="387"/>
+      <c r="C53" s="388"/>
       <c r="D53" s="389"/>
       <c r="E53" s="389"/>
       <c r="F53" s="389"/>
@@ -47770,11 +48571,11 @@
     <row r="54" spans="1:13" ht="25.5" customHeight="1">
       <c r="A54" s="13"/>
       <c r="B54" s="223"/>
-      <c r="C54" s="384"/>
-      <c r="D54" s="385"/>
-      <c r="E54" s="385"/>
-      <c r="F54" s="385"/>
-      <c r="G54" s="386"/>
+      <c r="C54" s="391"/>
+      <c r="D54" s="392"/>
+      <c r="E54" s="392"/>
+      <c r="F54" s="392"/>
+      <c r="G54" s="393"/>
       <c r="H54" s="12" t="s">
         <v>57</v>
       </c>
@@ -47789,11 +48590,11 @@
     <row r="55" spans="1:13" ht="24.75" customHeight="1">
       <c r="A55" s="13"/>
       <c r="B55" s="223"/>
-      <c r="C55" s="384"/>
-      <c r="D55" s="385"/>
-      <c r="E55" s="385"/>
-      <c r="F55" s="385"/>
-      <c r="G55" s="386"/>
+      <c r="C55" s="391"/>
+      <c r="D55" s="392"/>
+      <c r="E55" s="392"/>
+      <c r="F55" s="392"/>
+      <c r="G55" s="393"/>
       <c r="H55" s="12" t="s">
         <v>57</v>
       </c>
@@ -47808,11 +48609,11 @@
     <row r="56" spans="1:13" ht="24" customHeight="1">
       <c r="A56" s="13"/>
       <c r="B56" s="223"/>
-      <c r="C56" s="384"/>
-      <c r="D56" s="385"/>
-      <c r="E56" s="385"/>
-      <c r="F56" s="385"/>
-      <c r="G56" s="386"/>
+      <c r="C56" s="391"/>
+      <c r="D56" s="392"/>
+      <c r="E56" s="392"/>
+      <c r="F56" s="392"/>
+      <c r="G56" s="393"/>
       <c r="H56" s="12" t="s">
         <v>57</v>
       </c>
@@ -47869,31 +48670,31 @@
       <c r="C60" s="105" t="s">
         <v>576</v>
       </c>
-      <c r="D60" s="379" t="s">
+      <c r="D60" s="394" t="s">
         <v>577</v>
       </c>
-      <c r="E60" s="392"/>
-      <c r="F60" s="392"/>
-      <c r="G60" s="392"/>
-      <c r="H60" s="392"/>
-      <c r="I60" s="393"/>
-      <c r="J60" s="376"/>
-      <c r="K60" s="378"/>
-      <c r="L60" s="379"/>
-      <c r="M60" s="378"/>
+      <c r="E60" s="395"/>
+      <c r="F60" s="395"/>
+      <c r="G60" s="395"/>
+      <c r="H60" s="395"/>
+      <c r="I60" s="396"/>
+      <c r="J60" s="398"/>
+      <c r="K60" s="397"/>
+      <c r="L60" s="394"/>
+      <c r="M60" s="397"/>
     </row>
     <row r="61" spans="1:13" ht="24.95" customHeight="1">
       <c r="A61" s="13"/>
       <c r="B61" s="112"/>
       <c r="C61" s="105"/>
-      <c r="D61" s="379"/>
-      <c r="E61" s="388"/>
-      <c r="F61" s="388"/>
-      <c r="G61" s="388"/>
-      <c r="H61" s="388"/>
-      <c r="I61" s="380"/>
-      <c r="J61" s="381"/>
-      <c r="K61" s="383"/>
+      <c r="D61" s="394"/>
+      <c r="E61" s="401"/>
+      <c r="F61" s="401"/>
+      <c r="G61" s="401"/>
+      <c r="H61" s="401"/>
+      <c r="I61" s="402"/>
+      <c r="J61" s="382"/>
+      <c r="K61" s="384"/>
       <c r="L61" s="105"/>
       <c r="M61" s="202"/>
     </row>
@@ -47901,42 +48702,42 @@
       <c r="A62" s="13"/>
       <c r="B62" s="112"/>
       <c r="C62" s="105"/>
-      <c r="D62" s="387"/>
+      <c r="D62" s="388"/>
       <c r="E62" s="389"/>
       <c r="F62" s="389"/>
       <c r="G62" s="389"/>
       <c r="H62" s="389"/>
       <c r="I62" s="390"/>
-      <c r="J62" s="376"/>
-      <c r="K62" s="378"/>
-      <c r="L62" s="379"/>
-      <c r="M62" s="394"/>
+      <c r="J62" s="398"/>
+      <c r="K62" s="397"/>
+      <c r="L62" s="394"/>
+      <c r="M62" s="403"/>
     </row>
     <row r="63" spans="1:13" ht="77.25" customHeight="1">
       <c r="A63" s="13"/>
       <c r="B63" s="112"/>
       <c r="C63" s="105"/>
-      <c r="D63" s="379"/>
-      <c r="E63" s="392"/>
-      <c r="F63" s="392"/>
-      <c r="G63" s="392"/>
-      <c r="H63" s="392"/>
-      <c r="I63" s="393"/>
-      <c r="J63" s="376"/>
-      <c r="K63" s="378"/>
-      <c r="L63" s="379"/>
-      <c r="M63" s="394"/>
+      <c r="D63" s="394"/>
+      <c r="E63" s="395"/>
+      <c r="F63" s="395"/>
+      <c r="G63" s="395"/>
+      <c r="H63" s="395"/>
+      <c r="I63" s="396"/>
+      <c r="J63" s="398"/>
+      <c r="K63" s="397"/>
+      <c r="L63" s="394"/>
+      <c r="M63" s="403"/>
     </row>
     <row r="64" spans="1:13" ht="27" customHeight="1">
       <c r="A64" s="13"/>
       <c r="B64" s="112"/>
       <c r="C64" s="105"/>
-      <c r="D64" s="379"/>
-      <c r="E64" s="391"/>
-      <c r="F64" s="391"/>
-      <c r="G64" s="391"/>
-      <c r="H64" s="391"/>
-      <c r="I64" s="377"/>
+      <c r="D64" s="394"/>
+      <c r="E64" s="399"/>
+      <c r="F64" s="399"/>
+      <c r="G64" s="399"/>
+      <c r="H64" s="399"/>
+      <c r="I64" s="400"/>
       <c r="J64" s="105"/>
       <c r="K64" s="238"/>
       <c r="L64" s="203"/>
@@ -47946,67 +48747,67 @@
       <c r="A65" s="13"/>
       <c r="B65" s="112"/>
       <c r="C65" s="105"/>
-      <c r="D65" s="379"/>
-      <c r="E65" s="388"/>
-      <c r="F65" s="388"/>
-      <c r="G65" s="388"/>
-      <c r="H65" s="388"/>
-      <c r="I65" s="380"/>
+      <c r="D65" s="394"/>
+      <c r="E65" s="401"/>
+      <c r="F65" s="401"/>
+      <c r="G65" s="401"/>
+      <c r="H65" s="401"/>
+      <c r="I65" s="402"/>
       <c r="J65" s="105"/>
       <c r="K65" s="238"/>
-      <c r="L65" s="387"/>
+      <c r="L65" s="388"/>
       <c r="M65" s="390"/>
     </row>
     <row r="66" spans="1:15" ht="47.25" customHeight="1">
       <c r="A66" s="13"/>
       <c r="B66" s="112"/>
       <c r="C66" s="105"/>
-      <c r="D66" s="379"/>
-      <c r="E66" s="392"/>
-      <c r="F66" s="392"/>
-      <c r="G66" s="392"/>
-      <c r="H66" s="392"/>
-      <c r="I66" s="393"/>
-      <c r="J66" s="376"/>
-      <c r="K66" s="393"/>
-      <c r="L66" s="376"/>
-      <c r="M66" s="393"/>
+      <c r="D66" s="394"/>
+      <c r="E66" s="395"/>
+      <c r="F66" s="395"/>
+      <c r="G66" s="395"/>
+      <c r="H66" s="395"/>
+      <c r="I66" s="396"/>
+      <c r="J66" s="398"/>
+      <c r="K66" s="396"/>
+      <c r="L66" s="398"/>
+      <c r="M66" s="396"/>
     </row>
     <row r="67" spans="1:15" ht="97.5" customHeight="1">
       <c r="A67" s="13"/>
       <c r="B67" s="112"/>
       <c r="C67" s="105"/>
-      <c r="D67" s="379"/>
-      <c r="E67" s="388"/>
-      <c r="F67" s="388"/>
-      <c r="G67" s="388"/>
-      <c r="H67" s="388"/>
-      <c r="I67" s="380"/>
-      <c r="J67" s="376"/>
-      <c r="K67" s="377"/>
-      <c r="L67" s="379"/>
-      <c r="M67" s="394"/>
+      <c r="D67" s="394"/>
+      <c r="E67" s="401"/>
+      <c r="F67" s="401"/>
+      <c r="G67" s="401"/>
+      <c r="H67" s="401"/>
+      <c r="I67" s="402"/>
+      <c r="J67" s="398"/>
+      <c r="K67" s="400"/>
+      <c r="L67" s="394"/>
+      <c r="M67" s="403"/>
     </row>
     <row r="68" spans="1:15" ht="92.25" customHeight="1">
       <c r="A68" s="13"/>
       <c r="B68" s="112"/>
       <c r="C68" s="105"/>
-      <c r="D68" s="379"/>
-      <c r="E68" s="388"/>
-      <c r="F68" s="388"/>
-      <c r="G68" s="388"/>
-      <c r="H68" s="388"/>
-      <c r="I68" s="380"/>
-      <c r="J68" s="376"/>
-      <c r="K68" s="377"/>
-      <c r="L68" s="376"/>
-      <c r="M68" s="377"/>
+      <c r="D68" s="394"/>
+      <c r="E68" s="401"/>
+      <c r="F68" s="401"/>
+      <c r="G68" s="401"/>
+      <c r="H68" s="401"/>
+      <c r="I68" s="402"/>
+      <c r="J68" s="398"/>
+      <c r="K68" s="400"/>
+      <c r="L68" s="398"/>
+      <c r="M68" s="400"/>
     </row>
     <row r="69" spans="1:15" ht="27" customHeight="1">
       <c r="A69" s="13"/>
       <c r="B69" s="112"/>
       <c r="C69" s="105"/>
-      <c r="D69" s="387"/>
+      <c r="D69" s="388"/>
       <c r="E69" s="389"/>
       <c r="F69" s="389"/>
       <c r="G69" s="389"/>
@@ -48021,7 +48822,7 @@
       <c r="A70" s="13"/>
       <c r="B70" s="112"/>
       <c r="C70" s="105"/>
-      <c r="D70" s="387"/>
+      <c r="D70" s="388"/>
       <c r="E70" s="389"/>
       <c r="F70" s="389"/>
       <c r="G70" s="389"/>
@@ -48036,16 +48837,16 @@
       <c r="A71" s="13"/>
       <c r="B71" s="112"/>
       <c r="C71" s="203"/>
-      <c r="D71" s="379"/>
-      <c r="E71" s="391"/>
-      <c r="F71" s="391"/>
-      <c r="G71" s="391"/>
-      <c r="H71" s="391"/>
-      <c r="I71" s="377"/>
-      <c r="J71" s="376"/>
-      <c r="K71" s="378"/>
-      <c r="L71" s="379"/>
-      <c r="M71" s="380"/>
+      <c r="D71" s="394"/>
+      <c r="E71" s="399"/>
+      <c r="F71" s="399"/>
+      <c r="G71" s="399"/>
+      <c r="H71" s="399"/>
+      <c r="I71" s="400"/>
+      <c r="J71" s="398"/>
+      <c r="K71" s="397"/>
+      <c r="L71" s="394"/>
+      <c r="M71" s="402"/>
     </row>
     <row r="72" spans="1:15" s="220" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="73" spans="1:15" ht="16.5" customHeight="1">
@@ -48087,15 +48888,15 @@
       <c r="B75" s="78" t="s">
         <v>578</v>
       </c>
-      <c r="C75" s="384" t="s">
+      <c r="C75" s="391" t="s">
         <v>581</v>
       </c>
-      <c r="D75" s="385"/>
-      <c r="E75" s="385"/>
-      <c r="F75" s="385"/>
-      <c r="G75" s="385"/>
-      <c r="H75" s="385"/>
-      <c r="I75" s="386"/>
+      <c r="D75" s="392"/>
+      <c r="E75" s="392"/>
+      <c r="F75" s="392"/>
+      <c r="G75" s="392"/>
+      <c r="H75" s="392"/>
+      <c r="I75" s="393"/>
       <c r="J75" s="78"/>
       <c r="K75" s="112"/>
       <c r="L75" s="112"/>
@@ -48110,15 +48911,15 @@
       <c r="B76" s="78" t="s">
         <v>579</v>
       </c>
-      <c r="C76" s="384" t="s">
+      <c r="C76" s="391" t="s">
         <v>582</v>
       </c>
-      <c r="D76" s="385"/>
-      <c r="E76" s="385"/>
-      <c r="F76" s="385"/>
-      <c r="G76" s="385"/>
-      <c r="H76" s="385"/>
-      <c r="I76" s="386"/>
+      <c r="D76" s="392"/>
+      <c r="E76" s="392"/>
+      <c r="F76" s="392"/>
+      <c r="G76" s="392"/>
+      <c r="H76" s="392"/>
+      <c r="I76" s="393"/>
       <c r="J76" s="78"/>
       <c r="K76" s="112"/>
       <c r="L76" s="112"/>
@@ -48131,15 +48932,15 @@
       <c r="B77" s="78" t="s">
         <v>580</v>
       </c>
-      <c r="C77" s="387" t="s">
+      <c r="C77" s="388" t="s">
         <v>583</v>
       </c>
-      <c r="D77" s="385"/>
-      <c r="E77" s="385"/>
-      <c r="F77" s="385"/>
-      <c r="G77" s="385"/>
-      <c r="H77" s="385"/>
-      <c r="I77" s="386"/>
+      <c r="D77" s="392"/>
+      <c r="E77" s="392"/>
+      <c r="F77" s="392"/>
+      <c r="G77" s="392"/>
+      <c r="H77" s="392"/>
+      <c r="I77" s="393"/>
       <c r="J77" s="78"/>
       <c r="K77" s="112"/>
       <c r="L77" s="112"/>
@@ -48303,13 +49104,13 @@
     <row r="87" spans="1:15" ht="16.5" customHeight="1">
       <c r="A87" s="13"/>
       <c r="B87" s="78"/>
-      <c r="C87" s="384"/>
-      <c r="D87" s="385"/>
-      <c r="E87" s="385"/>
-      <c r="F87" s="385"/>
-      <c r="G87" s="385"/>
-      <c r="H87" s="385"/>
-      <c r="I87" s="386"/>
+      <c r="C87" s="391"/>
+      <c r="D87" s="392"/>
+      <c r="E87" s="392"/>
+      <c r="F87" s="392"/>
+      <c r="G87" s="392"/>
+      <c r="H87" s="392"/>
+      <c r="I87" s="393"/>
       <c r="J87" s="78"/>
       <c r="K87" s="112"/>
       <c r="L87" s="112"/>
@@ -48320,13 +49121,13 @@
     <row r="88" spans="1:15" ht="16.5" customHeight="1">
       <c r="A88" s="13"/>
       <c r="B88" s="78"/>
-      <c r="C88" s="384"/>
-      <c r="D88" s="385"/>
-      <c r="E88" s="385"/>
-      <c r="F88" s="385"/>
-      <c r="G88" s="385"/>
-      <c r="H88" s="385"/>
-      <c r="I88" s="386"/>
+      <c r="C88" s="391"/>
+      <c r="D88" s="392"/>
+      <c r="E88" s="392"/>
+      <c r="F88" s="392"/>
+      <c r="G88" s="392"/>
+      <c r="H88" s="392"/>
+      <c r="I88" s="393"/>
       <c r="J88" s="78"/>
       <c r="K88" s="112"/>
       <c r="L88" s="112"/>
@@ -48746,14 +49547,39 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="C88:I88"/>
-    <mergeCell ref="C75:I75"/>
-    <mergeCell ref="C76:I76"/>
-    <mergeCell ref="C77:I77"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D70:I70"/>
-    <mergeCell ref="D71:I71"/>
-    <mergeCell ref="C87:I87"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="L65:M65"/>
     <mergeCell ref="D66:I66"/>
     <mergeCell ref="J66:K66"/>
     <mergeCell ref="L66:M66"/>
@@ -48765,39 +49591,14 @@
     <mergeCell ref="D68:I68"/>
     <mergeCell ref="J68:K68"/>
     <mergeCell ref="L68:M68"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C88:I88"/>
+    <mergeCell ref="C75:I75"/>
+    <mergeCell ref="C76:I76"/>
+    <mergeCell ref="C77:I77"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D70:I70"/>
+    <mergeCell ref="D71:I71"/>
+    <mergeCell ref="C87:I87"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">

--- a/doc/sfs/sye/기본설계서_패키지명_REDBULL_송영은.xlsx
+++ b/doc/sfs/sye/기본설계서_패키지명_REDBULL_송영은.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="888">
   <si>
     <t xml:space="preserve">  SELECT</t>
   </si>
@@ -3591,10 +3591,6 @@
   </si>
   <si>
     <t>submit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>201-10-11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5763,6 +5759,12 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="52" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="43" xfId="36" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="justify" textRotation="90"/>
     </xf>
@@ -5862,12 +5864,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -22004,7 +22000,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="376"/>
+      <c r="A1" s="378"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -22020,7 +22016,7 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="377"/>
+      <c r="A2" s="379"/>
       <c r="B2" s="3" t="s">
         <v>48</v>
       </c>
@@ -22038,21 +22034,21 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="377"/>
+      <c r="A3" s="379"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="377"/>
+      <c r="A4" s="379"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="378"/>
+      <c r="A5" s="380"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -22344,7 +22340,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="376" t="s">
+      <c r="A1" s="378" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
@@ -22357,7 +22353,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="377"/>
+      <c r="A2" s="379"/>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
@@ -22370,21 +22366,21 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="377"/>
+      <c r="A3" s="379"/>
       <c r="B3" s="5"/>
       <c r="C3" s="254"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="377"/>
+      <c r="A4" s="379"/>
       <c r="B4" s="7"/>
       <c r="C4" s="255"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="378"/>
+      <c r="A5" s="380"/>
       <c r="B5" s="8"/>
       <c r="C5" s="256"/>
       <c r="D5" s="8"/>
@@ -28706,7 +28702,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="376" t="s">
+      <c r="A1" s="378" t="s">
         <v>102</v>
       </c>
       <c r="B1" s="1"/>
@@ -28722,7 +28718,7 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="377"/>
+      <c r="A2" s="379"/>
       <c r="B2" s="3" t="s">
         <v>367</v>
       </c>
@@ -28738,14 +28734,14 @@
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="377"/>
+      <c r="A3" s="379"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="377"/>
+      <c r="A4" s="379"/>
       <c r="B4" s="7" t="s">
         <v>368</v>
       </c>
@@ -28754,7 +28750,7 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:24" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="378"/>
+      <c r="A5" s="380"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -29513,8 +29509,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AS76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="L1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="T16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AK11" sqref="AK11:AO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -29548,7 +29544,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="379" t="s">
+      <c r="A1" s="381" t="s">
         <v>469</v>
       </c>
       <c r="B1" s="1"/>
@@ -29561,7 +29557,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:45" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="377"/>
+      <c r="A2" s="379"/>
       <c r="B2" s="3" t="s">
         <v>470</v>
       </c>
@@ -29574,14 +29570,14 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:45" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="377"/>
+      <c r="A3" s="379"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:45" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="377"/>
+      <c r="A4" s="379"/>
       <c r="B4" s="7" t="s">
         <v>471</v>
       </c>
@@ -29590,7 +29586,7 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:45" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="378"/>
+      <c r="A5" s="380"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -30045,13 +30041,13 @@
       <c r="O11" s="349" t="s">
         <v>674</v>
       </c>
-      <c r="P11" s="413" t="s">
+      <c r="P11" s="377" t="s">
         <v>675</v>
       </c>
-      <c r="Q11" s="412" t="s">
+      <c r="Q11" s="376" t="s">
         <v>676</v>
       </c>
-      <c r="R11" s="412" t="s">
+      <c r="R11" s="376" t="s">
         <v>677</v>
       </c>
       <c r="S11" s="354" t="str">
@@ -30105,21 +30101,11 @@
       <c r="AJ11" s="359">
         <v>43728</v>
       </c>
-      <c r="AK11" s="360">
-        <v>43748</v>
-      </c>
-      <c r="AL11" s="359">
-        <v>43748</v>
-      </c>
-      <c r="AM11" s="359" t="s">
-        <v>888</v>
-      </c>
-      <c r="AN11" s="360">
-        <v>43749</v>
-      </c>
-      <c r="AO11" s="361">
-        <v>43763</v>
-      </c>
+      <c r="AK11" s="360"/>
+      <c r="AL11" s="359"/>
+      <c r="AM11" s="359"/>
+      <c r="AN11" s="360"/>
+      <c r="AO11" s="361"/>
       <c r="AP11" s="364"/>
       <c r="AQ11" s="364"/>
       <c r="AR11" s="364"/>
@@ -30148,10 +30134,10 @@
         <v>674</v>
       </c>
       <c r="P12" s="349"/>
-      <c r="Q12" s="412" t="s">
+      <c r="Q12" s="376" t="s">
         <v>678</v>
       </c>
-      <c r="R12" s="412" t="s">
+      <c r="R12" s="376" t="s">
         <v>679</v>
       </c>
       <c r="S12" s="354" t="str">
@@ -30205,21 +30191,11 @@
       <c r="AJ12" s="359">
         <v>43728</v>
       </c>
-      <c r="AK12" s="360">
-        <v>43748</v>
-      </c>
-      <c r="AL12" s="359">
-        <v>43748</v>
-      </c>
-      <c r="AM12" s="359" t="s">
-        <v>888</v>
-      </c>
-      <c r="AN12" s="360">
-        <v>43749</v>
-      </c>
-      <c r="AO12" s="361">
-        <v>43763</v>
-      </c>
+      <c r="AK12" s="360"/>
+      <c r="AL12" s="359"/>
+      <c r="AM12" s="359"/>
+      <c r="AN12" s="360"/>
+      <c r="AO12" s="361"/>
       <c r="AP12" s="364"/>
       <c r="AQ12" s="364"/>
       <c r="AR12" s="364"/>
@@ -30248,7 +30224,7 @@
         <v>674</v>
       </c>
       <c r="P13" s="349"/>
-      <c r="Q13" s="412" t="s">
+      <c r="Q13" s="376" t="s">
         <v>680</v>
       </c>
       <c r="R13" s="345"/>
@@ -30303,21 +30279,11 @@
       <c r="AJ13" s="359">
         <v>43728</v>
       </c>
-      <c r="AK13" s="360">
-        <v>43748</v>
-      </c>
-      <c r="AL13" s="359">
-        <v>43748</v>
-      </c>
-      <c r="AM13" s="359" t="s">
-        <v>888</v>
-      </c>
-      <c r="AN13" s="360">
-        <v>43749</v>
-      </c>
-      <c r="AO13" s="361">
-        <v>43763</v>
-      </c>
+      <c r="AK13" s="360"/>
+      <c r="AL13" s="359"/>
+      <c r="AM13" s="359"/>
+      <c r="AN13" s="360"/>
+      <c r="AO13" s="361"/>
       <c r="AP13" s="364"/>
       <c r="AQ13" s="364"/>
       <c r="AR13" s="364"/>
@@ -34394,7 +34360,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A1" s="376" t="s">
+      <c r="A1" s="378" t="s">
         <v>594</v>
       </c>
       <c r="B1" s="1"/>
@@ -34405,7 +34371,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="377"/>
+      <c r="A2" s="379"/>
       <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
@@ -34416,18 +34382,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="377"/>
+      <c r="A3" s="379"/>
       <c r="G3" s="113"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="377"/>
+      <c r="A4" s="379"/>
       <c r="B4" s="7" t="s">
         <v>595</v>
       </c>
       <c r="G4" s="113"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A5" s="378"/>
+      <c r="A5" s="380"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -34442,10 +34408,10 @@
       <c r="B6" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="380" t="s">
+      <c r="C6" s="382" t="s">
         <v>662</v>
       </c>
-      <c r="D6" s="381"/>
+      <c r="D6" s="383"/>
       <c r="E6" s="180" t="str">
         <f>IF(ISNA(VLOOKUP(C6,'[1]프로그램 목록'!$P$7:$V$30,6,FALSE)),"",VLOOKUP(C6,'[1]프로그램 목록'!$P$7:$V$30,6,FALSE))</f>
         <v/>
@@ -34705,8 +34671,8 @@
       <c r="E19" s="307"/>
       <c r="F19" s="308"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="385"/>
-      <c r="I19" s="385"/>
+      <c r="H19" s="387"/>
+      <c r="I19" s="387"/>
       <c r="J19" s="16"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
@@ -34944,17 +34910,17 @@
       <c r="B35" s="310" t="s">
         <v>597</v>
       </c>
-      <c r="C35" s="386"/>
-      <c r="D35" s="387"/>
-      <c r="E35" s="387"/>
-      <c r="F35" s="387"/>
-      <c r="G35" s="387"/>
-      <c r="H35" s="387"/>
-      <c r="I35" s="387"/>
-      <c r="J35" s="387"/>
-      <c r="K35" s="387"/>
-      <c r="L35" s="387"/>
-      <c r="M35" s="387"/>
+      <c r="C35" s="388"/>
+      <c r="D35" s="389"/>
+      <c r="E35" s="389"/>
+      <c r="F35" s="389"/>
+      <c r="G35" s="389"/>
+      <c r="H35" s="389"/>
+      <c r="I35" s="389"/>
+      <c r="J35" s="389"/>
+      <c r="K35" s="389"/>
+      <c r="L35" s="389"/>
+      <c r="M35" s="389"/>
     </row>
     <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="13"/>
@@ -35093,13 +35059,13 @@
       <c r="B45" s="76" t="s">
         <v>596</v>
       </c>
-      <c r="C45" s="391" t="s">
+      <c r="C45" s="393" t="s">
         <v>647</v>
       </c>
-      <c r="D45" s="392"/>
-      <c r="E45" s="392"/>
-      <c r="F45" s="392"/>
-      <c r="G45" s="393"/>
+      <c r="D45" s="394"/>
+      <c r="E45" s="394"/>
+      <c r="F45" s="394"/>
+      <c r="G45" s="395"/>
       <c r="H45" s="12" t="s">
         <v>601</v>
       </c>
@@ -35109,20 +35075,20 @@
       <c r="J45" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K45" s="382"/>
-      <c r="L45" s="383"/>
-      <c r="M45" s="384"/>
+      <c r="K45" s="384"/>
+      <c r="L45" s="385"/>
+      <c r="M45" s="386"/>
     </row>
     <row r="46" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="13"/>
       <c r="B46" s="292" t="s">
         <v>648</v>
       </c>
-      <c r="C46" s="388"/>
-      <c r="D46" s="389"/>
-      <c r="E46" s="389"/>
-      <c r="F46" s="389"/>
-      <c r="G46" s="390"/>
+      <c r="C46" s="390"/>
+      <c r="D46" s="391"/>
+      <c r="E46" s="391"/>
+      <c r="F46" s="391"/>
+      <c r="G46" s="392"/>
       <c r="H46" s="12" t="s">
         <v>601</v>
       </c>
@@ -35132,22 +35098,22 @@
       <c r="J46" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K46" s="382">
+      <c r="K46" s="384">
         <v>1</v>
       </c>
-      <c r="L46" s="383"/>
-      <c r="M46" s="384"/>
+      <c r="L46" s="385"/>
+      <c r="M46" s="386"/>
     </row>
     <row r="47" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="13"/>
       <c r="B47" s="292" t="s">
         <v>649</v>
       </c>
-      <c r="C47" s="391"/>
-      <c r="D47" s="392"/>
-      <c r="E47" s="392"/>
-      <c r="F47" s="392"/>
-      <c r="G47" s="393"/>
+      <c r="C47" s="393"/>
+      <c r="D47" s="394"/>
+      <c r="E47" s="394"/>
+      <c r="F47" s="394"/>
+      <c r="G47" s="395"/>
       <c r="H47" s="12" t="s">
         <v>601</v>
       </c>
@@ -35157,20 +35123,20 @@
       <c r="J47" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K47" s="382">
+      <c r="K47" s="384">
         <v>1</v>
       </c>
-      <c r="L47" s="383"/>
-      <c r="M47" s="384"/>
+      <c r="L47" s="385"/>
+      <c r="M47" s="386"/>
     </row>
     <row r="48" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="13"/>
       <c r="B48" s="292"/>
-      <c r="C48" s="391"/>
-      <c r="D48" s="392"/>
-      <c r="E48" s="392"/>
-      <c r="F48" s="392"/>
-      <c r="G48" s="393"/>
+      <c r="C48" s="393"/>
+      <c r="D48" s="394"/>
+      <c r="E48" s="394"/>
+      <c r="F48" s="394"/>
+      <c r="G48" s="395"/>
       <c r="H48" s="12" t="s">
         <v>601</v>
       </c>
@@ -35178,18 +35144,18 @@
       <c r="J48" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K48" s="382"/>
-      <c r="L48" s="383"/>
-      <c r="M48" s="384"/>
+      <c r="K48" s="384"/>
+      <c r="L48" s="385"/>
+      <c r="M48" s="386"/>
     </row>
     <row r="49" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="13"/>
       <c r="B49" s="292"/>
-      <c r="C49" s="391"/>
-      <c r="D49" s="392"/>
-      <c r="E49" s="392"/>
-      <c r="F49" s="392"/>
-      <c r="G49" s="393"/>
+      <c r="C49" s="393"/>
+      <c r="D49" s="394"/>
+      <c r="E49" s="394"/>
+      <c r="F49" s="394"/>
+      <c r="G49" s="395"/>
       <c r="H49" s="12" t="s">
         <v>601</v>
       </c>
@@ -35197,18 +35163,18 @@
       <c r="J49" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K49" s="382"/>
-      <c r="L49" s="383"/>
-      <c r="M49" s="384"/>
+      <c r="K49" s="384"/>
+      <c r="L49" s="385"/>
+      <c r="M49" s="386"/>
     </row>
     <row r="50" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="13"/>
       <c r="B50" s="292"/>
-      <c r="C50" s="391"/>
-      <c r="D50" s="392"/>
-      <c r="E50" s="392"/>
-      <c r="F50" s="392"/>
-      <c r="G50" s="393"/>
+      <c r="C50" s="393"/>
+      <c r="D50" s="394"/>
+      <c r="E50" s="394"/>
+      <c r="F50" s="394"/>
+      <c r="G50" s="395"/>
       <c r="H50" s="12" t="s">
         <v>601</v>
       </c>
@@ -35216,18 +35182,18 @@
       <c r="J50" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K50" s="382"/>
-      <c r="L50" s="383"/>
-      <c r="M50" s="384"/>
+      <c r="K50" s="384"/>
+      <c r="L50" s="385"/>
+      <c r="M50" s="386"/>
     </row>
     <row r="51" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="13"/>
       <c r="B51" s="292"/>
-      <c r="C51" s="391"/>
-      <c r="D51" s="392"/>
-      <c r="E51" s="392"/>
-      <c r="F51" s="392"/>
-      <c r="G51" s="393"/>
+      <c r="C51" s="393"/>
+      <c r="D51" s="394"/>
+      <c r="E51" s="394"/>
+      <c r="F51" s="394"/>
+      <c r="G51" s="395"/>
       <c r="H51" s="12" t="s">
         <v>601</v>
       </c>
@@ -35235,18 +35201,18 @@
       <c r="J51" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K51" s="382"/>
-      <c r="L51" s="383"/>
-      <c r="M51" s="384"/>
+      <c r="K51" s="384"/>
+      <c r="L51" s="385"/>
+      <c r="M51" s="386"/>
     </row>
     <row r="52" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="112"/>
-      <c r="C52" s="391"/>
-      <c r="D52" s="392"/>
-      <c r="E52" s="392"/>
-      <c r="F52" s="392"/>
-      <c r="G52" s="393"/>
+      <c r="C52" s="393"/>
+      <c r="D52" s="394"/>
+      <c r="E52" s="394"/>
+      <c r="F52" s="394"/>
+      <c r="G52" s="395"/>
       <c r="H52" s="12" t="s">
         <v>601</v>
       </c>
@@ -35254,18 +35220,18 @@
       <c r="J52" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K52" s="382"/>
-      <c r="L52" s="383"/>
-      <c r="M52" s="384"/>
+      <c r="K52" s="384"/>
+      <c r="L52" s="385"/>
+      <c r="M52" s="386"/>
     </row>
     <row r="53" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="13"/>
       <c r="B53" s="112"/>
-      <c r="C53" s="388"/>
-      <c r="D53" s="389"/>
-      <c r="E53" s="389"/>
-      <c r="F53" s="389"/>
-      <c r="G53" s="390"/>
+      <c r="C53" s="390"/>
+      <c r="D53" s="391"/>
+      <c r="E53" s="391"/>
+      <c r="F53" s="391"/>
+      <c r="G53" s="392"/>
       <c r="H53" s="12" t="s">
         <v>601</v>
       </c>
@@ -35273,18 +35239,18 @@
       <c r="J53" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K53" s="382"/>
-      <c r="L53" s="383"/>
-      <c r="M53" s="384"/>
+      <c r="K53" s="384"/>
+      <c r="L53" s="385"/>
+      <c r="M53" s="386"/>
     </row>
     <row r="54" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="13"/>
       <c r="B54" s="323"/>
-      <c r="C54" s="391"/>
-      <c r="D54" s="392"/>
-      <c r="E54" s="392"/>
-      <c r="F54" s="392"/>
-      <c r="G54" s="393"/>
+      <c r="C54" s="393"/>
+      <c r="D54" s="394"/>
+      <c r="E54" s="394"/>
+      <c r="F54" s="394"/>
+      <c r="G54" s="395"/>
       <c r="H54" s="12" t="s">
         <v>601</v>
       </c>
@@ -35292,18 +35258,18 @@
       <c r="J54" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K54" s="382"/>
-      <c r="L54" s="383"/>
-      <c r="M54" s="384"/>
+      <c r="K54" s="384"/>
+      <c r="L54" s="385"/>
+      <c r="M54" s="386"/>
     </row>
     <row r="55" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="13"/>
       <c r="B55" s="323"/>
-      <c r="C55" s="391"/>
-      <c r="D55" s="392"/>
-      <c r="E55" s="392"/>
-      <c r="F55" s="392"/>
-      <c r="G55" s="393"/>
+      <c r="C55" s="393"/>
+      <c r="D55" s="394"/>
+      <c r="E55" s="394"/>
+      <c r="F55" s="394"/>
+      <c r="G55" s="395"/>
       <c r="H55" s="12" t="s">
         <v>601</v>
       </c>
@@ -35311,18 +35277,18 @@
       <c r="J55" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K55" s="382"/>
-      <c r="L55" s="383"/>
-      <c r="M55" s="384"/>
+      <c r="K55" s="384"/>
+      <c r="L55" s="385"/>
+      <c r="M55" s="386"/>
     </row>
     <row r="56" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A56" s="13"/>
       <c r="B56" s="323"/>
-      <c r="C56" s="391"/>
-      <c r="D56" s="392"/>
-      <c r="E56" s="392"/>
-      <c r="F56" s="392"/>
-      <c r="G56" s="393"/>
+      <c r="C56" s="393"/>
+      <c r="D56" s="394"/>
+      <c r="E56" s="394"/>
+      <c r="F56" s="394"/>
+      <c r="G56" s="395"/>
       <c r="H56" s="12" t="s">
         <v>601</v>
       </c>
@@ -35330,9 +35296,9 @@
       <c r="J56" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="K56" s="382"/>
-      <c r="L56" s="383"/>
-      <c r="M56" s="384"/>
+      <c r="K56" s="384"/>
+      <c r="L56" s="385"/>
+      <c r="M56" s="386"/>
     </row>
     <row r="57" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="13"/>
@@ -35380,18 +35346,18 @@
         <v>1</v>
       </c>
       <c r="C60" s="291"/>
-      <c r="D60" s="394" t="s">
+      <c r="D60" s="396" t="s">
         <v>652</v>
       </c>
-      <c r="E60" s="395"/>
-      <c r="F60" s="395"/>
-      <c r="G60" s="395"/>
-      <c r="H60" s="395"/>
-      <c r="I60" s="396"/>
-      <c r="J60" s="398"/>
-      <c r="K60" s="397"/>
-      <c r="L60" s="394"/>
-      <c r="M60" s="397"/>
+      <c r="E60" s="397"/>
+      <c r="F60" s="397"/>
+      <c r="G60" s="397"/>
+      <c r="H60" s="397"/>
+      <c r="I60" s="398"/>
+      <c r="J60" s="400"/>
+      <c r="K60" s="399"/>
+      <c r="L60" s="396"/>
+      <c r="M60" s="399"/>
     </row>
     <row r="61" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="13"/>
@@ -35399,22 +35365,22 @@
         <v>2</v>
       </c>
       <c r="C61" s="291"/>
-      <c r="D61" s="394" t="s">
+      <c r="D61" s="396" t="s">
         <v>653</v>
       </c>
-      <c r="E61" s="401"/>
-      <c r="F61" s="401"/>
-      <c r="G61" s="401"/>
-      <c r="H61" s="401"/>
-      <c r="I61" s="402"/>
-      <c r="J61" s="398" t="s">
+      <c r="E61" s="403"/>
+      <c r="F61" s="403"/>
+      <c r="G61" s="403"/>
+      <c r="H61" s="403"/>
+      <c r="I61" s="404"/>
+      <c r="J61" s="400" t="s">
         <v>611</v>
       </c>
-      <c r="K61" s="397"/>
-      <c r="L61" s="394" t="s">
+      <c r="K61" s="399"/>
+      <c r="L61" s="396" t="s">
         <v>612</v>
       </c>
-      <c r="M61" s="403"/>
+      <c r="M61" s="405"/>
     </row>
     <row r="62" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="13"/>
@@ -35422,18 +35388,18 @@
         <v>3</v>
       </c>
       <c r="C62" s="291"/>
-      <c r="D62" s="388" t="s">
+      <c r="D62" s="390" t="s">
         <v>654</v>
       </c>
-      <c r="E62" s="389"/>
-      <c r="F62" s="389"/>
-      <c r="G62" s="389"/>
-      <c r="H62" s="389"/>
-      <c r="I62" s="390"/>
-      <c r="J62" s="398"/>
-      <c r="K62" s="397"/>
-      <c r="L62" s="394"/>
-      <c r="M62" s="403"/>
+      <c r="E62" s="391"/>
+      <c r="F62" s="391"/>
+      <c r="G62" s="391"/>
+      <c r="H62" s="391"/>
+      <c r="I62" s="392"/>
+      <c r="J62" s="400"/>
+      <c r="K62" s="399"/>
+      <c r="L62" s="396"/>
+      <c r="M62" s="405"/>
     </row>
     <row r="63" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="13"/>
@@ -35441,18 +35407,18 @@
         <v>4</v>
       </c>
       <c r="C63" s="291"/>
-      <c r="D63" s="394" t="s">
+      <c r="D63" s="396" t="s">
         <v>655</v>
       </c>
-      <c r="E63" s="395"/>
-      <c r="F63" s="395"/>
-      <c r="G63" s="395"/>
-      <c r="H63" s="395"/>
-      <c r="I63" s="396"/>
-      <c r="J63" s="398"/>
-      <c r="K63" s="397"/>
-      <c r="L63" s="394"/>
-      <c r="M63" s="403"/>
+      <c r="E63" s="397"/>
+      <c r="F63" s="397"/>
+      <c r="G63" s="397"/>
+      <c r="H63" s="397"/>
+      <c r="I63" s="398"/>
+      <c r="J63" s="400"/>
+      <c r="K63" s="399"/>
+      <c r="L63" s="396"/>
+      <c r="M63" s="405"/>
     </row>
     <row r="64" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="13"/>
@@ -35460,14 +35426,14 @@
         <v>5</v>
       </c>
       <c r="C64" s="291"/>
-      <c r="D64" s="394" t="s">
+      <c r="D64" s="396" t="s">
         <v>656</v>
       </c>
-      <c r="E64" s="399"/>
-      <c r="F64" s="399"/>
-      <c r="G64" s="399"/>
-      <c r="H64" s="399"/>
-      <c r="I64" s="400"/>
+      <c r="E64" s="401"/>
+      <c r="F64" s="401"/>
+      <c r="G64" s="401"/>
+      <c r="H64" s="401"/>
+      <c r="I64" s="402"/>
       <c r="J64" s="105"/>
       <c r="K64" s="238"/>
       <c r="L64" s="203"/>
@@ -35479,18 +35445,18 @@
         <v>6</v>
       </c>
       <c r="C65" s="291"/>
-      <c r="D65" s="394" t="s">
+      <c r="D65" s="396" t="s">
         <v>657</v>
       </c>
-      <c r="E65" s="401"/>
-      <c r="F65" s="401"/>
-      <c r="G65" s="401"/>
-      <c r="H65" s="401"/>
-      <c r="I65" s="402"/>
+      <c r="E65" s="403"/>
+      <c r="F65" s="403"/>
+      <c r="G65" s="403"/>
+      <c r="H65" s="403"/>
+      <c r="I65" s="404"/>
       <c r="J65" s="105"/>
       <c r="K65" s="238"/>
-      <c r="L65" s="388"/>
-      <c r="M65" s="390"/>
+      <c r="L65" s="390"/>
+      <c r="M65" s="392"/>
     </row>
     <row r="66" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="13"/>
@@ -35498,22 +35464,22 @@
         <v>7</v>
       </c>
       <c r="C66" s="291"/>
-      <c r="D66" s="394" t="s">
+      <c r="D66" s="396" t="s">
         <v>659</v>
       </c>
-      <c r="E66" s="395"/>
-      <c r="F66" s="395"/>
-      <c r="G66" s="395"/>
-      <c r="H66" s="395"/>
-      <c r="I66" s="396"/>
-      <c r="J66" s="398" t="s">
+      <c r="E66" s="397"/>
+      <c r="F66" s="397"/>
+      <c r="G66" s="397"/>
+      <c r="H66" s="397"/>
+      <c r="I66" s="398"/>
+      <c r="J66" s="400" t="s">
         <v>613</v>
       </c>
-      <c r="K66" s="396"/>
-      <c r="L66" s="394" t="s">
+      <c r="K66" s="398"/>
+      <c r="L66" s="396" t="s">
         <v>614</v>
       </c>
-      <c r="M66" s="396"/>
+      <c r="M66" s="398"/>
     </row>
     <row r="67" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A67" s="13"/>
@@ -35521,18 +35487,18 @@
         <v>8</v>
       </c>
       <c r="C67" s="291"/>
-      <c r="D67" s="394" t="s">
+      <c r="D67" s="396" t="s">
         <v>650</v>
       </c>
-      <c r="E67" s="401"/>
-      <c r="F67" s="401"/>
-      <c r="G67" s="401"/>
-      <c r="H67" s="401"/>
-      <c r="I67" s="402"/>
-      <c r="J67" s="398"/>
-      <c r="K67" s="400"/>
-      <c r="L67" s="394"/>
-      <c r="M67" s="403"/>
+      <c r="E67" s="403"/>
+      <c r="F67" s="403"/>
+      <c r="G67" s="403"/>
+      <c r="H67" s="403"/>
+      <c r="I67" s="404"/>
+      <c r="J67" s="400"/>
+      <c r="K67" s="402"/>
+      <c r="L67" s="396"/>
+      <c r="M67" s="405"/>
     </row>
     <row r="68" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A68" s="13"/>
@@ -35540,29 +35506,29 @@
         <v>9</v>
       </c>
       <c r="C68" s="291"/>
-      <c r="D68" s="394" t="s">
+      <c r="D68" s="396" t="s">
         <v>661</v>
       </c>
-      <c r="E68" s="401"/>
-      <c r="F68" s="401"/>
-      <c r="G68" s="401"/>
-      <c r="H68" s="401"/>
-      <c r="I68" s="402"/>
-      <c r="J68" s="398"/>
-      <c r="K68" s="400"/>
-      <c r="L68" s="398"/>
-      <c r="M68" s="400"/>
+      <c r="E68" s="403"/>
+      <c r="F68" s="403"/>
+      <c r="G68" s="403"/>
+      <c r="H68" s="403"/>
+      <c r="I68" s="404"/>
+      <c r="J68" s="400"/>
+      <c r="K68" s="402"/>
+      <c r="L68" s="400"/>
+      <c r="M68" s="402"/>
     </row>
     <row r="69" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A69" s="13"/>
       <c r="B69" s="112"/>
       <c r="C69" s="291"/>
-      <c r="D69" s="388"/>
-      <c r="E69" s="389"/>
-      <c r="F69" s="389"/>
-      <c r="G69" s="389"/>
-      <c r="H69" s="389"/>
-      <c r="I69" s="390"/>
+      <c r="D69" s="390"/>
+      <c r="E69" s="391"/>
+      <c r="F69" s="391"/>
+      <c r="G69" s="391"/>
+      <c r="H69" s="391"/>
+      <c r="I69" s="392"/>
       <c r="J69" s="105"/>
       <c r="K69" s="202"/>
       <c r="L69" s="105"/>
@@ -35572,12 +35538,12 @@
       <c r="A70" s="13"/>
       <c r="B70" s="112"/>
       <c r="C70" s="291"/>
-      <c r="D70" s="388"/>
-      <c r="E70" s="389"/>
-      <c r="F70" s="389"/>
-      <c r="G70" s="389"/>
-      <c r="H70" s="389"/>
-      <c r="I70" s="390"/>
+      <c r="D70" s="390"/>
+      <c r="E70" s="391"/>
+      <c r="F70" s="391"/>
+      <c r="G70" s="391"/>
+      <c r="H70" s="391"/>
+      <c r="I70" s="392"/>
       <c r="J70" s="105"/>
       <c r="K70" s="202"/>
       <c r="L70" s="105"/>
@@ -35587,16 +35553,16 @@
       <c r="A71" s="13"/>
       <c r="B71" s="112"/>
       <c r="C71" s="324"/>
-      <c r="D71" s="394"/>
-      <c r="E71" s="399"/>
-      <c r="F71" s="399"/>
-      <c r="G71" s="399"/>
-      <c r="H71" s="399"/>
-      <c r="I71" s="400"/>
-      <c r="J71" s="398"/>
-      <c r="K71" s="397"/>
-      <c r="L71" s="394"/>
-      <c r="M71" s="402"/>
+      <c r="D71" s="396"/>
+      <c r="E71" s="401"/>
+      <c r="F71" s="401"/>
+      <c r="G71" s="401"/>
+      <c r="H71" s="401"/>
+      <c r="I71" s="402"/>
+      <c r="J71" s="400"/>
+      <c r="K71" s="399"/>
+      <c r="L71" s="396"/>
+      <c r="M71" s="404"/>
     </row>
     <row r="72" spans="1:15" s="220" customFormat="1" ht="17.100000000000001" customHeight="1"/>
     <row r="73" spans="1:15" ht="17.100000000000001" customHeight="1">
@@ -35636,13 +35602,13 @@
     <row r="75" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A75" s="13"/>
       <c r="B75" s="78"/>
-      <c r="C75" s="391"/>
-      <c r="D75" s="392"/>
-      <c r="E75" s="392"/>
-      <c r="F75" s="392"/>
-      <c r="G75" s="392"/>
-      <c r="H75" s="392"/>
-      <c r="I75" s="393"/>
+      <c r="C75" s="393"/>
+      <c r="D75" s="394"/>
+      <c r="E75" s="394"/>
+      <c r="F75" s="394"/>
+      <c r="G75" s="394"/>
+      <c r="H75" s="394"/>
+      <c r="I75" s="395"/>
       <c r="J75" s="78"/>
       <c r="K75" s="112"/>
       <c r="L75" s="112"/>
@@ -35655,13 +35621,13 @@
         <v>621</v>
       </c>
       <c r="B76" s="78"/>
-      <c r="C76" s="391"/>
-      <c r="D76" s="392"/>
-      <c r="E76" s="392"/>
-      <c r="F76" s="392"/>
-      <c r="G76" s="392"/>
-      <c r="H76" s="392"/>
-      <c r="I76" s="393"/>
+      <c r="C76" s="393"/>
+      <c r="D76" s="394"/>
+      <c r="E76" s="394"/>
+      <c r="F76" s="394"/>
+      <c r="G76" s="394"/>
+      <c r="H76" s="394"/>
+      <c r="I76" s="395"/>
       <c r="J76" s="78"/>
       <c r="K76" s="112"/>
       <c r="L76" s="112"/>
@@ -35672,13 +35638,13 @@
     <row r="77" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A77" s="13"/>
       <c r="B77" s="78"/>
-      <c r="C77" s="388"/>
-      <c r="D77" s="392"/>
-      <c r="E77" s="392"/>
-      <c r="F77" s="392"/>
-      <c r="G77" s="392"/>
-      <c r="H77" s="392"/>
-      <c r="I77" s="393"/>
+      <c r="C77" s="390"/>
+      <c r="D77" s="394"/>
+      <c r="E77" s="394"/>
+      <c r="F77" s="394"/>
+      <c r="G77" s="394"/>
+      <c r="H77" s="394"/>
+      <c r="I77" s="395"/>
       <c r="J77" s="78"/>
       <c r="K77" s="112"/>
       <c r="L77" s="112"/>
@@ -35842,13 +35808,13 @@
     <row r="87" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A87" s="13"/>
       <c r="B87" s="78"/>
-      <c r="C87" s="391"/>
-      <c r="D87" s="392"/>
-      <c r="E87" s="392"/>
-      <c r="F87" s="392"/>
-      <c r="G87" s="392"/>
-      <c r="H87" s="392"/>
-      <c r="I87" s="393"/>
+      <c r="C87" s="393"/>
+      <c r="D87" s="394"/>
+      <c r="E87" s="394"/>
+      <c r="F87" s="394"/>
+      <c r="G87" s="394"/>
+      <c r="H87" s="394"/>
+      <c r="I87" s="395"/>
       <c r="J87" s="78"/>
       <c r="K87" s="112"/>
       <c r="L87" s="112"/>
@@ -35859,13 +35825,13 @@
     <row r="88" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A88" s="13"/>
       <c r="B88" s="78"/>
-      <c r="C88" s="391"/>
-      <c r="D88" s="392"/>
-      <c r="E88" s="392"/>
-      <c r="F88" s="392"/>
-      <c r="G88" s="392"/>
-      <c r="H88" s="392"/>
-      <c r="I88" s="393"/>
+      <c r="C88" s="393"/>
+      <c r="D88" s="394"/>
+      <c r="E88" s="394"/>
+      <c r="F88" s="394"/>
+      <c r="G88" s="394"/>
+      <c r="H88" s="394"/>
+      <c r="I88" s="395"/>
       <c r="J88" s="78"/>
       <c r="K88" s="112"/>
       <c r="L88" s="112"/>
@@ -36408,7 +36374,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="376" t="s">
+      <c r="A1" s="378" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
@@ -36419,7 +36385,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="377"/>
+      <c r="A2" s="379"/>
       <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
@@ -36430,18 +36396,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="377"/>
+      <c r="A3" s="379"/>
       <c r="G3" s="113"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="377"/>
+      <c r="A4" s="379"/>
       <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="113"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="378"/>
+      <c r="A5" s="380"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -36456,10 +36422,10 @@
       <c r="B6" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="408" t="s">
+      <c r="C6" s="410" t="s">
         <v>812</v>
       </c>
-      <c r="D6" s="409"/>
+      <c r="D6" s="411"/>
       <c r="E6" s="180" t="s">
         <v>811</v>
       </c>
@@ -36512,13 +36478,13 @@
     <row r="9" spans="1:16" ht="16.5" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="115"/>
-      <c r="C9" s="410" t="s">
+      <c r="C9" s="412" t="s">
         <v>813</v>
       </c>
-      <c r="D9" s="410"/>
-      <c r="E9" s="410"/>
-      <c r="F9" s="410"/>
-      <c r="G9" s="410"/>
+      <c r="D9" s="412"/>
+      <c r="E9" s="412"/>
+      <c r="F9" s="412"/>
+      <c r="G9" s="412"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -36605,8 +36571,8 @@
       <c r="B15" s="115"/>
       <c r="C15" s="341"/>
       <c r="D15" s="341"/>
-      <c r="E15" s="405"/>
-      <c r="F15" s="405"/>
+      <c r="E15" s="407"/>
+      <c r="F15" s="407"/>
       <c r="G15" s="341"/>
       <c r="H15" s="367"/>
       <c r="I15" s="367"/>
@@ -36621,8 +36587,8 @@
       <c r="B16" s="115"/>
       <c r="C16" s="192"/>
       <c r="D16" s="341"/>
-      <c r="E16" s="404"/>
-      <c r="F16" s="404"/>
+      <c r="E16" s="406"/>
+      <c r="F16" s="406"/>
       <c r="G16" s="193"/>
       <c r="H16" s="193"/>
       <c r="I16" s="194"/>
@@ -36639,8 +36605,8 @@
       <c r="B17" s="115"/>
       <c r="C17" s="192"/>
       <c r="D17" s="341"/>
-      <c r="E17" s="404"/>
-      <c r="F17" s="404"/>
+      <c r="E17" s="406"/>
+      <c r="F17" s="406"/>
       <c r="G17" s="193"/>
       <c r="H17" s="193"/>
       <c r="I17" s="194"/>
@@ -36659,8 +36625,8 @@
       <c r="D18" s="371">
         <v>3</v>
       </c>
-      <c r="E18" s="404"/>
-      <c r="F18" s="404"/>
+      <c r="E18" s="406"/>
+      <c r="F18" s="406"/>
       <c r="G18" s="193"/>
       <c r="H18" s="193"/>
       <c r="I18" s="194"/>
@@ -36677,8 +36643,8 @@
       <c r="B19" s="115"/>
       <c r="C19" s="193"/>
       <c r="D19" s="193"/>
-      <c r="E19" s="405"/>
-      <c r="F19" s="404"/>
+      <c r="E19" s="407"/>
+      <c r="F19" s="406"/>
       <c r="G19" s="193"/>
       <c r="H19" s="193"/>
       <c r="I19" s="194"/>
@@ -36934,17 +36900,17 @@
       <c r="B35" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="406"/>
-      <c r="D35" s="407"/>
-      <c r="E35" s="407"/>
-      <c r="F35" s="407"/>
-      <c r="G35" s="407"/>
-      <c r="H35" s="407"/>
-      <c r="I35" s="407"/>
-      <c r="J35" s="407"/>
-      <c r="K35" s="407"/>
-      <c r="L35" s="407"/>
-      <c r="M35" s="407"/>
+      <c r="C35" s="408"/>
+      <c r="D35" s="409"/>
+      <c r="E35" s="409"/>
+      <c r="F35" s="409"/>
+      <c r="G35" s="409"/>
+      <c r="H35" s="409"/>
+      <c r="I35" s="409"/>
+      <c r="J35" s="409"/>
+      <c r="K35" s="409"/>
+      <c r="L35" s="409"/>
+      <c r="M35" s="409"/>
     </row>
     <row r="36" spans="1:13" ht="16.5" customHeight="1">
       <c r="A36" s="13"/>
@@ -37240,18 +37206,18 @@
       <c r="C53" s="335" t="s">
         <v>820</v>
       </c>
-      <c r="D53" s="394" t="s">
+      <c r="D53" s="396" t="s">
         <v>821</v>
       </c>
-      <c r="E53" s="395"/>
-      <c r="F53" s="395"/>
-      <c r="G53" s="395"/>
-      <c r="H53" s="395"/>
-      <c r="I53" s="396"/>
-      <c r="J53" s="398"/>
-      <c r="K53" s="397"/>
-      <c r="L53" s="394"/>
-      <c r="M53" s="397"/>
+      <c r="E53" s="397"/>
+      <c r="F53" s="397"/>
+      <c r="G53" s="397"/>
+      <c r="H53" s="397"/>
+      <c r="I53" s="398"/>
+      <c r="J53" s="400"/>
+      <c r="K53" s="399"/>
+      <c r="L53" s="396"/>
+      <c r="M53" s="399"/>
     </row>
     <row r="54" spans="1:15" ht="24.95" customHeight="1">
       <c r="A54" s="13"/>
@@ -37261,16 +37227,16 @@
       <c r="C54" s="335" t="s">
         <v>822</v>
       </c>
-      <c r="D54" s="394" t="s">
+      <c r="D54" s="396" t="s">
         <v>654</v>
       </c>
-      <c r="E54" s="401"/>
-      <c r="F54" s="401"/>
-      <c r="G54" s="401"/>
-      <c r="H54" s="401"/>
-      <c r="I54" s="402"/>
-      <c r="J54" s="382"/>
-      <c r="K54" s="384"/>
+      <c r="E54" s="403"/>
+      <c r="F54" s="403"/>
+      <c r="G54" s="403"/>
+      <c r="H54" s="403"/>
+      <c r="I54" s="404"/>
+      <c r="J54" s="384"/>
+      <c r="K54" s="386"/>
       <c r="L54" s="335"/>
       <c r="M54" s="340"/>
     </row>
@@ -37282,44 +37248,44 @@
       <c r="C55" s="335" t="s">
         <v>823</v>
       </c>
-      <c r="D55" s="388" t="s">
+      <c r="D55" s="390" t="s">
         <v>824</v>
       </c>
-      <c r="E55" s="389"/>
-      <c r="F55" s="389"/>
-      <c r="G55" s="389"/>
-      <c r="H55" s="389"/>
-      <c r="I55" s="390"/>
-      <c r="J55" s="398"/>
-      <c r="K55" s="397"/>
-      <c r="L55" s="394"/>
-      <c r="M55" s="403"/>
+      <c r="E55" s="391"/>
+      <c r="F55" s="391"/>
+      <c r="G55" s="391"/>
+      <c r="H55" s="391"/>
+      <c r="I55" s="392"/>
+      <c r="J55" s="400"/>
+      <c r="K55" s="399"/>
+      <c r="L55" s="396"/>
+      <c r="M55" s="405"/>
     </row>
     <row r="56" spans="1:15" ht="77.25" customHeight="1">
       <c r="A56" s="13"/>
       <c r="B56" s="112"/>
       <c r="C56" s="335"/>
-      <c r="D56" s="394"/>
-      <c r="E56" s="395"/>
-      <c r="F56" s="395"/>
-      <c r="G56" s="395"/>
-      <c r="H56" s="395"/>
-      <c r="I56" s="396"/>
-      <c r="J56" s="398"/>
-      <c r="K56" s="397"/>
-      <c r="L56" s="394"/>
-      <c r="M56" s="403"/>
+      <c r="D56" s="396"/>
+      <c r="E56" s="397"/>
+      <c r="F56" s="397"/>
+      <c r="G56" s="397"/>
+      <c r="H56" s="397"/>
+      <c r="I56" s="398"/>
+      <c r="J56" s="400"/>
+      <c r="K56" s="399"/>
+      <c r="L56" s="396"/>
+      <c r="M56" s="405"/>
     </row>
     <row r="57" spans="1:15" ht="27" customHeight="1">
       <c r="A57" s="13"/>
       <c r="B57" s="112"/>
       <c r="C57" s="335"/>
-      <c r="D57" s="394"/>
-      <c r="E57" s="399"/>
-      <c r="F57" s="399"/>
-      <c r="G57" s="399"/>
-      <c r="H57" s="399"/>
-      <c r="I57" s="400"/>
+      <c r="D57" s="396"/>
+      <c r="E57" s="401"/>
+      <c r="F57" s="401"/>
+      <c r="G57" s="401"/>
+      <c r="H57" s="401"/>
+      <c r="I57" s="402"/>
       <c r="J57" s="335"/>
       <c r="K57" s="336"/>
       <c r="L57" s="337"/>
@@ -37329,27 +37295,27 @@
       <c r="A58" s="13"/>
       <c r="B58" s="112"/>
       <c r="C58" s="335"/>
-      <c r="D58" s="394"/>
-      <c r="E58" s="401"/>
-      <c r="F58" s="401"/>
-      <c r="G58" s="401"/>
-      <c r="H58" s="401"/>
-      <c r="I58" s="402"/>
-      <c r="J58" s="398"/>
-      <c r="K58" s="400"/>
-      <c r="L58" s="398"/>
-      <c r="M58" s="400"/>
+      <c r="D58" s="396"/>
+      <c r="E58" s="403"/>
+      <c r="F58" s="403"/>
+      <c r="G58" s="403"/>
+      <c r="H58" s="403"/>
+      <c r="I58" s="404"/>
+      <c r="J58" s="400"/>
+      <c r="K58" s="402"/>
+      <c r="L58" s="400"/>
+      <c r="M58" s="402"/>
     </row>
     <row r="59" spans="1:15" ht="27" customHeight="1">
       <c r="A59" s="13"/>
       <c r="B59" s="112"/>
       <c r="C59" s="335"/>
-      <c r="D59" s="388"/>
-      <c r="E59" s="389"/>
-      <c r="F59" s="389"/>
-      <c r="G59" s="389"/>
-      <c r="H59" s="389"/>
-      <c r="I59" s="390"/>
+      <c r="D59" s="390"/>
+      <c r="E59" s="391"/>
+      <c r="F59" s="391"/>
+      <c r="G59" s="391"/>
+      <c r="H59" s="391"/>
+      <c r="I59" s="392"/>
       <c r="J59" s="335"/>
       <c r="K59" s="340"/>
       <c r="L59" s="335"/>
@@ -37359,12 +37325,12 @@
       <c r="A60" s="13"/>
       <c r="B60" s="112"/>
       <c r="C60" s="335"/>
-      <c r="D60" s="388"/>
-      <c r="E60" s="389"/>
-      <c r="F60" s="389"/>
-      <c r="G60" s="389"/>
-      <c r="H60" s="389"/>
-      <c r="I60" s="390"/>
+      <c r="D60" s="390"/>
+      <c r="E60" s="391"/>
+      <c r="F60" s="391"/>
+      <c r="G60" s="391"/>
+      <c r="H60" s="391"/>
+      <c r="I60" s="392"/>
       <c r="J60" s="335"/>
       <c r="K60" s="340"/>
       <c r="L60" s="335"/>
@@ -37374,16 +37340,16 @@
       <c r="A61" s="13"/>
       <c r="B61" s="112"/>
       <c r="C61" s="337"/>
-      <c r="D61" s="394"/>
-      <c r="E61" s="399"/>
-      <c r="F61" s="399"/>
-      <c r="G61" s="399"/>
-      <c r="H61" s="399"/>
-      <c r="I61" s="400"/>
-      <c r="J61" s="398"/>
-      <c r="K61" s="397"/>
-      <c r="L61" s="394"/>
-      <c r="M61" s="402"/>
+      <c r="D61" s="396"/>
+      <c r="E61" s="401"/>
+      <c r="F61" s="401"/>
+      <c r="G61" s="401"/>
+      <c r="H61" s="401"/>
+      <c r="I61" s="402"/>
+      <c r="J61" s="400"/>
+      <c r="K61" s="399"/>
+      <c r="L61" s="396"/>
+      <c r="M61" s="404"/>
     </row>
     <row r="62" spans="1:15" s="220" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="63" spans="1:15" ht="16.5" customHeight="1">
@@ -37629,13 +37595,13 @@
     <row r="77" spans="1:15" ht="16.5" customHeight="1">
       <c r="A77" s="13"/>
       <c r="B77" s="78"/>
-      <c r="C77" s="391"/>
-      <c r="D77" s="392"/>
-      <c r="E77" s="392"/>
-      <c r="F77" s="392"/>
-      <c r="G77" s="392"/>
-      <c r="H77" s="392"/>
-      <c r="I77" s="393"/>
+      <c r="C77" s="393"/>
+      <c r="D77" s="394"/>
+      <c r="E77" s="394"/>
+      <c r="F77" s="394"/>
+      <c r="G77" s="394"/>
+      <c r="H77" s="394"/>
+      <c r="I77" s="395"/>
       <c r="J77" s="78"/>
       <c r="K77" s="112"/>
       <c r="L77" s="112"/>
@@ -37646,13 +37612,13 @@
     <row r="78" spans="1:15" ht="16.5" customHeight="1">
       <c r="A78" s="13"/>
       <c r="B78" s="78"/>
-      <c r="C78" s="391"/>
-      <c r="D78" s="392"/>
-      <c r="E78" s="392"/>
-      <c r="F78" s="392"/>
-      <c r="G78" s="392"/>
-      <c r="H78" s="392"/>
-      <c r="I78" s="393"/>
+      <c r="C78" s="393"/>
+      <c r="D78" s="394"/>
+      <c r="E78" s="394"/>
+      <c r="F78" s="394"/>
+      <c r="G78" s="394"/>
+      <c r="H78" s="394"/>
+      <c r="I78" s="395"/>
       <c r="J78" s="78"/>
       <c r="K78" s="112"/>
       <c r="L78" s="112"/>
@@ -38155,7 +38121,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="376" t="s">
+      <c r="A1" s="378" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
@@ -38166,7 +38132,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="377"/>
+      <c r="A2" s="379"/>
       <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
@@ -38177,18 +38143,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="377"/>
+      <c r="A3" s="379"/>
       <c r="G3" s="113"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="377"/>
+      <c r="A4" s="379"/>
       <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="113"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="378"/>
+      <c r="A5" s="380"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -38203,10 +38169,10 @@
       <c r="B6" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="408" t="s">
+      <c r="C6" s="410" t="s">
         <v>846</v>
       </c>
-      <c r="D6" s="409"/>
+      <c r="D6" s="411"/>
       <c r="E6" s="180" t="s">
         <v>845</v>
       </c>
@@ -38259,11 +38225,11 @@
     <row r="9" spans="1:16" ht="16.5" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="115"/>
-      <c r="C9" s="410"/>
-      <c r="D9" s="410"/>
-      <c r="E9" s="410"/>
-      <c r="F9" s="410"/>
-      <c r="G9" s="410"/>
+      <c r="C9" s="412"/>
+      <c r="D9" s="412"/>
+      <c r="E9" s="412"/>
+      <c r="F9" s="412"/>
+      <c r="G9" s="412"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -38352,8 +38318,8 @@
       <c r="B15" s="115"/>
       <c r="C15" s="341"/>
       <c r="D15" s="341"/>
-      <c r="E15" s="405"/>
-      <c r="F15" s="405"/>
+      <c r="E15" s="407"/>
+      <c r="F15" s="407"/>
       <c r="G15" s="341"/>
       <c r="H15" s="367"/>
       <c r="I15" s="367"/>
@@ -38368,8 +38334,8 @@
       <c r="B16" s="115"/>
       <c r="C16" s="192"/>
       <c r="D16" s="341"/>
-      <c r="E16" s="404"/>
-      <c r="F16" s="404"/>
+      <c r="E16" s="406"/>
+      <c r="F16" s="406"/>
       <c r="G16" s="193"/>
       <c r="H16" s="193"/>
       <c r="I16" s="194"/>
@@ -38386,8 +38352,8 @@
       <c r="B17" s="115"/>
       <c r="C17" s="192"/>
       <c r="D17" s="341"/>
-      <c r="E17" s="404"/>
-      <c r="F17" s="404"/>
+      <c r="E17" s="406"/>
+      <c r="F17" s="406"/>
       <c r="G17" s="193"/>
       <c r="H17" s="193"/>
       <c r="I17" s="194"/>
@@ -38404,8 +38370,8 @@
       <c r="B18" s="115"/>
       <c r="C18" s="192"/>
       <c r="D18" s="341"/>
-      <c r="E18" s="404"/>
-      <c r="F18" s="404"/>
+      <c r="E18" s="406"/>
+      <c r="F18" s="406"/>
       <c r="G18" s="193"/>
       <c r="H18" s="193"/>
       <c r="I18" s="194"/>
@@ -38422,8 +38388,8 @@
       <c r="B19" s="115"/>
       <c r="C19" s="193"/>
       <c r="D19" s="193"/>
-      <c r="E19" s="405"/>
-      <c r="F19" s="404"/>
+      <c r="E19" s="407"/>
+      <c r="F19" s="406"/>
       <c r="G19" s="193"/>
       <c r="H19" s="193"/>
       <c r="I19" s="194"/>
@@ -38440,10 +38406,10 @@
       </c>
       <c r="C20" s="188"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="411" t="s">
+      <c r="E20" s="413" t="s">
         <v>827</v>
       </c>
-      <c r="F20" s="411"/>
+      <c r="F20" s="413"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
@@ -38684,10 +38650,10 @@
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
-      <c r="E36" s="411" t="s">
+      <c r="E36" s="413" t="s">
         <v>829</v>
       </c>
-      <c r="F36" s="411"/>
+      <c r="F36" s="413"/>
       <c r="G36" s="16"/>
       <c r="H36" s="34"/>
       <c r="I36" s="16"/>
@@ -39725,17 +39691,17 @@
       <c r="B103" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="C103" s="406"/>
-      <c r="D103" s="407"/>
-      <c r="E103" s="407"/>
-      <c r="F103" s="407"/>
-      <c r="G103" s="407"/>
-      <c r="H103" s="407"/>
-      <c r="I103" s="407"/>
-      <c r="J103" s="407"/>
-      <c r="K103" s="407"/>
-      <c r="L103" s="407"/>
-      <c r="M103" s="407"/>
+      <c r="C103" s="408"/>
+      <c r="D103" s="409"/>
+      <c r="E103" s="409"/>
+      <c r="F103" s="409"/>
+      <c r="G103" s="409"/>
+      <c r="H103" s="409"/>
+      <c r="I103" s="409"/>
+      <c r="J103" s="409"/>
+      <c r="K103" s="409"/>
+      <c r="L103" s="409"/>
+      <c r="M103" s="409"/>
     </row>
     <row r="104" spans="1:15" ht="16.5" customHeight="1">
       <c r="A104" s="13"/>
@@ -40093,31 +40059,31 @@
       <c r="C125" s="343" t="s">
         <v>840</v>
       </c>
-      <c r="D125" s="394" t="s">
+      <c r="D125" s="396" t="s">
         <v>841</v>
       </c>
-      <c r="E125" s="395"/>
-      <c r="F125" s="395"/>
-      <c r="G125" s="395"/>
-      <c r="H125" s="395"/>
-      <c r="I125" s="396"/>
-      <c r="J125" s="398"/>
-      <c r="K125" s="397"/>
-      <c r="L125" s="394"/>
-      <c r="M125" s="397"/>
+      <c r="E125" s="397"/>
+      <c r="F125" s="397"/>
+      <c r="G125" s="397"/>
+      <c r="H125" s="397"/>
+      <c r="I125" s="398"/>
+      <c r="J125" s="400"/>
+      <c r="K125" s="399"/>
+      <c r="L125" s="396"/>
+      <c r="M125" s="399"/>
     </row>
     <row r="126" spans="1:13" ht="24.95" customHeight="1">
       <c r="A126" s="13"/>
       <c r="B126" s="112"/>
       <c r="C126" s="335"/>
-      <c r="D126" s="394"/>
-      <c r="E126" s="401"/>
-      <c r="F126" s="401"/>
-      <c r="G126" s="401"/>
-      <c r="H126" s="401"/>
-      <c r="I126" s="402"/>
-      <c r="J126" s="382"/>
-      <c r="K126" s="384"/>
+      <c r="D126" s="396"/>
+      <c r="E126" s="403"/>
+      <c r="F126" s="403"/>
+      <c r="G126" s="403"/>
+      <c r="H126" s="403"/>
+      <c r="I126" s="404"/>
+      <c r="J126" s="384"/>
+      <c r="K126" s="386"/>
       <c r="L126" s="335"/>
       <c r="M126" s="340"/>
     </row>
@@ -40125,42 +40091,42 @@
       <c r="A127" s="13"/>
       <c r="B127" s="112"/>
       <c r="C127" s="335"/>
-      <c r="D127" s="388"/>
-      <c r="E127" s="389"/>
-      <c r="F127" s="389"/>
-      <c r="G127" s="389"/>
-      <c r="H127" s="389"/>
-      <c r="I127" s="390"/>
-      <c r="J127" s="398"/>
-      <c r="K127" s="397"/>
-      <c r="L127" s="394"/>
-      <c r="M127" s="403"/>
+      <c r="D127" s="390"/>
+      <c r="E127" s="391"/>
+      <c r="F127" s="391"/>
+      <c r="G127" s="391"/>
+      <c r="H127" s="391"/>
+      <c r="I127" s="392"/>
+      <c r="J127" s="400"/>
+      <c r="K127" s="399"/>
+      <c r="L127" s="396"/>
+      <c r="M127" s="405"/>
     </row>
     <row r="128" spans="1:13" ht="77.25" customHeight="1">
       <c r="A128" s="13"/>
       <c r="B128" s="112"/>
       <c r="C128" s="335"/>
-      <c r="D128" s="394"/>
-      <c r="E128" s="395"/>
-      <c r="F128" s="395"/>
-      <c r="G128" s="395"/>
-      <c r="H128" s="395"/>
-      <c r="I128" s="396"/>
-      <c r="J128" s="398"/>
-      <c r="K128" s="397"/>
-      <c r="L128" s="394"/>
-      <c r="M128" s="403"/>
+      <c r="D128" s="396"/>
+      <c r="E128" s="397"/>
+      <c r="F128" s="397"/>
+      <c r="G128" s="397"/>
+      <c r="H128" s="397"/>
+      <c r="I128" s="398"/>
+      <c r="J128" s="400"/>
+      <c r="K128" s="399"/>
+      <c r="L128" s="396"/>
+      <c r="M128" s="405"/>
     </row>
     <row r="129" spans="1:15" ht="27" customHeight="1">
       <c r="A129" s="13"/>
       <c r="B129" s="112"/>
       <c r="C129" s="335"/>
-      <c r="D129" s="394"/>
-      <c r="E129" s="399"/>
-      <c r="F129" s="399"/>
-      <c r="G129" s="399"/>
-      <c r="H129" s="399"/>
-      <c r="I129" s="400"/>
+      <c r="D129" s="396"/>
+      <c r="E129" s="401"/>
+      <c r="F129" s="401"/>
+      <c r="G129" s="401"/>
+      <c r="H129" s="401"/>
+      <c r="I129" s="402"/>
       <c r="J129" s="335"/>
       <c r="K129" s="336"/>
       <c r="L129" s="337"/>
@@ -40170,27 +40136,27 @@
       <c r="A130" s="13"/>
       <c r="B130" s="112"/>
       <c r="C130" s="335"/>
-      <c r="D130" s="394"/>
-      <c r="E130" s="401"/>
-      <c r="F130" s="401"/>
-      <c r="G130" s="401"/>
-      <c r="H130" s="401"/>
-      <c r="I130" s="402"/>
+      <c r="D130" s="396"/>
+      <c r="E130" s="403"/>
+      <c r="F130" s="403"/>
+      <c r="G130" s="403"/>
+      <c r="H130" s="403"/>
+      <c r="I130" s="404"/>
       <c r="J130" s="335"/>
       <c r="K130" s="336"/>
-      <c r="L130" s="388"/>
-      <c r="M130" s="390"/>
+      <c r="L130" s="390"/>
+      <c r="M130" s="392"/>
     </row>
     <row r="131" spans="1:15" ht="27" customHeight="1">
       <c r="A131" s="13"/>
       <c r="B131" s="112"/>
       <c r="C131" s="335"/>
-      <c r="D131" s="388"/>
-      <c r="E131" s="389"/>
-      <c r="F131" s="389"/>
-      <c r="G131" s="389"/>
-      <c r="H131" s="389"/>
-      <c r="I131" s="390"/>
+      <c r="D131" s="390"/>
+      <c r="E131" s="391"/>
+      <c r="F131" s="391"/>
+      <c r="G131" s="391"/>
+      <c r="H131" s="391"/>
+      <c r="I131" s="392"/>
       <c r="J131" s="335"/>
       <c r="K131" s="340"/>
       <c r="L131" s="335"/>
@@ -40200,12 +40166,12 @@
       <c r="A132" s="13"/>
       <c r="B132" s="112"/>
       <c r="C132" s="335"/>
-      <c r="D132" s="388"/>
-      <c r="E132" s="389"/>
-      <c r="F132" s="389"/>
-      <c r="G132" s="389"/>
-      <c r="H132" s="389"/>
-      <c r="I132" s="390"/>
+      <c r="D132" s="390"/>
+      <c r="E132" s="391"/>
+      <c r="F132" s="391"/>
+      <c r="G132" s="391"/>
+      <c r="H132" s="391"/>
+      <c r="I132" s="392"/>
       <c r="J132" s="335"/>
       <c r="K132" s="340"/>
       <c r="L132" s="335"/>
@@ -40215,16 +40181,16 @@
       <c r="A133" s="13"/>
       <c r="B133" s="112"/>
       <c r="C133" s="337"/>
-      <c r="D133" s="394"/>
-      <c r="E133" s="399"/>
-      <c r="F133" s="399"/>
-      <c r="G133" s="399"/>
-      <c r="H133" s="399"/>
-      <c r="I133" s="400"/>
-      <c r="J133" s="398"/>
-      <c r="K133" s="397"/>
-      <c r="L133" s="394"/>
-      <c r="M133" s="402"/>
+      <c r="D133" s="396"/>
+      <c r="E133" s="401"/>
+      <c r="F133" s="401"/>
+      <c r="G133" s="401"/>
+      <c r="H133" s="401"/>
+      <c r="I133" s="402"/>
+      <c r="J133" s="400"/>
+      <c r="K133" s="399"/>
+      <c r="L133" s="396"/>
+      <c r="M133" s="404"/>
     </row>
     <row r="134" spans="1:15" s="220" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="135" spans="1:15" ht="16.5" customHeight="1">
@@ -40865,7 +40831,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="376" t="s">
+      <c r="A1" s="378" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
@@ -40876,7 +40842,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="377"/>
+      <c r="A2" s="379"/>
       <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
@@ -40887,18 +40853,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="377"/>
+      <c r="A3" s="379"/>
       <c r="G3" s="113"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="377"/>
+      <c r="A4" s="379"/>
       <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="113"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="378"/>
+      <c r="A5" s="380"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -40913,10 +40879,10 @@
       <c r="B6" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="408" t="s">
+      <c r="C6" s="410" t="s">
         <v>750</v>
       </c>
-      <c r="D6" s="409"/>
+      <c r="D6" s="411"/>
       <c r="E6" s="180" t="s">
         <v>844</v>
       </c>
@@ -40969,11 +40935,11 @@
     <row r="9" spans="1:16" ht="16.5" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="115"/>
-      <c r="C9" s="410"/>
-      <c r="D9" s="410"/>
-      <c r="E9" s="410"/>
-      <c r="F9" s="410"/>
-      <c r="G9" s="410"/>
+      <c r="C9" s="412"/>
+      <c r="D9" s="412"/>
+      <c r="E9" s="412"/>
+      <c r="F9" s="412"/>
+      <c r="G9" s="412"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -41060,8 +41026,8 @@
       <c r="B15" s="115"/>
       <c r="C15" s="341"/>
       <c r="D15" s="341"/>
-      <c r="E15" s="405"/>
-      <c r="F15" s="405"/>
+      <c r="E15" s="407"/>
+      <c r="F15" s="407"/>
       <c r="G15" s="341"/>
       <c r="H15" s="367"/>
       <c r="I15" s="367"/>
@@ -41076,8 +41042,8 @@
       <c r="B16" s="115"/>
       <c r="C16" s="192"/>
       <c r="D16" s="341"/>
-      <c r="E16" s="404"/>
-      <c r="F16" s="404"/>
+      <c r="E16" s="406"/>
+      <c r="F16" s="406"/>
       <c r="G16" s="193"/>
       <c r="H16" s="193"/>
       <c r="I16" s="194"/>
@@ -41094,8 +41060,8 @@
       <c r="B17" s="115"/>
       <c r="C17" s="192"/>
       <c r="D17" s="341"/>
-      <c r="E17" s="404"/>
-      <c r="F17" s="404"/>
+      <c r="E17" s="406"/>
+      <c r="F17" s="406"/>
       <c r="G17" s="193"/>
       <c r="H17" s="193"/>
       <c r="I17" s="194"/>
@@ -41112,8 +41078,8 @@
       <c r="B18" s="115"/>
       <c r="C18" s="192"/>
       <c r="D18" s="341"/>
-      <c r="E18" s="404"/>
-      <c r="F18" s="404"/>
+      <c r="E18" s="406"/>
+      <c r="F18" s="406"/>
       <c r="G18" s="193"/>
       <c r="H18" s="193"/>
       <c r="I18" s="194"/>
@@ -41130,8 +41096,8 @@
       <c r="B19" s="115"/>
       <c r="C19" s="193"/>
       <c r="D19" s="193"/>
-      <c r="E19" s="405"/>
-      <c r="F19" s="404"/>
+      <c r="E19" s="407"/>
+      <c r="F19" s="406"/>
       <c r="G19" s="193"/>
       <c r="H19" s="193"/>
       <c r="I19" s="194"/>
@@ -41387,17 +41353,17 @@
       <c r="B35" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="406"/>
-      <c r="D35" s="407"/>
-      <c r="E35" s="407"/>
-      <c r="F35" s="407"/>
-      <c r="G35" s="407"/>
-      <c r="H35" s="407"/>
-      <c r="I35" s="407"/>
-      <c r="J35" s="407"/>
-      <c r="K35" s="407"/>
-      <c r="L35" s="407"/>
-      <c r="M35" s="407"/>
+      <c r="C35" s="408"/>
+      <c r="D35" s="409"/>
+      <c r="E35" s="409"/>
+      <c r="F35" s="409"/>
+      <c r="G35" s="409"/>
+      <c r="H35" s="409"/>
+      <c r="I35" s="409"/>
+      <c r="J35" s="409"/>
+      <c r="K35" s="409"/>
+      <c r="L35" s="409"/>
+      <c r="M35" s="409"/>
     </row>
     <row r="36" spans="1:13" ht="16.5" customHeight="1">
       <c r="A36" s="13"/>
@@ -41679,11 +41645,11 @@
     <row r="52" spans="1:13" ht="24.75" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="78"/>
-      <c r="C52" s="388"/>
-      <c r="D52" s="389"/>
-      <c r="E52" s="389"/>
-      <c r="F52" s="389"/>
-      <c r="G52" s="390"/>
+      <c r="C52" s="390"/>
+      <c r="D52" s="391"/>
+      <c r="E52" s="391"/>
+      <c r="F52" s="391"/>
+      <c r="G52" s="392"/>
       <c r="H52" s="12" t="s">
         <v>57</v>
       </c>
@@ -41797,31 +41763,31 @@
       <c r="C59" s="343" t="s">
         <v>842</v>
       </c>
-      <c r="D59" s="394" t="s">
+      <c r="D59" s="396" t="s">
         <v>843</v>
       </c>
-      <c r="E59" s="395"/>
-      <c r="F59" s="395"/>
-      <c r="G59" s="395"/>
-      <c r="H59" s="395"/>
-      <c r="I59" s="396"/>
-      <c r="J59" s="398"/>
-      <c r="K59" s="397"/>
-      <c r="L59" s="394"/>
-      <c r="M59" s="397"/>
+      <c r="E59" s="397"/>
+      <c r="F59" s="397"/>
+      <c r="G59" s="397"/>
+      <c r="H59" s="397"/>
+      <c r="I59" s="398"/>
+      <c r="J59" s="400"/>
+      <c r="K59" s="399"/>
+      <c r="L59" s="396"/>
+      <c r="M59" s="399"/>
     </row>
     <row r="60" spans="1:13" ht="24.95" customHeight="1">
       <c r="A60" s="13"/>
       <c r="B60" s="112"/>
       <c r="C60" s="335"/>
-      <c r="D60" s="394"/>
-      <c r="E60" s="401"/>
-      <c r="F60" s="401"/>
-      <c r="G60" s="401"/>
-      <c r="H60" s="401"/>
-      <c r="I60" s="402"/>
-      <c r="J60" s="382"/>
-      <c r="K60" s="384"/>
+      <c r="D60" s="396"/>
+      <c r="E60" s="403"/>
+      <c r="F60" s="403"/>
+      <c r="G60" s="403"/>
+      <c r="H60" s="403"/>
+      <c r="I60" s="404"/>
+      <c r="J60" s="384"/>
+      <c r="K60" s="386"/>
       <c r="L60" s="335"/>
       <c r="M60" s="340"/>
     </row>
@@ -41829,42 +41795,42 @@
       <c r="A61" s="13"/>
       <c r="B61" s="112"/>
       <c r="C61" s="335"/>
-      <c r="D61" s="388"/>
-      <c r="E61" s="389"/>
-      <c r="F61" s="389"/>
-      <c r="G61" s="389"/>
-      <c r="H61" s="389"/>
-      <c r="I61" s="390"/>
-      <c r="J61" s="398"/>
-      <c r="K61" s="397"/>
-      <c r="L61" s="394"/>
-      <c r="M61" s="403"/>
+      <c r="D61" s="390"/>
+      <c r="E61" s="391"/>
+      <c r="F61" s="391"/>
+      <c r="G61" s="391"/>
+      <c r="H61" s="391"/>
+      <c r="I61" s="392"/>
+      <c r="J61" s="400"/>
+      <c r="K61" s="399"/>
+      <c r="L61" s="396"/>
+      <c r="M61" s="405"/>
     </row>
     <row r="62" spans="1:13" ht="77.25" customHeight="1">
       <c r="A62" s="13"/>
       <c r="B62" s="112"/>
       <c r="C62" s="335"/>
-      <c r="D62" s="394"/>
-      <c r="E62" s="395"/>
-      <c r="F62" s="395"/>
-      <c r="G62" s="395"/>
-      <c r="H62" s="395"/>
-      <c r="I62" s="396"/>
-      <c r="J62" s="398"/>
-      <c r="K62" s="397"/>
-      <c r="L62" s="394"/>
-      <c r="M62" s="403"/>
+      <c r="D62" s="396"/>
+      <c r="E62" s="397"/>
+      <c r="F62" s="397"/>
+      <c r="G62" s="397"/>
+      <c r="H62" s="397"/>
+      <c r="I62" s="398"/>
+      <c r="J62" s="400"/>
+      <c r="K62" s="399"/>
+      <c r="L62" s="396"/>
+      <c r="M62" s="405"/>
     </row>
     <row r="63" spans="1:13" ht="27" customHeight="1">
       <c r="A63" s="13"/>
       <c r="B63" s="112"/>
       <c r="C63" s="335"/>
-      <c r="D63" s="394"/>
-      <c r="E63" s="399"/>
-      <c r="F63" s="399"/>
-      <c r="G63" s="399"/>
-      <c r="H63" s="399"/>
-      <c r="I63" s="400"/>
+      <c r="D63" s="396"/>
+      <c r="E63" s="401"/>
+      <c r="F63" s="401"/>
+      <c r="G63" s="401"/>
+      <c r="H63" s="401"/>
+      <c r="I63" s="402"/>
       <c r="J63" s="335"/>
       <c r="K63" s="336"/>
       <c r="L63" s="337"/>
@@ -41874,72 +41840,72 @@
       <c r="A64" s="13"/>
       <c r="B64" s="112"/>
       <c r="C64" s="335"/>
-      <c r="D64" s="394"/>
-      <c r="E64" s="401"/>
-      <c r="F64" s="401"/>
-      <c r="G64" s="401"/>
-      <c r="H64" s="401"/>
-      <c r="I64" s="402"/>
+      <c r="D64" s="396"/>
+      <c r="E64" s="403"/>
+      <c r="F64" s="403"/>
+      <c r="G64" s="403"/>
+      <c r="H64" s="403"/>
+      <c r="I64" s="404"/>
       <c r="J64" s="335"/>
       <c r="K64" s="336"/>
-      <c r="L64" s="388"/>
-      <c r="M64" s="390"/>
+      <c r="L64" s="390"/>
+      <c r="M64" s="392"/>
     </row>
     <row r="65" spans="1:15" ht="47.25" customHeight="1">
       <c r="A65" s="13"/>
       <c r="B65" s="112"/>
       <c r="C65" s="335"/>
-      <c r="D65" s="394"/>
-      <c r="E65" s="395"/>
-      <c r="F65" s="395"/>
-      <c r="G65" s="395"/>
-      <c r="H65" s="395"/>
-      <c r="I65" s="396"/>
-      <c r="J65" s="398"/>
-      <c r="K65" s="396"/>
-      <c r="L65" s="398"/>
-      <c r="M65" s="396"/>
+      <c r="D65" s="396"/>
+      <c r="E65" s="397"/>
+      <c r="F65" s="397"/>
+      <c r="G65" s="397"/>
+      <c r="H65" s="397"/>
+      <c r="I65" s="398"/>
+      <c r="J65" s="400"/>
+      <c r="K65" s="398"/>
+      <c r="L65" s="400"/>
+      <c r="M65" s="398"/>
     </row>
     <row r="66" spans="1:15" ht="97.5" customHeight="1">
       <c r="A66" s="13"/>
       <c r="B66" s="112"/>
       <c r="C66" s="335"/>
-      <c r="D66" s="394"/>
-      <c r="E66" s="401"/>
-      <c r="F66" s="401"/>
-      <c r="G66" s="401"/>
-      <c r="H66" s="401"/>
-      <c r="I66" s="402"/>
-      <c r="J66" s="398"/>
-      <c r="K66" s="400"/>
-      <c r="L66" s="394"/>
-      <c r="M66" s="403"/>
+      <c r="D66" s="396"/>
+      <c r="E66" s="403"/>
+      <c r="F66" s="403"/>
+      <c r="G66" s="403"/>
+      <c r="H66" s="403"/>
+      <c r="I66" s="404"/>
+      <c r="J66" s="400"/>
+      <c r="K66" s="402"/>
+      <c r="L66" s="396"/>
+      <c r="M66" s="405"/>
     </row>
     <row r="67" spans="1:15" ht="92.25" customHeight="1">
       <c r="A67" s="13"/>
       <c r="B67" s="112"/>
       <c r="C67" s="335"/>
-      <c r="D67" s="394"/>
-      <c r="E67" s="401"/>
-      <c r="F67" s="401"/>
-      <c r="G67" s="401"/>
-      <c r="H67" s="401"/>
-      <c r="I67" s="402"/>
-      <c r="J67" s="398"/>
-      <c r="K67" s="400"/>
-      <c r="L67" s="398"/>
-      <c r="M67" s="400"/>
+      <c r="D67" s="396"/>
+      <c r="E67" s="403"/>
+      <c r="F67" s="403"/>
+      <c r="G67" s="403"/>
+      <c r="H67" s="403"/>
+      <c r="I67" s="404"/>
+      <c r="J67" s="400"/>
+      <c r="K67" s="402"/>
+      <c r="L67" s="400"/>
+      <c r="M67" s="402"/>
     </row>
     <row r="68" spans="1:15" ht="27" customHeight="1">
       <c r="A68" s="13"/>
       <c r="B68" s="112"/>
       <c r="C68" s="335"/>
-      <c r="D68" s="388"/>
-      <c r="E68" s="389"/>
-      <c r="F68" s="389"/>
-      <c r="G68" s="389"/>
-      <c r="H68" s="389"/>
-      <c r="I68" s="390"/>
+      <c r="D68" s="390"/>
+      <c r="E68" s="391"/>
+      <c r="F68" s="391"/>
+      <c r="G68" s="391"/>
+      <c r="H68" s="391"/>
+      <c r="I68" s="392"/>
       <c r="J68" s="335"/>
       <c r="K68" s="340"/>
       <c r="L68" s="335"/>
@@ -41949,12 +41915,12 @@
       <c r="A69" s="13"/>
       <c r="B69" s="112"/>
       <c r="C69" s="335"/>
-      <c r="D69" s="388"/>
-      <c r="E69" s="389"/>
-      <c r="F69" s="389"/>
-      <c r="G69" s="389"/>
-      <c r="H69" s="389"/>
-      <c r="I69" s="390"/>
+      <c r="D69" s="390"/>
+      <c r="E69" s="391"/>
+      <c r="F69" s="391"/>
+      <c r="G69" s="391"/>
+      <c r="H69" s="391"/>
+      <c r="I69" s="392"/>
       <c r="J69" s="335"/>
       <c r="K69" s="340"/>
       <c r="L69" s="335"/>
@@ -41964,16 +41930,16 @@
       <c r="A70" s="13"/>
       <c r="B70" s="112"/>
       <c r="C70" s="337"/>
-      <c r="D70" s="394"/>
-      <c r="E70" s="399"/>
-      <c r="F70" s="399"/>
-      <c r="G70" s="399"/>
-      <c r="H70" s="399"/>
-      <c r="I70" s="400"/>
-      <c r="J70" s="398"/>
-      <c r="K70" s="397"/>
-      <c r="L70" s="394"/>
-      <c r="M70" s="402"/>
+      <c r="D70" s="396"/>
+      <c r="E70" s="401"/>
+      <c r="F70" s="401"/>
+      <c r="G70" s="401"/>
+      <c r="H70" s="401"/>
+      <c r="I70" s="402"/>
+      <c r="J70" s="400"/>
+      <c r="K70" s="399"/>
+      <c r="L70" s="396"/>
+      <c r="M70" s="404"/>
     </row>
     <row r="71" spans="1:15" s="220" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="72" spans="1:15" ht="16.5" customHeight="1">
@@ -42219,13 +42185,13 @@
     <row r="86" spans="1:15" ht="16.5" customHeight="1">
       <c r="A86" s="13"/>
       <c r="B86" s="78"/>
-      <c r="C86" s="391"/>
-      <c r="D86" s="392"/>
-      <c r="E86" s="392"/>
-      <c r="F86" s="392"/>
-      <c r="G86" s="392"/>
-      <c r="H86" s="392"/>
-      <c r="I86" s="393"/>
+      <c r="C86" s="393"/>
+      <c r="D86" s="394"/>
+      <c r="E86" s="394"/>
+      <c r="F86" s="394"/>
+      <c r="G86" s="394"/>
+      <c r="H86" s="394"/>
+      <c r="I86" s="395"/>
       <c r="J86" s="78"/>
       <c r="K86" s="112"/>
       <c r="L86" s="112"/>
@@ -42236,13 +42202,13 @@
     <row r="87" spans="1:15" ht="16.5" customHeight="1">
       <c r="A87" s="13"/>
       <c r="B87" s="78"/>
-      <c r="C87" s="391"/>
-      <c r="D87" s="392"/>
-      <c r="E87" s="392"/>
-      <c r="F87" s="392"/>
-      <c r="G87" s="392"/>
-      <c r="H87" s="392"/>
-      <c r="I87" s="393"/>
+      <c r="C87" s="393"/>
+      <c r="D87" s="394"/>
+      <c r="E87" s="394"/>
+      <c r="F87" s="394"/>
+      <c r="G87" s="394"/>
+      <c r="H87" s="394"/>
+      <c r="I87" s="395"/>
       <c r="J87" s="78"/>
       <c r="K87" s="112"/>
       <c r="L87" s="112"/>
@@ -42750,7 +42716,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="376" t="s">
+      <c r="A1" s="378" t="s">
         <v>105</v>
       </c>
       <c r="B1" s="1"/>
@@ -42761,7 +42727,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="377"/>
+      <c r="A2" s="379"/>
       <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
@@ -42772,18 +42738,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="377"/>
+      <c r="A3" s="379"/>
       <c r="G3" s="113"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="377"/>
+      <c r="A4" s="379"/>
       <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="113"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="378"/>
+      <c r="A5" s="380"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -42798,10 +42764,10 @@
       <c r="B6" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="408" t="s">
+      <c r="C6" s="410" t="s">
         <v>535</v>
       </c>
-      <c r="D6" s="409"/>
+      <c r="D6" s="411"/>
       <c r="E6" s="180" t="s">
         <v>537</v>
       </c>
@@ -42945,8 +42911,8 @@
       <c r="B15" s="115"/>
       <c r="C15" s="189"/>
       <c r="D15" s="189"/>
-      <c r="E15" s="405"/>
-      <c r="F15" s="405"/>
+      <c r="E15" s="407"/>
+      <c r="F15" s="407"/>
       <c r="G15" s="189"/>
       <c r="H15" s="189"/>
       <c r="I15" s="189"/>
@@ -42961,8 +42927,8 @@
       <c r="B16" s="115"/>
       <c r="C16" s="192"/>
       <c r="D16" s="189"/>
-      <c r="E16" s="404"/>
-      <c r="F16" s="404"/>
+      <c r="E16" s="406"/>
+      <c r="F16" s="406"/>
       <c r="G16" s="193"/>
       <c r="H16" s="193"/>
       <c r="I16" s="194"/>
@@ -42979,8 +42945,8 @@
       <c r="B17" s="115"/>
       <c r="C17" s="192"/>
       <c r="D17" s="189"/>
-      <c r="E17" s="404"/>
-      <c r="F17" s="404"/>
+      <c r="E17" s="406"/>
+      <c r="F17" s="406"/>
       <c r="G17" s="193"/>
       <c r="H17" s="193"/>
       <c r="I17" s="194"/>
@@ -42997,8 +42963,8 @@
       <c r="B18" s="115"/>
       <c r="C18" s="192"/>
       <c r="D18" s="189"/>
-      <c r="E18" s="404"/>
-      <c r="F18" s="404"/>
+      <c r="E18" s="406"/>
+      <c r="F18" s="406"/>
       <c r="G18" s="193"/>
       <c r="H18" s="193"/>
       <c r="I18" s="194"/>
@@ -43015,8 +42981,8 @@
       <c r="B19" s="115"/>
       <c r="C19" s="193"/>
       <c r="D19" s="193"/>
-      <c r="E19" s="405"/>
-      <c r="F19" s="404"/>
+      <c r="E19" s="407"/>
+      <c r="F19" s="406"/>
       <c r="G19" s="193"/>
       <c r="H19" s="193"/>
       <c r="I19" s="194"/>
@@ -44239,17 +44205,17 @@
       <c r="B93" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="406"/>
-      <c r="D93" s="407"/>
-      <c r="E93" s="407"/>
-      <c r="F93" s="407"/>
-      <c r="G93" s="407"/>
-      <c r="H93" s="407"/>
-      <c r="I93" s="407"/>
-      <c r="J93" s="407"/>
-      <c r="K93" s="407"/>
-      <c r="L93" s="407"/>
-      <c r="M93" s="407"/>
+      <c r="C93" s="408"/>
+      <c r="D93" s="409"/>
+      <c r="E93" s="409"/>
+      <c r="F93" s="409"/>
+      <c r="G93" s="409"/>
+      <c r="H93" s="409"/>
+      <c r="I93" s="409"/>
+      <c r="J93" s="409"/>
+      <c r="K93" s="409"/>
+      <c r="L93" s="409"/>
+      <c r="M93" s="409"/>
     </row>
     <row r="94" spans="1:15" ht="16.5" customHeight="1">
       <c r="A94" s="13"/>
@@ -44608,13 +44574,13 @@
       <c r="B111" s="78" t="s">
         <v>548</v>
       </c>
-      <c r="C111" s="388" t="s">
+      <c r="C111" s="390" t="s">
         <v>548</v>
       </c>
-      <c r="D111" s="389"/>
-      <c r="E111" s="389"/>
-      <c r="F111" s="389"/>
-      <c r="G111" s="390"/>
+      <c r="D111" s="391"/>
+      <c r="E111" s="391"/>
+      <c r="F111" s="391"/>
+      <c r="G111" s="392"/>
       <c r="H111" s="12" t="s">
         <v>57</v>
       </c>
@@ -44748,18 +44714,18 @@
       <c r="C118" s="105" t="s">
         <v>549</v>
       </c>
-      <c r="D118" s="394" t="s">
+      <c r="D118" s="396" t="s">
         <v>553</v>
       </c>
-      <c r="E118" s="395"/>
-      <c r="F118" s="395"/>
-      <c r="G118" s="395"/>
-      <c r="H118" s="395"/>
-      <c r="I118" s="396"/>
-      <c r="J118" s="398"/>
-      <c r="K118" s="397"/>
-      <c r="L118" s="394"/>
-      <c r="M118" s="397"/>
+      <c r="E118" s="397"/>
+      <c r="F118" s="397"/>
+      <c r="G118" s="397"/>
+      <c r="H118" s="397"/>
+      <c r="I118" s="398"/>
+      <c r="J118" s="400"/>
+      <c r="K118" s="399"/>
+      <c r="L118" s="396"/>
+      <c r="M118" s="399"/>
     </row>
     <row r="119" spans="1:13" ht="24.95" customHeight="1">
       <c r="A119" s="13"/>
@@ -44769,16 +44735,16 @@
       <c r="C119" s="105" t="s">
         <v>550</v>
       </c>
-      <c r="D119" s="394" t="s">
+      <c r="D119" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="E119" s="401"/>
-      <c r="F119" s="401"/>
-      <c r="G119" s="401"/>
-      <c r="H119" s="401"/>
-      <c r="I119" s="402"/>
-      <c r="J119" s="382"/>
-      <c r="K119" s="384"/>
+      <c r="E119" s="403"/>
+      <c r="F119" s="403"/>
+      <c r="G119" s="403"/>
+      <c r="H119" s="403"/>
+      <c r="I119" s="404"/>
+      <c r="J119" s="384"/>
+      <c r="K119" s="386"/>
       <c r="L119" s="105"/>
       <c r="M119" s="202"/>
     </row>
@@ -44790,18 +44756,18 @@
       <c r="C120" s="105" t="s">
         <v>551</v>
       </c>
-      <c r="D120" s="394" t="s">
+      <c r="D120" s="396" t="s">
         <v>555</v>
       </c>
-      <c r="E120" s="401"/>
-      <c r="F120" s="401"/>
-      <c r="G120" s="401"/>
-      <c r="H120" s="401"/>
-      <c r="I120" s="402"/>
-      <c r="J120" s="398"/>
-      <c r="K120" s="397"/>
-      <c r="L120" s="394"/>
-      <c r="M120" s="403"/>
+      <c r="E120" s="403"/>
+      <c r="F120" s="403"/>
+      <c r="G120" s="403"/>
+      <c r="H120" s="403"/>
+      <c r="I120" s="404"/>
+      <c r="J120" s="400"/>
+      <c r="K120" s="399"/>
+      <c r="L120" s="396"/>
+      <c r="M120" s="405"/>
     </row>
     <row r="121" spans="1:13" ht="77.25" customHeight="1">
       <c r="A121" s="13"/>
@@ -44811,18 +44777,18 @@
       <c r="C121" s="105" t="s">
         <v>552</v>
       </c>
-      <c r="D121" s="394" t="s">
+      <c r="D121" s="396" t="s">
         <v>556</v>
       </c>
-      <c r="E121" s="401"/>
-      <c r="F121" s="401"/>
-      <c r="G121" s="401"/>
-      <c r="H121" s="401"/>
-      <c r="I121" s="402"/>
-      <c r="J121" s="398"/>
-      <c r="K121" s="397"/>
-      <c r="L121" s="394"/>
-      <c r="M121" s="403"/>
+      <c r="E121" s="403"/>
+      <c r="F121" s="403"/>
+      <c r="G121" s="403"/>
+      <c r="H121" s="403"/>
+      <c r="I121" s="404"/>
+      <c r="J121" s="400"/>
+      <c r="K121" s="399"/>
+      <c r="L121" s="396"/>
+      <c r="M121" s="405"/>
     </row>
     <row r="122" spans="1:13" ht="27" customHeight="1">
       <c r="A122" s="13"/>
@@ -44830,12 +44796,12 @@
         <v>5</v>
       </c>
       <c r="C122" s="105"/>
-      <c r="D122" s="394"/>
-      <c r="E122" s="399"/>
-      <c r="F122" s="399"/>
-      <c r="G122" s="399"/>
-      <c r="H122" s="399"/>
-      <c r="I122" s="400"/>
+      <c r="D122" s="396"/>
+      <c r="E122" s="401"/>
+      <c r="F122" s="401"/>
+      <c r="G122" s="401"/>
+      <c r="H122" s="401"/>
+      <c r="I122" s="402"/>
       <c r="J122" s="105"/>
       <c r="K122" s="238"/>
       <c r="L122" s="203"/>
@@ -44847,16 +44813,16 @@
         <v>6</v>
       </c>
       <c r="C123" s="105"/>
-      <c r="D123" s="394"/>
-      <c r="E123" s="401"/>
-      <c r="F123" s="401"/>
-      <c r="G123" s="401"/>
-      <c r="H123" s="401"/>
-      <c r="I123" s="402"/>
+      <c r="D123" s="396"/>
+      <c r="E123" s="403"/>
+      <c r="F123" s="403"/>
+      <c r="G123" s="403"/>
+      <c r="H123" s="403"/>
+      <c r="I123" s="404"/>
       <c r="J123" s="105"/>
       <c r="K123" s="238"/>
-      <c r="L123" s="388"/>
-      <c r="M123" s="390"/>
+      <c r="L123" s="390"/>
+      <c r="M123" s="392"/>
     </row>
     <row r="124" spans="1:13" ht="47.25" customHeight="1">
       <c r="A124" s="13"/>
@@ -44864,16 +44830,16 @@
         <v>7</v>
       </c>
       <c r="C124" s="105"/>
-      <c r="D124" s="394"/>
-      <c r="E124" s="395"/>
-      <c r="F124" s="395"/>
-      <c r="G124" s="395"/>
-      <c r="H124" s="395"/>
-      <c r="I124" s="396"/>
-      <c r="J124" s="398"/>
-      <c r="K124" s="396"/>
-      <c r="L124" s="398"/>
-      <c r="M124" s="396"/>
+      <c r="D124" s="396"/>
+      <c r="E124" s="397"/>
+      <c r="F124" s="397"/>
+      <c r="G124" s="397"/>
+      <c r="H124" s="397"/>
+      <c r="I124" s="398"/>
+      <c r="J124" s="400"/>
+      <c r="K124" s="398"/>
+      <c r="L124" s="400"/>
+      <c r="M124" s="398"/>
     </row>
     <row r="125" spans="1:13" ht="97.5" customHeight="1">
       <c r="A125" s="13"/>
@@ -44881,16 +44847,16 @@
         <v>8</v>
       </c>
       <c r="C125" s="105"/>
-      <c r="D125" s="394"/>
-      <c r="E125" s="401"/>
-      <c r="F125" s="401"/>
-      <c r="G125" s="401"/>
-      <c r="H125" s="401"/>
-      <c r="I125" s="402"/>
-      <c r="J125" s="398"/>
-      <c r="K125" s="400"/>
-      <c r="L125" s="394"/>
-      <c r="M125" s="403"/>
+      <c r="D125" s="396"/>
+      <c r="E125" s="403"/>
+      <c r="F125" s="403"/>
+      <c r="G125" s="403"/>
+      <c r="H125" s="403"/>
+      <c r="I125" s="404"/>
+      <c r="J125" s="400"/>
+      <c r="K125" s="402"/>
+      <c r="L125" s="396"/>
+      <c r="M125" s="405"/>
     </row>
     <row r="126" spans="1:13" ht="92.25" customHeight="1">
       <c r="A126" s="13"/>
@@ -44898,16 +44864,16 @@
         <v>9</v>
       </c>
       <c r="C126" s="105"/>
-      <c r="D126" s="394"/>
-      <c r="E126" s="401"/>
-      <c r="F126" s="401"/>
-      <c r="G126" s="401"/>
-      <c r="H126" s="401"/>
-      <c r="I126" s="402"/>
-      <c r="J126" s="398"/>
-      <c r="K126" s="400"/>
-      <c r="L126" s="398"/>
-      <c r="M126" s="400"/>
+      <c r="D126" s="396"/>
+      <c r="E126" s="403"/>
+      <c r="F126" s="403"/>
+      <c r="G126" s="403"/>
+      <c r="H126" s="403"/>
+      <c r="I126" s="404"/>
+      <c r="J126" s="400"/>
+      <c r="K126" s="402"/>
+      <c r="L126" s="400"/>
+      <c r="M126" s="402"/>
     </row>
     <row r="127" spans="1:13" ht="27" customHeight="1">
       <c r="A127" s="13"/>
@@ -44915,12 +44881,12 @@
         <v>10</v>
       </c>
       <c r="C127" s="105"/>
-      <c r="D127" s="388"/>
-      <c r="E127" s="389"/>
-      <c r="F127" s="389"/>
-      <c r="G127" s="389"/>
-      <c r="H127" s="389"/>
-      <c r="I127" s="390"/>
+      <c r="D127" s="390"/>
+      <c r="E127" s="391"/>
+      <c r="F127" s="391"/>
+      <c r="G127" s="391"/>
+      <c r="H127" s="391"/>
+      <c r="I127" s="392"/>
       <c r="J127" s="105"/>
       <c r="K127" s="202"/>
       <c r="L127" s="105"/>
@@ -44932,12 +44898,12 @@
         <v>11</v>
       </c>
       <c r="C128" s="105"/>
-      <c r="D128" s="388"/>
-      <c r="E128" s="389"/>
-      <c r="F128" s="389"/>
-      <c r="G128" s="389"/>
-      <c r="H128" s="389"/>
-      <c r="I128" s="390"/>
+      <c r="D128" s="390"/>
+      <c r="E128" s="391"/>
+      <c r="F128" s="391"/>
+      <c r="G128" s="391"/>
+      <c r="H128" s="391"/>
+      <c r="I128" s="392"/>
       <c r="J128" s="105"/>
       <c r="K128" s="202"/>
       <c r="L128" s="105"/>
@@ -44949,16 +44915,16 @@
         <v>12</v>
       </c>
       <c r="C129" s="203"/>
-      <c r="D129" s="394"/>
-      <c r="E129" s="399"/>
-      <c r="F129" s="399"/>
-      <c r="G129" s="399"/>
-      <c r="H129" s="399"/>
-      <c r="I129" s="400"/>
-      <c r="J129" s="398"/>
-      <c r="K129" s="397"/>
-      <c r="L129" s="394"/>
-      <c r="M129" s="402"/>
+      <c r="D129" s="396"/>
+      <c r="E129" s="401"/>
+      <c r="F129" s="401"/>
+      <c r="G129" s="401"/>
+      <c r="H129" s="401"/>
+      <c r="I129" s="402"/>
+      <c r="J129" s="400"/>
+      <c r="K129" s="399"/>
+      <c r="L129" s="396"/>
+      <c r="M129" s="404"/>
     </row>
     <row r="130" spans="1:15" s="220" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="131" spans="1:15" ht="16.5" customHeight="1">
@@ -45244,13 +45210,13 @@
     <row r="145" spans="1:15" ht="16.5" customHeight="1">
       <c r="A145" s="13"/>
       <c r="B145" s="78"/>
-      <c r="C145" s="391"/>
-      <c r="D145" s="392"/>
-      <c r="E145" s="392"/>
-      <c r="F145" s="392"/>
-      <c r="G145" s="392"/>
-      <c r="H145" s="392"/>
-      <c r="I145" s="393"/>
+      <c r="C145" s="393"/>
+      <c r="D145" s="394"/>
+      <c r="E145" s="394"/>
+      <c r="F145" s="394"/>
+      <c r="G145" s="394"/>
+      <c r="H145" s="394"/>
+      <c r="I145" s="395"/>
       <c r="J145" s="78"/>
       <c r="K145" s="112"/>
       <c r="L145" s="112"/>
@@ -45261,13 +45227,13 @@
     <row r="146" spans="1:15" ht="16.5" customHeight="1">
       <c r="A146" s="13"/>
       <c r="B146" s="78"/>
-      <c r="C146" s="391"/>
-      <c r="D146" s="392"/>
-      <c r="E146" s="392"/>
-      <c r="F146" s="392"/>
-      <c r="G146" s="392"/>
-      <c r="H146" s="392"/>
-      <c r="I146" s="393"/>
+      <c r="C146" s="393"/>
+      <c r="D146" s="394"/>
+      <c r="E146" s="394"/>
+      <c r="F146" s="394"/>
+      <c r="G146" s="394"/>
+      <c r="H146" s="394"/>
+      <c r="I146" s="395"/>
       <c r="J146" s="78"/>
       <c r="K146" s="112"/>
       <c r="L146" s="112"/>
@@ -45773,7 +45739,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="376" t="s">
+      <c r="A1" s="378" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
@@ -45784,7 +45750,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="377"/>
+      <c r="A2" s="379"/>
       <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
@@ -45795,18 +45761,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="377"/>
+      <c r="A3" s="379"/>
       <c r="G3" s="113"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="377"/>
+      <c r="A4" s="379"/>
       <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="113"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="378"/>
+      <c r="A5" s="380"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -45821,10 +45787,10 @@
       <c r="B6" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="408" t="s">
+      <c r="C6" s="410" t="s">
         <v>535</v>
       </c>
-      <c r="D6" s="409"/>
+      <c r="D6" s="411"/>
       <c r="E6" s="180" t="s">
         <v>531</v>
       </c>
@@ -45968,8 +45934,8 @@
       <c r="B15" s="115"/>
       <c r="C15" s="189"/>
       <c r="D15" s="189"/>
-      <c r="E15" s="405"/>
-      <c r="F15" s="405"/>
+      <c r="E15" s="407"/>
+      <c r="F15" s="407"/>
       <c r="G15" s="189"/>
       <c r="H15" s="189"/>
       <c r="I15" s="189"/>
@@ -45984,8 +45950,8 @@
       <c r="B16" s="115"/>
       <c r="C16" s="192"/>
       <c r="D16" s="189"/>
-      <c r="E16" s="404"/>
-      <c r="F16" s="404"/>
+      <c r="E16" s="406"/>
+      <c r="F16" s="406"/>
       <c r="G16" s="193"/>
       <c r="H16" s="193"/>
       <c r="I16" s="194"/>
@@ -46002,8 +45968,8 @@
       <c r="B17" s="115"/>
       <c r="C17" s="192"/>
       <c r="D17" s="189"/>
-      <c r="E17" s="404"/>
-      <c r="F17" s="404"/>
+      <c r="E17" s="406"/>
+      <c r="F17" s="406"/>
       <c r="G17" s="193"/>
       <c r="H17" s="193"/>
       <c r="I17" s="194"/>
@@ -46020,8 +45986,8 @@
       <c r="B18" s="115"/>
       <c r="C18" s="192"/>
       <c r="D18" s="189"/>
-      <c r="E18" s="404"/>
-      <c r="F18" s="404"/>
+      <c r="E18" s="406"/>
+      <c r="F18" s="406"/>
       <c r="G18" s="193"/>
       <c r="H18" s="193"/>
       <c r="I18" s="194"/>
@@ -46038,8 +46004,8 @@
       <c r="B19" s="115"/>
       <c r="C19" s="193"/>
       <c r="D19" s="193"/>
-      <c r="E19" s="405"/>
-      <c r="F19" s="404"/>
+      <c r="E19" s="407"/>
+      <c r="F19" s="406"/>
       <c r="G19" s="193"/>
       <c r="H19" s="193"/>
       <c r="I19" s="194"/>
@@ -46295,17 +46261,17 @@
       <c r="B35" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="406"/>
-      <c r="D35" s="407"/>
-      <c r="E35" s="407"/>
-      <c r="F35" s="407"/>
-      <c r="G35" s="407"/>
-      <c r="H35" s="407"/>
-      <c r="I35" s="407"/>
-      <c r="J35" s="407"/>
-      <c r="K35" s="407"/>
-      <c r="L35" s="407"/>
-      <c r="M35" s="407"/>
+      <c r="C35" s="408"/>
+      <c r="D35" s="409"/>
+      <c r="E35" s="409"/>
+      <c r="F35" s="409"/>
+      <c r="G35" s="409"/>
+      <c r="H35" s="409"/>
+      <c r="I35" s="409"/>
+      <c r="J35" s="409"/>
+      <c r="K35" s="409"/>
+      <c r="L35" s="409"/>
+      <c r="M35" s="409"/>
     </row>
     <row r="36" spans="1:13" ht="16.5" customHeight="1">
       <c r="A36" s="13"/>
@@ -46630,11 +46596,11 @@
     <row r="53" spans="1:13" ht="155.25" customHeight="1">
       <c r="A53" s="13"/>
       <c r="B53" s="78"/>
-      <c r="C53" s="388"/>
-      <c r="D53" s="389"/>
-      <c r="E53" s="389"/>
-      <c r="F53" s="389"/>
-      <c r="G53" s="390"/>
+      <c r="C53" s="390"/>
+      <c r="D53" s="391"/>
+      <c r="E53" s="391"/>
+      <c r="F53" s="391"/>
+      <c r="G53" s="392"/>
       <c r="H53" s="12" t="s">
         <v>57</v>
       </c>
@@ -46748,18 +46714,18 @@
       <c r="C60" s="105" t="s">
         <v>567</v>
       </c>
-      <c r="D60" s="394" t="s">
+      <c r="D60" s="396" t="s">
         <v>570</v>
       </c>
-      <c r="E60" s="395"/>
-      <c r="F60" s="395"/>
-      <c r="G60" s="395"/>
-      <c r="H60" s="395"/>
-      <c r="I60" s="396"/>
-      <c r="J60" s="398"/>
-      <c r="K60" s="397"/>
-      <c r="L60" s="394"/>
-      <c r="M60" s="397"/>
+      <c r="E60" s="397"/>
+      <c r="F60" s="397"/>
+      <c r="G60" s="397"/>
+      <c r="H60" s="397"/>
+      <c r="I60" s="398"/>
+      <c r="J60" s="400"/>
+      <c r="K60" s="399"/>
+      <c r="L60" s="396"/>
+      <c r="M60" s="399"/>
     </row>
     <row r="61" spans="1:13" ht="24.95" customHeight="1">
       <c r="A61" s="13"/>
@@ -46769,16 +46735,16 @@
       <c r="C61" s="105" t="s">
         <v>568</v>
       </c>
-      <c r="D61" s="394" t="s">
+      <c r="D61" s="396" t="s">
         <v>571</v>
       </c>
-      <c r="E61" s="401"/>
-      <c r="F61" s="401"/>
-      <c r="G61" s="401"/>
-      <c r="H61" s="401"/>
-      <c r="I61" s="402"/>
-      <c r="J61" s="382"/>
-      <c r="K61" s="384"/>
+      <c r="E61" s="403"/>
+      <c r="F61" s="403"/>
+      <c r="G61" s="403"/>
+      <c r="H61" s="403"/>
+      <c r="I61" s="404"/>
+      <c r="J61" s="384"/>
+      <c r="K61" s="386"/>
       <c r="L61" s="105"/>
       <c r="M61" s="202"/>
     </row>
@@ -46790,44 +46756,44 @@
       <c r="C62" s="105" t="s">
         <v>569</v>
       </c>
-      <c r="D62" s="388" t="s">
+      <c r="D62" s="390" t="s">
         <v>572</v>
       </c>
-      <c r="E62" s="389"/>
-      <c r="F62" s="389"/>
-      <c r="G62" s="389"/>
-      <c r="H62" s="389"/>
-      <c r="I62" s="390"/>
-      <c r="J62" s="398"/>
-      <c r="K62" s="397"/>
-      <c r="L62" s="394"/>
-      <c r="M62" s="403"/>
+      <c r="E62" s="391"/>
+      <c r="F62" s="391"/>
+      <c r="G62" s="391"/>
+      <c r="H62" s="391"/>
+      <c r="I62" s="392"/>
+      <c r="J62" s="400"/>
+      <c r="K62" s="399"/>
+      <c r="L62" s="396"/>
+      <c r="M62" s="405"/>
     </row>
     <row r="63" spans="1:13" ht="77.25" customHeight="1">
       <c r="A63" s="13"/>
       <c r="B63" s="112"/>
       <c r="C63" s="105"/>
-      <c r="D63" s="394"/>
-      <c r="E63" s="395"/>
-      <c r="F63" s="395"/>
-      <c r="G63" s="395"/>
-      <c r="H63" s="395"/>
-      <c r="I63" s="396"/>
-      <c r="J63" s="398"/>
-      <c r="K63" s="397"/>
-      <c r="L63" s="394"/>
-      <c r="M63" s="403"/>
+      <c r="D63" s="396"/>
+      <c r="E63" s="397"/>
+      <c r="F63" s="397"/>
+      <c r="G63" s="397"/>
+      <c r="H63" s="397"/>
+      <c r="I63" s="398"/>
+      <c r="J63" s="400"/>
+      <c r="K63" s="399"/>
+      <c r="L63" s="396"/>
+      <c r="M63" s="405"/>
     </row>
     <row r="64" spans="1:13" ht="27" customHeight="1">
       <c r="A64" s="13"/>
       <c r="B64" s="112"/>
       <c r="C64" s="105"/>
-      <c r="D64" s="394"/>
-      <c r="E64" s="399"/>
-      <c r="F64" s="399"/>
-      <c r="G64" s="399"/>
-      <c r="H64" s="399"/>
-      <c r="I64" s="400"/>
+      <c r="D64" s="396"/>
+      <c r="E64" s="401"/>
+      <c r="F64" s="401"/>
+      <c r="G64" s="401"/>
+      <c r="H64" s="401"/>
+      <c r="I64" s="402"/>
       <c r="J64" s="105"/>
       <c r="K64" s="238"/>
       <c r="L64" s="203"/>
@@ -46837,72 +46803,72 @@
       <c r="A65" s="13"/>
       <c r="B65" s="112"/>
       <c r="C65" s="105"/>
-      <c r="D65" s="394"/>
-      <c r="E65" s="401"/>
-      <c r="F65" s="401"/>
-      <c r="G65" s="401"/>
-      <c r="H65" s="401"/>
-      <c r="I65" s="402"/>
+      <c r="D65" s="396"/>
+      <c r="E65" s="403"/>
+      <c r="F65" s="403"/>
+      <c r="G65" s="403"/>
+      <c r="H65" s="403"/>
+      <c r="I65" s="404"/>
       <c r="J65" s="105"/>
       <c r="K65" s="238"/>
-      <c r="L65" s="388"/>
-      <c r="M65" s="390"/>
+      <c r="L65" s="390"/>
+      <c r="M65" s="392"/>
     </row>
     <row r="66" spans="1:15" ht="47.25" customHeight="1">
       <c r="A66" s="13"/>
       <c r="B66" s="112"/>
       <c r="C66" s="105"/>
-      <c r="D66" s="394"/>
-      <c r="E66" s="395"/>
-      <c r="F66" s="395"/>
-      <c r="G66" s="395"/>
-      <c r="H66" s="395"/>
-      <c r="I66" s="396"/>
-      <c r="J66" s="398"/>
-      <c r="K66" s="396"/>
-      <c r="L66" s="398"/>
-      <c r="M66" s="396"/>
+      <c r="D66" s="396"/>
+      <c r="E66" s="397"/>
+      <c r="F66" s="397"/>
+      <c r="G66" s="397"/>
+      <c r="H66" s="397"/>
+      <c r="I66" s="398"/>
+      <c r="J66" s="400"/>
+      <c r="K66" s="398"/>
+      <c r="L66" s="400"/>
+      <c r="M66" s="398"/>
     </row>
     <row r="67" spans="1:15" ht="97.5" customHeight="1">
       <c r="A67" s="13"/>
       <c r="B67" s="112"/>
       <c r="C67" s="105"/>
-      <c r="D67" s="394"/>
-      <c r="E67" s="401"/>
-      <c r="F67" s="401"/>
-      <c r="G67" s="401"/>
-      <c r="H67" s="401"/>
-      <c r="I67" s="402"/>
-      <c r="J67" s="398"/>
-      <c r="K67" s="400"/>
-      <c r="L67" s="394"/>
-      <c r="M67" s="403"/>
+      <c r="D67" s="396"/>
+      <c r="E67" s="403"/>
+      <c r="F67" s="403"/>
+      <c r="G67" s="403"/>
+      <c r="H67" s="403"/>
+      <c r="I67" s="404"/>
+      <c r="J67" s="400"/>
+      <c r="K67" s="402"/>
+      <c r="L67" s="396"/>
+      <c r="M67" s="405"/>
     </row>
     <row r="68" spans="1:15" ht="92.25" customHeight="1">
       <c r="A68" s="13"/>
       <c r="B68" s="112"/>
       <c r="C68" s="105"/>
-      <c r="D68" s="394"/>
-      <c r="E68" s="401"/>
-      <c r="F68" s="401"/>
-      <c r="G68" s="401"/>
-      <c r="H68" s="401"/>
-      <c r="I68" s="402"/>
-      <c r="J68" s="398"/>
-      <c r="K68" s="400"/>
-      <c r="L68" s="398"/>
-      <c r="M68" s="400"/>
+      <c r="D68" s="396"/>
+      <c r="E68" s="403"/>
+      <c r="F68" s="403"/>
+      <c r="G68" s="403"/>
+      <c r="H68" s="403"/>
+      <c r="I68" s="404"/>
+      <c r="J68" s="400"/>
+      <c r="K68" s="402"/>
+      <c r="L68" s="400"/>
+      <c r="M68" s="402"/>
     </row>
     <row r="69" spans="1:15" ht="27" customHeight="1">
       <c r="A69" s="13"/>
       <c r="B69" s="112"/>
       <c r="C69" s="105"/>
-      <c r="D69" s="388"/>
-      <c r="E69" s="389"/>
-      <c r="F69" s="389"/>
-      <c r="G69" s="389"/>
-      <c r="H69" s="389"/>
-      <c r="I69" s="390"/>
+      <c r="D69" s="390"/>
+      <c r="E69" s="391"/>
+      <c r="F69" s="391"/>
+      <c r="G69" s="391"/>
+      <c r="H69" s="391"/>
+      <c r="I69" s="392"/>
       <c r="J69" s="105"/>
       <c r="K69" s="202"/>
       <c r="L69" s="105"/>
@@ -46912,12 +46878,12 @@
       <c r="A70" s="13"/>
       <c r="B70" s="112"/>
       <c r="C70" s="105"/>
-      <c r="D70" s="388"/>
-      <c r="E70" s="389"/>
-      <c r="F70" s="389"/>
-      <c r="G70" s="389"/>
-      <c r="H70" s="389"/>
-      <c r="I70" s="390"/>
+      <c r="D70" s="390"/>
+      <c r="E70" s="391"/>
+      <c r="F70" s="391"/>
+      <c r="G70" s="391"/>
+      <c r="H70" s="391"/>
+      <c r="I70" s="392"/>
       <c r="J70" s="105"/>
       <c r="K70" s="202"/>
       <c r="L70" s="105"/>
@@ -46927,16 +46893,16 @@
       <c r="A71" s="13"/>
       <c r="B71" s="112"/>
       <c r="C71" s="203"/>
-      <c r="D71" s="394"/>
-      <c r="E71" s="399"/>
-      <c r="F71" s="399"/>
-      <c r="G71" s="399"/>
-      <c r="H71" s="399"/>
-      <c r="I71" s="400"/>
-      <c r="J71" s="398"/>
-      <c r="K71" s="397"/>
-      <c r="L71" s="394"/>
-      <c r="M71" s="402"/>
+      <c r="D71" s="396"/>
+      <c r="E71" s="401"/>
+      <c r="F71" s="401"/>
+      <c r="G71" s="401"/>
+      <c r="H71" s="401"/>
+      <c r="I71" s="402"/>
+      <c r="J71" s="400"/>
+      <c r="K71" s="399"/>
+      <c r="L71" s="396"/>
+      <c r="M71" s="404"/>
     </row>
     <row r="72" spans="1:15" s="220" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="73" spans="1:15" ht="16.5" customHeight="1">
@@ -47182,13 +47148,13 @@
     <row r="87" spans="1:15" ht="16.5" customHeight="1">
       <c r="A87" s="13"/>
       <c r="B87" s="78"/>
-      <c r="C87" s="391"/>
-      <c r="D87" s="392"/>
-      <c r="E87" s="392"/>
-      <c r="F87" s="392"/>
-      <c r="G87" s="392"/>
-      <c r="H87" s="392"/>
-      <c r="I87" s="393"/>
+      <c r="C87" s="393"/>
+      <c r="D87" s="394"/>
+      <c r="E87" s="394"/>
+      <c r="F87" s="394"/>
+      <c r="G87" s="394"/>
+      <c r="H87" s="394"/>
+      <c r="I87" s="395"/>
       <c r="J87" s="78"/>
       <c r="K87" s="112"/>
       <c r="L87" s="112"/>
@@ -47199,13 +47165,13 @@
     <row r="88" spans="1:15" ht="16.5" customHeight="1">
       <c r="A88" s="13"/>
       <c r="B88" s="78"/>
-      <c r="C88" s="391"/>
-      <c r="D88" s="392"/>
-      <c r="E88" s="392"/>
-      <c r="F88" s="392"/>
-      <c r="G88" s="392"/>
-      <c r="H88" s="392"/>
-      <c r="I88" s="393"/>
+      <c r="C88" s="393"/>
+      <c r="D88" s="394"/>
+      <c r="E88" s="394"/>
+      <c r="F88" s="394"/>
+      <c r="G88" s="394"/>
+      <c r="H88" s="394"/>
+      <c r="I88" s="395"/>
       <c r="J88" s="78"/>
       <c r="K88" s="112"/>
       <c r="L88" s="112"/>
@@ -47711,7 +47677,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="376" t="s">
+      <c r="A1" s="378" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
@@ -47722,7 +47688,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="377"/>
+      <c r="A2" s="379"/>
       <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
@@ -47733,18 +47699,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="377"/>
+      <c r="A3" s="379"/>
       <c r="G3" s="113"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="377"/>
+      <c r="A4" s="379"/>
       <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="113"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="378"/>
+      <c r="A5" s="380"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -47759,10 +47725,10 @@
       <c r="B6" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="408" t="s">
+      <c r="C6" s="410" t="s">
         <v>574</v>
       </c>
-      <c r="D6" s="409"/>
+      <c r="D6" s="411"/>
       <c r="E6" s="180" t="s">
         <v>575</v>
       </c>
@@ -47906,8 +47872,8 @@
       <c r="B15" s="115"/>
       <c r="C15" s="189"/>
       <c r="D15" s="189"/>
-      <c r="E15" s="405"/>
-      <c r="F15" s="405"/>
+      <c r="E15" s="407"/>
+      <c r="F15" s="407"/>
       <c r="G15" s="189"/>
       <c r="H15" s="189"/>
       <c r="I15" s="189"/>
@@ -47922,8 +47888,8 @@
       <c r="B16" s="115"/>
       <c r="C16" s="192"/>
       <c r="D16" s="189"/>
-      <c r="E16" s="404"/>
-      <c r="F16" s="404"/>
+      <c r="E16" s="406"/>
+      <c r="F16" s="406"/>
       <c r="G16" s="193"/>
       <c r="H16" s="193"/>
       <c r="I16" s="194"/>
@@ -47940,8 +47906,8 @@
       <c r="B17" s="115"/>
       <c r="C17" s="192"/>
       <c r="D17" s="189"/>
-      <c r="E17" s="404"/>
-      <c r="F17" s="404"/>
+      <c r="E17" s="406"/>
+      <c r="F17" s="406"/>
       <c r="G17" s="193"/>
       <c r="H17" s="193"/>
       <c r="I17" s="194"/>
@@ -47958,8 +47924,8 @@
       <c r="B18" s="115"/>
       <c r="C18" s="192"/>
       <c r="D18" s="189"/>
-      <c r="E18" s="404"/>
-      <c r="F18" s="404"/>
+      <c r="E18" s="406"/>
+      <c r="F18" s="406"/>
       <c r="G18" s="193"/>
       <c r="H18" s="193"/>
       <c r="I18" s="194"/>
@@ -47976,8 +47942,8 @@
       <c r="B19" s="115"/>
       <c r="C19" s="193"/>
       <c r="D19" s="193"/>
-      <c r="E19" s="405"/>
-      <c r="F19" s="404"/>
+      <c r="E19" s="407"/>
+      <c r="F19" s="406"/>
       <c r="G19" s="193"/>
       <c r="H19" s="193"/>
       <c r="I19" s="194"/>
@@ -48233,17 +48199,17 @@
       <c r="B35" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="406"/>
-      <c r="D35" s="407"/>
-      <c r="E35" s="407"/>
-      <c r="F35" s="407"/>
-      <c r="G35" s="407"/>
-      <c r="H35" s="407"/>
-      <c r="I35" s="407"/>
-      <c r="J35" s="407"/>
-      <c r="K35" s="407"/>
-      <c r="L35" s="407"/>
-      <c r="M35" s="407"/>
+      <c r="C35" s="408"/>
+      <c r="D35" s="409"/>
+      <c r="E35" s="409"/>
+      <c r="F35" s="409"/>
+      <c r="G35" s="409"/>
+      <c r="H35" s="409"/>
+      <c r="I35" s="409"/>
+      <c r="J35" s="409"/>
+      <c r="K35" s="409"/>
+      <c r="L35" s="409"/>
+      <c r="M35" s="409"/>
     </row>
     <row r="36" spans="1:13" ht="16.5" customHeight="1">
       <c r="A36" s="13"/>
@@ -48419,11 +48385,11 @@
     <row r="46" spans="1:13" ht="33.75" customHeight="1">
       <c r="A46" s="13"/>
       <c r="B46" s="78"/>
-      <c r="C46" s="388"/>
-      <c r="D46" s="389"/>
-      <c r="E46" s="389"/>
-      <c r="F46" s="389"/>
-      <c r="G46" s="390"/>
+      <c r="C46" s="390"/>
+      <c r="D46" s="391"/>
+      <c r="E46" s="391"/>
+      <c r="F46" s="391"/>
+      <c r="G46" s="392"/>
       <c r="H46" s="12" t="s">
         <v>57</v>
       </c>
@@ -48438,11 +48404,11 @@
     <row r="47" spans="1:13" ht="16.5" customHeight="1">
       <c r="A47" s="13"/>
       <c r="B47" s="78"/>
-      <c r="C47" s="391"/>
-      <c r="D47" s="392"/>
-      <c r="E47" s="392"/>
-      <c r="F47" s="392"/>
-      <c r="G47" s="393"/>
+      <c r="C47" s="393"/>
+      <c r="D47" s="394"/>
+      <c r="E47" s="394"/>
+      <c r="F47" s="394"/>
+      <c r="G47" s="395"/>
       <c r="H47" s="12" t="s">
         <v>561</v>
       </c>
@@ -48457,11 +48423,11 @@
     <row r="48" spans="1:13" ht="16.5" customHeight="1">
       <c r="A48" s="13"/>
       <c r="B48" s="78"/>
-      <c r="C48" s="391"/>
-      <c r="D48" s="392"/>
-      <c r="E48" s="392"/>
-      <c r="F48" s="392"/>
-      <c r="G48" s="393"/>
+      <c r="C48" s="393"/>
+      <c r="D48" s="394"/>
+      <c r="E48" s="394"/>
+      <c r="F48" s="394"/>
+      <c r="G48" s="395"/>
       <c r="H48" s="12" t="s">
         <v>57</v>
       </c>
@@ -48476,11 +48442,11 @@
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="13"/>
       <c r="B49" s="78"/>
-      <c r="C49" s="391"/>
-      <c r="D49" s="392"/>
-      <c r="E49" s="392"/>
-      <c r="F49" s="392"/>
-      <c r="G49" s="393"/>
+      <c r="C49" s="393"/>
+      <c r="D49" s="394"/>
+      <c r="E49" s="394"/>
+      <c r="F49" s="394"/>
+      <c r="G49" s="395"/>
       <c r="H49" s="12" t="s">
         <v>57</v>
       </c>
@@ -48495,11 +48461,11 @@
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="13"/>
       <c r="B50" s="78"/>
-      <c r="C50" s="391"/>
-      <c r="D50" s="392"/>
-      <c r="E50" s="392"/>
-      <c r="F50" s="392"/>
-      <c r="G50" s="393"/>
+      <c r="C50" s="393"/>
+      <c r="D50" s="394"/>
+      <c r="E50" s="394"/>
+      <c r="F50" s="394"/>
+      <c r="G50" s="395"/>
       <c r="H50" s="12" t="s">
         <v>57</v>
       </c>
@@ -48514,11 +48480,11 @@
     <row r="51" spans="1:13" ht="16.5" customHeight="1">
       <c r="A51" s="13"/>
       <c r="B51" s="78"/>
-      <c r="C51" s="391"/>
-      <c r="D51" s="392"/>
-      <c r="E51" s="392"/>
-      <c r="F51" s="392"/>
-      <c r="G51" s="393"/>
+      <c r="C51" s="393"/>
+      <c r="D51" s="394"/>
+      <c r="E51" s="394"/>
+      <c r="F51" s="394"/>
+      <c r="G51" s="395"/>
       <c r="H51" s="12" t="s">
         <v>57</v>
       </c>
@@ -48533,11 +48499,11 @@
     <row r="52" spans="1:13" ht="16.5" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="78"/>
-      <c r="C52" s="391"/>
-      <c r="D52" s="392"/>
-      <c r="E52" s="392"/>
-      <c r="F52" s="392"/>
-      <c r="G52" s="393"/>
+      <c r="C52" s="393"/>
+      <c r="D52" s="394"/>
+      <c r="E52" s="394"/>
+      <c r="F52" s="394"/>
+      <c r="G52" s="395"/>
       <c r="H52" s="12" t="s">
         <v>57</v>
       </c>
@@ -48552,11 +48518,11 @@
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="13"/>
       <c r="B53" s="78"/>
-      <c r="C53" s="388"/>
-      <c r="D53" s="389"/>
-      <c r="E53" s="389"/>
-      <c r="F53" s="389"/>
-      <c r="G53" s="390"/>
+      <c r="C53" s="390"/>
+      <c r="D53" s="391"/>
+      <c r="E53" s="391"/>
+      <c r="F53" s="391"/>
+      <c r="G53" s="392"/>
       <c r="H53" s="12" t="s">
         <v>57</v>
       </c>
@@ -48571,11 +48537,11 @@
     <row r="54" spans="1:13" ht="25.5" customHeight="1">
       <c r="A54" s="13"/>
       <c r="B54" s="223"/>
-      <c r="C54" s="391"/>
-      <c r="D54" s="392"/>
-      <c r="E54" s="392"/>
-      <c r="F54" s="392"/>
-      <c r="G54" s="393"/>
+      <c r="C54" s="393"/>
+      <c r="D54" s="394"/>
+      <c r="E54" s="394"/>
+      <c r="F54" s="394"/>
+      <c r="G54" s="395"/>
       <c r="H54" s="12" t="s">
         <v>57</v>
       </c>
@@ -48590,11 +48556,11 @@
     <row r="55" spans="1:13" ht="24.75" customHeight="1">
       <c r="A55" s="13"/>
       <c r="B55" s="223"/>
-      <c r="C55" s="391"/>
-      <c r="D55" s="392"/>
-      <c r="E55" s="392"/>
-      <c r="F55" s="392"/>
-      <c r="G55" s="393"/>
+      <c r="C55" s="393"/>
+      <c r="D55" s="394"/>
+      <c r="E55" s="394"/>
+      <c r="F55" s="394"/>
+      <c r="G55" s="395"/>
       <c r="H55" s="12" t="s">
         <v>57</v>
       </c>
@@ -48609,11 +48575,11 @@
     <row r="56" spans="1:13" ht="24" customHeight="1">
       <c r="A56" s="13"/>
       <c r="B56" s="223"/>
-      <c r="C56" s="391"/>
-      <c r="D56" s="392"/>
-      <c r="E56" s="392"/>
-      <c r="F56" s="392"/>
-      <c r="G56" s="393"/>
+      <c r="C56" s="393"/>
+      <c r="D56" s="394"/>
+      <c r="E56" s="394"/>
+      <c r="F56" s="394"/>
+      <c r="G56" s="395"/>
       <c r="H56" s="12" t="s">
         <v>57</v>
       </c>
@@ -48670,31 +48636,31 @@
       <c r="C60" s="105" t="s">
         <v>576</v>
       </c>
-      <c r="D60" s="394" t="s">
+      <c r="D60" s="396" t="s">
         <v>577</v>
       </c>
-      <c r="E60" s="395"/>
-      <c r="F60" s="395"/>
-      <c r="G60" s="395"/>
-      <c r="H60" s="395"/>
-      <c r="I60" s="396"/>
-      <c r="J60" s="398"/>
-      <c r="K60" s="397"/>
-      <c r="L60" s="394"/>
-      <c r="M60" s="397"/>
+      <c r="E60" s="397"/>
+      <c r="F60" s="397"/>
+      <c r="G60" s="397"/>
+      <c r="H60" s="397"/>
+      <c r="I60" s="398"/>
+      <c r="J60" s="400"/>
+      <c r="K60" s="399"/>
+      <c r="L60" s="396"/>
+      <c r="M60" s="399"/>
     </row>
     <row r="61" spans="1:13" ht="24.95" customHeight="1">
       <c r="A61" s="13"/>
       <c r="B61" s="112"/>
       <c r="C61" s="105"/>
-      <c r="D61" s="394"/>
-      <c r="E61" s="401"/>
-      <c r="F61" s="401"/>
-      <c r="G61" s="401"/>
-      <c r="H61" s="401"/>
-      <c r="I61" s="402"/>
-      <c r="J61" s="382"/>
-      <c r="K61" s="384"/>
+      <c r="D61" s="396"/>
+      <c r="E61" s="403"/>
+      <c r="F61" s="403"/>
+      <c r="G61" s="403"/>
+      <c r="H61" s="403"/>
+      <c r="I61" s="404"/>
+      <c r="J61" s="384"/>
+      <c r="K61" s="386"/>
       <c r="L61" s="105"/>
       <c r="M61" s="202"/>
     </row>
@@ -48702,42 +48668,42 @@
       <c r="A62" s="13"/>
       <c r="B62" s="112"/>
       <c r="C62" s="105"/>
-      <c r="D62" s="388"/>
-      <c r="E62" s="389"/>
-      <c r="F62" s="389"/>
-      <c r="G62" s="389"/>
-      <c r="H62" s="389"/>
-      <c r="I62" s="390"/>
-      <c r="J62" s="398"/>
-      <c r="K62" s="397"/>
-      <c r="L62" s="394"/>
-      <c r="M62" s="403"/>
+      <c r="D62" s="390"/>
+      <c r="E62" s="391"/>
+      <c r="F62" s="391"/>
+      <c r="G62" s="391"/>
+      <c r="H62" s="391"/>
+      <c r="I62" s="392"/>
+      <c r="J62" s="400"/>
+      <c r="K62" s="399"/>
+      <c r="L62" s="396"/>
+      <c r="M62" s="405"/>
     </row>
     <row r="63" spans="1:13" ht="77.25" customHeight="1">
       <c r="A63" s="13"/>
       <c r="B63" s="112"/>
       <c r="C63" s="105"/>
-      <c r="D63" s="394"/>
-      <c r="E63" s="395"/>
-      <c r="F63" s="395"/>
-      <c r="G63" s="395"/>
-      <c r="H63" s="395"/>
-      <c r="I63" s="396"/>
-      <c r="J63" s="398"/>
-      <c r="K63" s="397"/>
-      <c r="L63" s="394"/>
-      <c r="M63" s="403"/>
+      <c r="D63" s="396"/>
+      <c r="E63" s="397"/>
+      <c r="F63" s="397"/>
+      <c r="G63" s="397"/>
+      <c r="H63" s="397"/>
+      <c r="I63" s="398"/>
+      <c r="J63" s="400"/>
+      <c r="K63" s="399"/>
+      <c r="L63" s="396"/>
+      <c r="M63" s="405"/>
     </row>
     <row r="64" spans="1:13" ht="27" customHeight="1">
       <c r="A64" s="13"/>
       <c r="B64" s="112"/>
       <c r="C64" s="105"/>
-      <c r="D64" s="394"/>
-      <c r="E64" s="399"/>
-      <c r="F64" s="399"/>
-      <c r="G64" s="399"/>
-      <c r="H64" s="399"/>
-      <c r="I64" s="400"/>
+      <c r="D64" s="396"/>
+      <c r="E64" s="401"/>
+      <c r="F64" s="401"/>
+      <c r="G64" s="401"/>
+      <c r="H64" s="401"/>
+      <c r="I64" s="402"/>
       <c r="J64" s="105"/>
       <c r="K64" s="238"/>
       <c r="L64" s="203"/>
@@ -48747,72 +48713,72 @@
       <c r="A65" s="13"/>
       <c r="B65" s="112"/>
       <c r="C65" s="105"/>
-      <c r="D65" s="394"/>
-      <c r="E65" s="401"/>
-      <c r="F65" s="401"/>
-      <c r="G65" s="401"/>
-      <c r="H65" s="401"/>
-      <c r="I65" s="402"/>
+      <c r="D65" s="396"/>
+      <c r="E65" s="403"/>
+      <c r="F65" s="403"/>
+      <c r="G65" s="403"/>
+      <c r="H65" s="403"/>
+      <c r="I65" s="404"/>
       <c r="J65" s="105"/>
       <c r="K65" s="238"/>
-      <c r="L65" s="388"/>
-      <c r="M65" s="390"/>
+      <c r="L65" s="390"/>
+      <c r="M65" s="392"/>
     </row>
     <row r="66" spans="1:15" ht="47.25" customHeight="1">
       <c r="A66" s="13"/>
       <c r="B66" s="112"/>
       <c r="C66" s="105"/>
-      <c r="D66" s="394"/>
-      <c r="E66" s="395"/>
-      <c r="F66" s="395"/>
-      <c r="G66" s="395"/>
-      <c r="H66" s="395"/>
-      <c r="I66" s="396"/>
-      <c r="J66" s="398"/>
-      <c r="K66" s="396"/>
-      <c r="L66" s="398"/>
-      <c r="M66" s="396"/>
+      <c r="D66" s="396"/>
+      <c r="E66" s="397"/>
+      <c r="F66" s="397"/>
+      <c r="G66" s="397"/>
+      <c r="H66" s="397"/>
+      <c r="I66" s="398"/>
+      <c r="J66" s="400"/>
+      <c r="K66" s="398"/>
+      <c r="L66" s="400"/>
+      <c r="M66" s="398"/>
     </row>
     <row r="67" spans="1:15" ht="97.5" customHeight="1">
       <c r="A67" s="13"/>
       <c r="B67" s="112"/>
       <c r="C67" s="105"/>
-      <c r="D67" s="394"/>
-      <c r="E67" s="401"/>
-      <c r="F67" s="401"/>
-      <c r="G67" s="401"/>
-      <c r="H67" s="401"/>
-      <c r="I67" s="402"/>
-      <c r="J67" s="398"/>
-      <c r="K67" s="400"/>
-      <c r="L67" s="394"/>
-      <c r="M67" s="403"/>
+      <c r="D67" s="396"/>
+      <c r="E67" s="403"/>
+      <c r="F67" s="403"/>
+      <c r="G67" s="403"/>
+      <c r="H67" s="403"/>
+      <c r="I67" s="404"/>
+      <c r="J67" s="400"/>
+      <c r="K67" s="402"/>
+      <c r="L67" s="396"/>
+      <c r="M67" s="405"/>
     </row>
     <row r="68" spans="1:15" ht="92.25" customHeight="1">
       <c r="A68" s="13"/>
       <c r="B68" s="112"/>
       <c r="C68" s="105"/>
-      <c r="D68" s="394"/>
-      <c r="E68" s="401"/>
-      <c r="F68" s="401"/>
-      <c r="G68" s="401"/>
-      <c r="H68" s="401"/>
-      <c r="I68" s="402"/>
-      <c r="J68" s="398"/>
-      <c r="K68" s="400"/>
-      <c r="L68" s="398"/>
-      <c r="M68" s="400"/>
+      <c r="D68" s="396"/>
+      <c r="E68" s="403"/>
+      <c r="F68" s="403"/>
+      <c r="G68" s="403"/>
+      <c r="H68" s="403"/>
+      <c r="I68" s="404"/>
+      <c r="J68" s="400"/>
+      <c r="K68" s="402"/>
+      <c r="L68" s="400"/>
+      <c r="M68" s="402"/>
     </row>
     <row r="69" spans="1:15" ht="27" customHeight="1">
       <c r="A69" s="13"/>
       <c r="B69" s="112"/>
       <c r="C69" s="105"/>
-      <c r="D69" s="388"/>
-      <c r="E69" s="389"/>
-      <c r="F69" s="389"/>
-      <c r="G69" s="389"/>
-      <c r="H69" s="389"/>
-      <c r="I69" s="390"/>
+      <c r="D69" s="390"/>
+      <c r="E69" s="391"/>
+      <c r="F69" s="391"/>
+      <c r="G69" s="391"/>
+      <c r="H69" s="391"/>
+      <c r="I69" s="392"/>
       <c r="J69" s="105"/>
       <c r="K69" s="202"/>
       <c r="L69" s="105"/>
@@ -48822,12 +48788,12 @@
       <c r="A70" s="13"/>
       <c r="B70" s="112"/>
       <c r="C70" s="105"/>
-      <c r="D70" s="388"/>
-      <c r="E70" s="389"/>
-      <c r="F70" s="389"/>
-      <c r="G70" s="389"/>
-      <c r="H70" s="389"/>
-      <c r="I70" s="390"/>
+      <c r="D70" s="390"/>
+      <c r="E70" s="391"/>
+      <c r="F70" s="391"/>
+      <c r="G70" s="391"/>
+      <c r="H70" s="391"/>
+      <c r="I70" s="392"/>
       <c r="J70" s="105"/>
       <c r="K70" s="202"/>
       <c r="L70" s="105"/>
@@ -48837,16 +48803,16 @@
       <c r="A71" s="13"/>
       <c r="B71" s="112"/>
       <c r="C71" s="203"/>
-      <c r="D71" s="394"/>
-      <c r="E71" s="399"/>
-      <c r="F71" s="399"/>
-      <c r="G71" s="399"/>
-      <c r="H71" s="399"/>
-      <c r="I71" s="400"/>
-      <c r="J71" s="398"/>
-      <c r="K71" s="397"/>
-      <c r="L71" s="394"/>
-      <c r="M71" s="402"/>
+      <c r="D71" s="396"/>
+      <c r="E71" s="401"/>
+      <c r="F71" s="401"/>
+      <c r="G71" s="401"/>
+      <c r="H71" s="401"/>
+      <c r="I71" s="402"/>
+      <c r="J71" s="400"/>
+      <c r="K71" s="399"/>
+      <c r="L71" s="396"/>
+      <c r="M71" s="404"/>
     </row>
     <row r="72" spans="1:15" s="220" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="73" spans="1:15" ht="16.5" customHeight="1">
@@ -48888,15 +48854,15 @@
       <c r="B75" s="78" t="s">
         <v>578</v>
       </c>
-      <c r="C75" s="391" t="s">
+      <c r="C75" s="393" t="s">
         <v>581</v>
       </c>
-      <c r="D75" s="392"/>
-      <c r="E75" s="392"/>
-      <c r="F75" s="392"/>
-      <c r="G75" s="392"/>
-      <c r="H75" s="392"/>
-      <c r="I75" s="393"/>
+      <c r="D75" s="394"/>
+      <c r="E75" s="394"/>
+      <c r="F75" s="394"/>
+      <c r="G75" s="394"/>
+      <c r="H75" s="394"/>
+      <c r="I75" s="395"/>
       <c r="J75" s="78"/>
       <c r="K75" s="112"/>
       <c r="L75" s="112"/>
@@ -48911,15 +48877,15 @@
       <c r="B76" s="78" t="s">
         <v>579</v>
       </c>
-      <c r="C76" s="391" t="s">
+      <c r="C76" s="393" t="s">
         <v>582</v>
       </c>
-      <c r="D76" s="392"/>
-      <c r="E76" s="392"/>
-      <c r="F76" s="392"/>
-      <c r="G76" s="392"/>
-      <c r="H76" s="392"/>
-      <c r="I76" s="393"/>
+      <c r="D76" s="394"/>
+      <c r="E76" s="394"/>
+      <c r="F76" s="394"/>
+      <c r="G76" s="394"/>
+      <c r="H76" s="394"/>
+      <c r="I76" s="395"/>
       <c r="J76" s="78"/>
       <c r="K76" s="112"/>
       <c r="L76" s="112"/>
@@ -48932,15 +48898,15 @@
       <c r="B77" s="78" t="s">
         <v>580</v>
       </c>
-      <c r="C77" s="388" t="s">
+      <c r="C77" s="390" t="s">
         <v>583</v>
       </c>
-      <c r="D77" s="392"/>
-      <c r="E77" s="392"/>
-      <c r="F77" s="392"/>
-      <c r="G77" s="392"/>
-      <c r="H77" s="392"/>
-      <c r="I77" s="393"/>
+      <c r="D77" s="394"/>
+      <c r="E77" s="394"/>
+      <c r="F77" s="394"/>
+      <c r="G77" s="394"/>
+      <c r="H77" s="394"/>
+      <c r="I77" s="395"/>
       <c r="J77" s="78"/>
       <c r="K77" s="112"/>
       <c r="L77" s="112"/>
@@ -49104,13 +49070,13 @@
     <row r="87" spans="1:15" ht="16.5" customHeight="1">
       <c r="A87" s="13"/>
       <c r="B87" s="78"/>
-      <c r="C87" s="391"/>
-      <c r="D87" s="392"/>
-      <c r="E87" s="392"/>
-      <c r="F87" s="392"/>
-      <c r="G87" s="392"/>
-      <c r="H87" s="392"/>
-      <c r="I87" s="393"/>
+      <c r="C87" s="393"/>
+      <c r="D87" s="394"/>
+      <c r="E87" s="394"/>
+      <c r="F87" s="394"/>
+      <c r="G87" s="394"/>
+      <c r="H87" s="394"/>
+      <c r="I87" s="395"/>
       <c r="J87" s="78"/>
       <c r="K87" s="112"/>
       <c r="L87" s="112"/>
@@ -49121,13 +49087,13 @@
     <row r="88" spans="1:15" ht="16.5" customHeight="1">
       <c r="A88" s="13"/>
       <c r="B88" s="78"/>
-      <c r="C88" s="391"/>
-      <c r="D88" s="392"/>
-      <c r="E88" s="392"/>
-      <c r="F88" s="392"/>
-      <c r="G88" s="392"/>
-      <c r="H88" s="392"/>
-      <c r="I88" s="393"/>
+      <c r="C88" s="393"/>
+      <c r="D88" s="394"/>
+      <c r="E88" s="394"/>
+      <c r="F88" s="394"/>
+      <c r="G88" s="394"/>
+      <c r="H88" s="394"/>
+      <c r="I88" s="395"/>
       <c r="J88" s="78"/>
       <c r="K88" s="112"/>
       <c r="L88" s="112"/>
